--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -538,82 +538,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>聚鸣涌金8号A期</t>
+          <t>元品南星A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2022-01-13</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.056</v>
+        <v>1.2221</v>
       </c>
       <c r="F2" t="n">
-        <v>1.43</v>
+        <v>1.2221</v>
       </c>
       <c r="G2" t="n">
-        <v>1.3994</v>
+        <v>1.2221</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>39.94%</t>
+          <t>22.21%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6.83%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-35.25%</t>
+          <t>-51.88%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>18.82%</t>
+          <t>33.41%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>40.40%</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>15.46%</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-17.19%</t>
+          <t>0.31%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-12.93%</t>
+          <t>-9.59%</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>5.33%</t>
+          <t>-5.31%</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>13.67%</t>
+          <t>42.32%</t>
         </is>
       </c>
     </row>
@@ -625,78 +617,82 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>玄元元丰2号A</t>
+          <t>聚鸣涌金8号A期</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.964</v>
+        <v>1.037</v>
       </c>
       <c r="F3" t="n">
-        <v>1.967</v>
+        <v>1.411</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8762</v>
+        <v>1.3743</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>87.62%</t>
+          <t>37.43%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20.59%</t>
+          <t>6.42%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-22.66%</t>
+          <t>-35.25%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>60.03%</t>
+          <t>18.80%</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>40.40%</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>99.29%</t>
+          <t>15.46%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-7.71%</t>
+          <t>-17.19%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-7.73%</t>
+          <t>-12.93%</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>17.89%</t>
+          <t>5.33%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-6.22%</t>
+          <t>11.63%</t>
         </is>
       </c>
     </row>
@@ -713,31 +709,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-01-21</t>
+          <t>2021-03-25</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.9454</v>
+        <v>0.9011</v>
       </c>
       <c r="F4" t="n">
-        <v>1.4454</v>
+        <v>1.4011</v>
       </c>
       <c r="G4" t="n">
-        <v>1.3211</v>
+        <v>1.2592</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>32.11%</t>
+          <t>25.92%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6.95%</t>
+          <t>5.94%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -747,12 +743,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>20.04%</t>
+          <t>20.57%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -779,7 +775,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6.00%</t>
+          <t>1.04%</t>
         </is>
       </c>
     </row>
@@ -791,78 +787,78 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>元品南星A</t>
+          <t>循远安心十三号A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.2301</v>
+        <v>0.8597</v>
       </c>
       <c r="F5" t="n">
-        <v>1.2301</v>
+        <v>0.8597</v>
       </c>
       <c r="G5" t="n">
-        <v>1.2301</v>
+        <v>0.8597</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23.01%</t>
+          <t>-14.03%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6.68%</t>
+          <t>-3.83%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-51.88%</t>
+          <t>-26.57%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>33.40%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.99%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>-12.22%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-9.59%</t>
+          <t>-4.23%</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-5.31%</t>
+          <t>-0.44%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>43.25%</t>
+          <t>0.71%</t>
         </is>
       </c>
     </row>
@@ -874,78 +870,78 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>循远安心十三号A</t>
+          <t>玄元元丰2号A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.8639</v>
+        <v>0.965</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8639</v>
+        <v>1.968</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8639</v>
+        <v>1.8781</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-13.61%</t>
+          <t>87.81%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-3.66%</t>
+          <t>20.49%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-26.57%</t>
+          <t>-22.66%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>14.18%</t>
+          <t>59.85%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.00%</t>
+          <t>99.29%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-12.22%</t>
+          <t>-7.71%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-4.23%</t>
+          <t>-7.73%</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.44%</t>
+          <t>17.89%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1.19%</t>
+          <t>-6.13%</t>
         </is>
       </c>
     </row>
@@ -957,78 +953,78 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>聚鸣匠传11号</t>
+          <t>彤源同裕1期1号</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2021-02-26</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.1957</v>
+        <v>1.03</v>
       </c>
       <c r="F7" t="n">
-        <v>1.1957</v>
+        <v>1.03</v>
       </c>
       <c r="G7" t="n">
-        <v>1.1957</v>
+        <v>1.03</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>19.57%</t>
+          <t>3.00%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5.19%</t>
+          <t>0.73%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-30.82%</t>
+          <t>-39.87%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>20.51%</t>
+          <t>19.36%</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>8.22%</t>
+          <t>20.50%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-11.61%</t>
+          <t>-15.93%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.28%</t>
+          <t>-12.64%</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>11.88%</t>
+          <t>2.03%</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>13.16%</t>
+          <t>14.06%</t>
         </is>
       </c>
     </row>
@@ -1040,66 +1036,78 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>聚鸣章玉价值成长3号A</t>
+          <t>聚鸣匠传11号</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.9955000000000001</v>
+        <v>1.1861</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9955000000000001</v>
+        <v>1.1861</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9955000000000001</v>
+        <v>1.1861</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-0.45%</t>
+          <t>18.61%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-0.60%</t>
+          <t>4.98%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-7.34%</t>
+          <t>-30.82%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12.07%</t>
+          <t>20.57%</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>8.22%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-11.61%</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-1.28%</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>11.88%</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-1.86%</t>
+          <t>12.26%</t>
         </is>
       </c>
     </row>
@@ -1111,78 +1119,74 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>健顺云6号C</t>
+          <t>勤辰金选森裕弘享1号</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.213</v>
+        <v>1.2936</v>
       </c>
       <c r="F9" t="n">
-        <v>1.213</v>
+        <v>1.2936</v>
       </c>
       <c r="G9" t="n">
-        <v>1.213</v>
+        <v>1.2936</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21.30%</t>
+          <t>29.36%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4.81%</t>
+          <t>11.59%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-50.34%</t>
+          <t>-15.98%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>27.73%</t>
+          <t>20.11%</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>37.40%</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-37.12%</t>
+          <t>0.79%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-9.95%</t>
+          <t>0.66%</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>31.88%</t>
+          <t>15.70%</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>18.23%</t>
+          <t>10.20%</t>
         </is>
       </c>
     </row>
@@ -1194,82 +1198,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>翊安投资可转债2号</t>
+          <t>弘尚资产弘利2号1期</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2020-11-06</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.402</v>
+        <v>0.731</v>
       </c>
       <c r="F10" t="n">
-        <v>1.402</v>
+        <v>0.731</v>
       </c>
       <c r="G10" t="n">
-        <v>1.402</v>
+        <v>0.731</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>40.20%</t>
+          <t>-26.90%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>8.07%</t>
+          <t>-9.46%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-23.30%</t>
+          <t>-49.66%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11.78%</t>
+          <t>23.82%</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>3.90%</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>26.66%</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>4.48%</t>
+          <t>-6.70%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-7.49%</t>
+          <t>-18.54%</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>3.77%</t>
+          <t>-10.13%</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>6.21%</t>
+          <t>7.03%</t>
         </is>
       </c>
     </row>
@@ -1281,74 +1277,78 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>弘尚资产弘利2号1期</t>
+          <t>健顺云6号C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022-01-14</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.731</v>
+        <v>1.092</v>
       </c>
       <c r="F11" t="n">
-        <v>0.731</v>
+        <v>1.092</v>
       </c>
       <c r="G11" t="n">
-        <v>0.731</v>
+        <v>1.092</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-26.90%</t>
+          <t>9.20%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-9.43%</t>
+          <t>2.15%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-49.66%</t>
+          <t>-50.34%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>23.82%</t>
+          <t>28.12%</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>37.40%</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-6.70%</t>
+          <t>-37.12%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-18.54%</t>
+          <t>-9.95%</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-10.13%</t>
+          <t>31.88%</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>6.43%</t>
         </is>
       </c>
     </row>
@@ -1365,31 +1365,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-08-09</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.2023</v>
+        <v>1.1729</v>
       </c>
       <c r="F12" t="n">
-        <v>1.2023</v>
+        <v>1.1729</v>
       </c>
       <c r="G12" t="n">
-        <v>1.2023</v>
+        <v>1.1729</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>20.23%</t>
+          <t>17.29%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>7.15%</t>
+          <t>6.28%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1399,12 +1399,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>10.51%</t>
+          <t>10.75%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>8.41%</t>
+          <t>5.76%</t>
         </is>
       </c>
     </row>
@@ -1439,74 +1439,82 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>勤辰金选森裕弘享1号</t>
+          <t>重阳福享1期</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2020-06-02</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.3244</v>
+        <v>1.258</v>
       </c>
       <c r="F13" t="n">
-        <v>1.3244</v>
+        <v>1.258</v>
       </c>
       <c r="G13" t="n">
-        <v>1.3244</v>
+        <v>1.258</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>32.44%</t>
+          <t>25.80%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12.40%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-15.98%</t>
+          <t>-34.55%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>19.80%</t>
+          <t>18.38%</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>16.00%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>5.34%</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>-3.11%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.66%</t>
+          <t>-9.97%</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>15.70%</t>
+          <t>12.66%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>12.82%</t>
+          <t>4.75%</t>
         </is>
       </c>
     </row>
@@ -1518,74 +1526,82 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>仁布积极进取14号A</t>
+          <t>翊安投资可转债2号</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2020-11-06</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.9409999999999999</v>
+        <v>1.366</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9409999999999999</v>
+        <v>1.366</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9409999999999999</v>
+        <v>1.366</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-5.90%</t>
+          <t>36.60%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-1.92%</t>
+          <t>7.39%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-21.26%</t>
+          <t>-23.30%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>11.83%</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>3.90%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>26.66%</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-2.24%</t>
+          <t>4.48%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-13.21%</t>
+          <t>-7.49%</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>5.04%</t>
+          <t>3.77%</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5.58%</t>
+          <t>3.48%</t>
         </is>
       </c>
     </row>
@@ -1597,70 +1613,74 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>格雷长期价值16号B</t>
+          <t>源乐晟-晟世10号8期</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2022-01-20</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7584</v>
+        <v>0.6311</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7584</v>
+        <v>0.6311</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7584</v>
+        <v>0.6311</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-24.16%</t>
+          <t>-36.89%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-12.83%</t>
+          <t>-13.53%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-32.42%</t>
+          <t>-44.52%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>15.14%</t>
+          <t>21.90%</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>-19.67%</t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-12.44%</t>
+          <t>-25.13%</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-14.98%</t>
+          <t>2.03%</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1.88%</t>
+          <t>2.85%</t>
         </is>
       </c>
     </row>
@@ -1672,78 +1692,74 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>彤源同裕1期1号</t>
+          <t>仁布积极进取14号A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-02-04</t>
+          <t>2022-02-10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.056</v>
+        <v>0.9109</v>
       </c>
       <c r="F16" t="n">
-        <v>1.056</v>
+        <v>0.9109</v>
       </c>
       <c r="G16" t="n">
-        <v>1.056</v>
+        <v>0.9109</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5.60%</t>
+          <t>-8.91%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>-2.96%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-39.87%</t>
+          <t>-21.26%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>19.18%</t>
+          <t>11.17%</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>20.50%</t>
-        </is>
-      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-15.93%</t>
+          <t>-2.24%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-12.64%</t>
+          <t>-13.21%</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2.03%</t>
+          <t>5.04%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>16.94%</t>
+          <t>2.20%</t>
         </is>
       </c>
     </row>
@@ -1760,31 +1776,31 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-01-26</t>
+          <t>2021-02-05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.827</v>
+        <v>0.8272</v>
       </c>
       <c r="F17" t="n">
-        <v>0.827</v>
+        <v>0.8272</v>
       </c>
       <c r="G17" t="n">
-        <v>0.827</v>
+        <v>0.8272</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-17.30%</t>
+          <t>-17.28%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-4.49%</t>
+          <t>-4.50%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1794,7 +1810,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>6.49%</t>
+          <t>6.51%</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1806,7 +1822,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-9.00%</t>
+          <t>-9.01%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1826,7 +1842,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>0.72%</t>
         </is>
       </c>
     </row>
@@ -1838,82 +1854,66 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>重阳福享1期</t>
+          <t>聚鸣章玉价值成长3号A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.294</v>
+        <v>0.9916</v>
       </c>
       <c r="F18" t="n">
-        <v>1.294</v>
+        <v>0.9916</v>
       </c>
       <c r="G18" t="n">
-        <v>1.294</v>
+        <v>0.9916</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>29.40%</t>
+          <t>-0.84%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5.46%</t>
+          <t>-1.15%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-34.55%</t>
+          <t>-7.70%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>18.26%</t>
+          <t>12.40%</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>16.00%</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>5.34%</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>-3.11%</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-9.97%</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>12.66%</t>
+          <t>1.43%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>7.74%</t>
+          <t>-2.24%</t>
         </is>
       </c>
     </row>
@@ -1925,74 +1925,70 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>源乐晟-晟世10号8期</t>
+          <t>格雷长期价值16号B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022-01-06</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6548</v>
+        <v>0.726</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6548</v>
+        <v>0.726</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6548</v>
+        <v>0.726</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-34.52%</t>
+          <t>-27.40%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-12.44%</t>
+          <t>-14.57%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-44.52%</t>
+          <t>-32.42%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>21.75%</t>
+          <t>15.33%</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>-19.67%</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-25.13%</t>
+          <t>-12.44%</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2.03%</t>
+          <t>-14.98%</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>6.71%</t>
+          <t>-2.47%</t>
         </is>
       </c>
     </row>
@@ -2009,41 +2005,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.0599</v>
+        <v>1.0573</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0599</v>
+        <v>1.0573</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0599</v>
+        <v>1.0573</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>5.99%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6.13%</t>
+          <t>6.00%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-17.30%</t>
+          <t>-17.31%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>21.24%</t>
+          <t>21.42%</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2058,12 +2054,12 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>12.30%</t>
+          <t>12.29%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-5.62%</t>
+          <t>-5.84%</t>
         </is>
       </c>
     </row>
@@ -2075,78 +2071,86 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>景林精选FOF子基金GJ2期</t>
+          <t>易同精选2号</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-07-09</t>
+          <t>2015-02-02</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.2108</v>
+        <v>2.657</v>
       </c>
       <c r="F21" t="n">
-        <v>1.2108</v>
+        <v>2.757</v>
       </c>
       <c r="G21" t="n">
-        <v>1.2108</v>
+        <v>2.8507</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>21.08%</t>
+          <t>185.07%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5.39%</t>
+          <t>10.89%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-26.96%</t>
+          <t>-30.96%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>19.00%</t>
+          <t>21.07%</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>29.17%</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>25.66%</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>16.72%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-13.16%</t>
+          <t>-14.71%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>11.86%</t>
+          <t>-7.90%</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>13.58%</t>
+          <t>22.11%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>9.53%</t>
+          <t>18.78%</t>
         </is>
       </c>
     </row>
@@ -2158,78 +2162,70 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>景林景泰丰收GJ2期</t>
+          <t>静瑞灵动增长安泰1号</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-03-05</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.0346</v>
+        <v>1.1241</v>
       </c>
       <c r="F22" t="n">
-        <v>1.0346</v>
+        <v>1.2807</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0346</v>
+        <v>1.3001</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>30.01%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>18.51%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-36.09%</t>
+          <t>-19.30%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>19.18%</t>
+          <t>25.34%</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0.05%</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>-24.96%</t>
-        </is>
-      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>14.24%</t>
+          <t>-8.65%</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>12.03%</t>
+          <t>27.43%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>7.67%</t>
+          <t>11.68%</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2242,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2020-11-18</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2270,7 +2266,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3.63%</t>
+          <t>3.67%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2280,7 +2276,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>25.55%</t>
+          <t>25.67%</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2328,82 +2324,78 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>沣京公司精选2期</t>
+          <t>景林精选FOF子基金GJ2期</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2021-07-21</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.5417</v>
+        <v>1.2108</v>
       </c>
       <c r="F24" t="n">
-        <v>1.5417</v>
+        <v>1.2108</v>
       </c>
       <c r="G24" t="n">
-        <v>1.5417</v>
+        <v>1.2108</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>54.17%</t>
+          <t>21.08%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>8.89%</t>
+          <t>5.44%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-22.34%</t>
+          <t>-26.96%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>16.92%</t>
+          <t>19.05%</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>31.67%</t>
-        </is>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>16.53%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-12.00%</t>
+          <t>-13.16%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-1.38%</t>
+          <t>11.86%</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>15.39%</t>
+          <t>13.58%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>9.53%</t>
         </is>
       </c>
     </row>
@@ -2420,31 +2412,31 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-06-07</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.447</v>
+        <v>1.435</v>
       </c>
       <c r="F25" t="n">
-        <v>1.447</v>
+        <v>1.435</v>
       </c>
       <c r="G25" t="n">
-        <v>1.447</v>
+        <v>1.435</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>44.70%</t>
+          <t>43.50%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10.30%</t>
+          <t>10.12%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2454,12 +2446,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>11.20%</t>
+          <t>11.24%</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -2486,7 +2478,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>9.29%</t>
+          <t>8.38%</t>
         </is>
       </c>
     </row>
@@ -2498,78 +2490,74 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>高毅任昊致福25期A</t>
+          <t>高毅臻选FOF21期A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.887</v>
+        <v>1.147</v>
       </c>
       <c r="F26" t="n">
-        <v>0.887</v>
+        <v>1.147</v>
       </c>
       <c r="G26" t="n">
-        <v>0.887</v>
+        <v>1.147</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-11.30%</t>
+          <t>14.70%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-3.28%</t>
+          <t>4.65%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-28.71%</t>
+          <t>-21.94%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>14.61%</t>
+          <t>17.73%</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>-5.27%</t>
-        </is>
-      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>-20.05%</t>
+          <t>1.14%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-2.69%</t>
+          <t>-9.01%</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>13.34%</t>
+          <t>15.63%</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>6.19%</t>
+          <t>7.79%</t>
         </is>
       </c>
     </row>
@@ -2581,70 +2569,78 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>盛天国华1号A</t>
+          <t>景林景泰丰收GJ2期</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2021-03-24</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.9828</v>
+        <v>1.0346</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9828</v>
+        <v>1.0346</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9828</v>
+        <v>1.0346</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-1.72%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-1.25%</t>
+          <t>0.87%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-18.25%</t>
+          <t>-36.09%</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>17.53%</t>
+          <t>19.28%</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>-24.96%</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>14.24%</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-1.14%</t>
+          <t>12.03%</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.88%</t>
+          <t>7.67%</t>
         </is>
       </c>
     </row>
@@ -2656,82 +2652,78 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>旭鑫价值成长7期</t>
+          <t>宽远安泰成长1号</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2021-04-23</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.981</v>
+        <v>1.042</v>
       </c>
       <c r="F28" t="n">
-        <v>1.3267</v>
+        <v>1.042</v>
       </c>
       <c r="G28" t="n">
-        <v>1.3611</v>
+        <v>1.042</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>36.11%</t>
+          <t>4.20%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>6.25%</t>
+          <t>1.06%</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-13.19%</t>
+          <t>-20.13%</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>9.76%</t>
+          <t>13.98%</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>18.28%</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>3.20%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-3.39%</t>
+          <t>-1.36%</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>-7.27%</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>14.16%</t>
+          <t>4.24%</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>1.60%</t>
+          <t>5.89%</t>
         </is>
       </c>
     </row>
@@ -2743,82 +2735,86 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>易同精选2号</t>
+          <t>合撰价值精选贰号</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2018-02-05</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.466</v>
+        <v>0.981</v>
       </c>
       <c r="F29" t="n">
-        <v>1.4419</v>
+        <v>0.981</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4444</v>
+        <v>0.981</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>-1.90%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>-0.27%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-24.58%</t>
+          <t>-61.28%</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>18.90%</t>
+          <t>21.31%</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr"/>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>31.82%</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>8.43%</t>
+          <t>48.53%</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>15.91%</t>
+          <t>-7.54%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-13.93%</t>
+          <t>-23.29%</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-7.46%</t>
+          <t>-23.90%</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>20.96%</t>
+          <t>-0.11%</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>19.29%</t>
+          <t>5.60%</t>
         </is>
       </c>
     </row>
@@ -2830,78 +2826,78 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>宽远安泰成长1号</t>
+          <t>高毅任昊致福25期A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-04-07</t>
+          <t>2021-08-20</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.066</v>
+        <v>0.8661</v>
       </c>
       <c r="F30" t="n">
-        <v>1.066</v>
+        <v>0.8661</v>
       </c>
       <c r="G30" t="n">
-        <v>1.066</v>
+        <v>0.8661</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>6.60%</t>
+          <t>-13.39%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.64%</t>
+          <t>-3.93%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-20.13%</t>
+          <t>-28.71%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13.86%</t>
+          <t>14.71%</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>3.20%</t>
+          <t>-5.28%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-1.36%</t>
+          <t>-20.05%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-7.27%</t>
+          <t>-2.69%</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>4.24%</t>
+          <t>13.34%</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>3.70%</t>
         </is>
       </c>
     </row>
@@ -2913,82 +2909,86 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>合撰价值精选贰号</t>
+          <t>兴聚投资可换股债券1号</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2018-07-26</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.8325</v>
+        <v>2.429</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8325</v>
+        <v>3.421</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8325</v>
+        <v>3.6338</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-16.75%</t>
+          <t>263.38%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-3.54%</t>
+          <t>21.39%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-61.28%</t>
+          <t>-14.05%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>23.48%</t>
+          <t>14.59%</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr"/>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>27.17%</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>42.87%</t>
+          <t>62.69%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>-7.55%</t>
+          <t>56.10%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-23.29%</t>
+          <t>-3.33%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-23.90%</t>
+          <t>2.35%</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>-0.10%</t>
+          <t>11.09%</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>8.07%</t>
+          <t>2.27%</t>
         </is>
       </c>
     </row>
@@ -3000,74 +3000,86 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>明达精选V号1期</t>
+          <t>旭鑫价值成长7期</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2022-01-14</t>
+          <t>2019-08-21</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.704</v>
+        <v>1.133</v>
       </c>
       <c r="F32" t="n">
-        <v>0.704</v>
+        <v>1.534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.704</v>
+        <v>1.572</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-29.60%</t>
+          <t>57.20%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-10.50%</t>
+          <t>8.43%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-54.00%</t>
+          <t>-13.17%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>27.05%</t>
+          <t>9.76%</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-0.46</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>5.40%</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>30.17%</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-7.40%</t>
+          <t>-3.39%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-30.35%</t>
+          <t>0.41%</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>29.92%</t>
+          <t>14.17%</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>-15.99%</t>
+          <t>1.16%</t>
         </is>
       </c>
     </row>
@@ -3079,78 +3091,86 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>东方港湾汉韵一期</t>
+          <t>沣京公司精选2期</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-02-23</t>
+          <t>2019-06-06</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.838</v>
+        <v>2.016</v>
       </c>
       <c r="F33" t="n">
-        <v>0.838</v>
+        <v>2.016</v>
       </c>
       <c r="G33" t="n">
-        <v>0.838</v>
+        <v>2.016</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-16.20%</t>
+          <t>101.60%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-4.27%</t>
+          <t>12.86%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-35.62%</t>
+          <t>-22.34%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>19.10%</t>
+          <t>16.61%</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-0.33</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>16.50%</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>51.67%</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-10.30%</t>
+          <t>16.53%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-27.09%</t>
+          <t>-12.00%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>18.20%</t>
+          <t>-1.38%</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>32.60%</t>
+          <t>15.39%</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>-18.24%</t>
+          <t>-2.23%</t>
         </is>
       </c>
     </row>
@@ -3162,51 +3182,51 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>静瑞灵动增长安泰1号</t>
+          <t>盛天国华1号A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-12-07</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.1643</v>
+        <v>0.9619</v>
       </c>
       <c r="F34" t="n">
-        <v>1.3209</v>
+        <v>0.9619</v>
       </c>
       <c r="G34" t="n">
-        <v>1.3466</v>
+        <v>0.9619</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>34.66%</t>
+          <t>-3.81%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>20.67%</t>
+          <t>-2.97%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-19.30%</t>
+          <t>-18.25%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>24.84%</t>
+          <t>18.32%</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
@@ -3215,17 +3235,17 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-8.65%</t>
+          <t>0.29%</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>27.43%</t>
+          <t>-1.14%</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>15.68%</t>
+          <t>-2.99%</t>
         </is>
       </c>
     </row>
@@ -3237,82 +3257,74 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>兴聚投资可换股债券1号</t>
+          <t>明达精选V号1期</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2022-02-08</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.703</v>
+        <v>0.697</v>
       </c>
       <c r="F35" t="n">
-        <v>2.3881</v>
+        <v>0.697</v>
       </c>
       <c r="G35" t="n">
-        <v>2.5477</v>
+        <v>0.697</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>154.77%</t>
+          <t>-30.30%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>20.20%</t>
+          <t>-10.94%</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-14.05%</t>
+          <t>-54.00%</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>15.67%</t>
+          <t>27.14%</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>43.02%</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>56.11%</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>-3.33%</t>
+          <t>-7.40%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2.34%</t>
+          <t>-30.35%</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>11.08%</t>
+          <t>29.92%</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>3.83%</t>
+          <t>-16.83%</t>
         </is>
       </c>
     </row>
@@ -3324,74 +3336,78 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>高毅臻选FOF21期A</t>
+          <t>东方港湾汉韵一期</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2021-03-09</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.1723</v>
+        <v>0.848</v>
       </c>
       <c r="F36" t="n">
-        <v>1.1723</v>
+        <v>0.848</v>
       </c>
       <c r="G36" t="n">
-        <v>1.1723</v>
+        <v>0.848</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>17.23%</t>
+          <t>-15.20%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>5.38%</t>
+          <t>-4.00%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-21.94%</t>
+          <t>-35.62%</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>17.62%</t>
+          <t>19.15%</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>-10.30%</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1.14%</t>
+          <t>-27.09%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-9.01%</t>
+          <t>18.20%</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>15.63%</t>
+          <t>32.60%</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>10.17%</t>
+          <t>-17.27%</t>
         </is>
       </c>
     </row>
@@ -3408,31 +3424,31 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.344</v>
+        <v>1.319</v>
       </c>
       <c r="F37" t="n">
-        <v>1.344</v>
+        <v>1.319</v>
       </c>
       <c r="G37" t="n">
-        <v>1.344</v>
+        <v>1.319</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>34.40%</t>
+          <t>31.90%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>10.23%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3442,12 +3458,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>13.99%</t>
+          <t>14.05%</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
@@ -3470,7 +3486,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>9.89%</t>
+          <t>7.85%</t>
         </is>
       </c>
     </row>
@@ -3487,31 +3503,31 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2022-08-29</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.876</v>
+        <v>0.856</v>
       </c>
       <c r="F38" t="n">
-        <v>0.876</v>
+        <v>0.856</v>
       </c>
       <c r="G38" t="n">
-        <v>0.876</v>
+        <v>0.856</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-12.40%</t>
+          <t>-14.40%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-4.98%</t>
+          <t>-5.89%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3521,12 +3537,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>16.72%</t>
+          <t>16.84%</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
@@ -3549,7 +3565,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>8.01%</t>
+          <t>5.55%</t>
         </is>
       </c>
     </row>
@@ -3561,74 +3577,82 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>衍复新擎300增强一号B</t>
+          <t>明汯乐享300指数增强1号A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2020-03-16</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.0801</v>
+        <v>1.8995</v>
       </c>
       <c r="F39" t="n">
-        <v>1.2301</v>
+        <v>1.8995</v>
       </c>
       <c r="G39" t="n">
-        <v>1.2379</v>
+        <v>1.8995</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>23.79%</t>
+          <t>89.95%</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>9.88%</t>
+          <t>13.64%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-16.67%</t>
+          <t>-25.89%</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>16.70%</t>
+          <t>19.08%</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>60.65%</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>7.10%</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-10.32%</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-0.06%</t>
+          <t>-4.52%</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>21.44%</t>
+          <t>25.83%</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>2.01%</t>
+          <t>2.47%</t>
         </is>
       </c>
     </row>
@@ -3645,31 +3669,31 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.217</v>
+        <v>1.195</v>
       </c>
       <c r="F40" t="n">
-        <v>1.217</v>
+        <v>1.195</v>
       </c>
       <c r="G40" t="n">
-        <v>1.217</v>
+        <v>1.195</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>21.70%</t>
+          <t>19.50%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>18.61%</t>
+          <t>19.16%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3679,12 +3703,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>17.95%</t>
+          <t>19.04%</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
@@ -3699,7 +3723,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>3.84%</t>
+          <t>1.96%</t>
         </is>
       </c>
     </row>
@@ -3711,82 +3735,74 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>明汯乐享300指数增强1号A</t>
+          <t>衍复新擎300增强一号B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2020-03-16</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.9322</v>
+        <v>1.0595</v>
       </c>
       <c r="F41" t="n">
-        <v>1.9322</v>
+        <v>1.2095</v>
       </c>
       <c r="G41" t="n">
-        <v>1.9322</v>
+        <v>1.2143</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>93.22%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>14.09%</t>
+          <t>9.02%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-25.89%</t>
+          <t>-16.67%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>19.09%</t>
+          <t>16.83%</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>60.65%</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>7.10%</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>-10.32%</t>
+          <t>-0.01%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-4.52%</t>
+          <t>-0.06%</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>25.83%</t>
+          <t>21.44%</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>4.23%</t>
+          <t>0.07%</t>
         </is>
       </c>
     </row>
@@ -3798,82 +3814,74 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>衍复新擎A号</t>
+          <t>宽德中证500指数增强22号一期</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.1954</v>
+        <v>1.108</v>
       </c>
       <c r="F42" t="n">
-        <v>1.7354</v>
+        <v>1.492</v>
       </c>
       <c r="G42" t="n">
-        <v>1.8785</v>
+        <v>1.5488</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>87.85%</t>
+          <t>54.88%</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>14.48%</t>
+          <t>19.60%</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-19.19%</t>
+          <t>-22.71%</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>18.67%</t>
+          <t>21.53%</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>5.69%</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>27.54%</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>-3.01%</t>
+          <t>-3.60%</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>8.36%</t>
+          <t>12.62%</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>24.43%</t>
+          <t>32.38%</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>6.56%</t>
+          <t>7.76%</t>
         </is>
       </c>
     </row>
@@ -3885,74 +3893,78 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>卓识中证500指数增强十一号A</t>
+          <t>灵均君迎指数增强6号</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.1644</v>
+        <v>0.995</v>
       </c>
       <c r="F43" t="n">
-        <v>1.1644</v>
+        <v>1.2237</v>
       </c>
       <c r="G43" t="n">
-        <v>1.1644</v>
+        <v>1.2226</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>16.44%</t>
+          <t>22.26%</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5.17%</t>
+          <t>4.98%</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-26.06%</t>
+          <t>-37.24%</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20.59%</t>
+          <t>21.27%</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>15.17%</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>3.18%</t>
+          <t>-5.91%</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0.75%</t>
+          <t>-0.51%</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>6.19%</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>3.00%</t>
+          <t>6.80%</t>
         </is>
       </c>
     </row>
@@ -3964,78 +3976,78 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>灵均君迎指数增强6号</t>
+          <t>诚奇优选中证500指数增强2期</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2021-12-30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.0049</v>
+        <v>1.233</v>
       </c>
       <c r="F44" t="n">
-        <v>1.2336</v>
+        <v>1.233</v>
       </c>
       <c r="G44" t="n">
-        <v>1.2347</v>
+        <v>1.233</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>23.47%</t>
+          <t>23.30%</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>5.20%</t>
+          <t>6.71%</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-37.24%</t>
+          <t>-22.74%</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>21.21%</t>
+          <t>20.48%</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>15.17%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>-5.91%</t>
+          <t>-6.70%</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-0.51%</t>
+          <t>1.39%</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>6.19%</t>
+          <t>22.62%</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>7.85%</t>
+          <t>6.29%</t>
         </is>
       </c>
     </row>
@@ -4047,78 +4059,78 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>诚奇优选中证500指数增强2期</t>
+          <t>赫富乐想500指数增强1号</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2021-12-10</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1.252</v>
+        <v>1.2152</v>
       </c>
       <c r="F45" t="n">
-        <v>1.252</v>
+        <v>1.2152</v>
       </c>
       <c r="G45" t="n">
-        <v>1.252</v>
+        <v>1.2152</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>25.20%</t>
+          <t>21.52%</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>7.14%</t>
+          <t>5.77%</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-22.74%</t>
+          <t>-24.66%</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>20.39%</t>
+          <t>22.93%</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.86%</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>-6.70%</t>
+          <t>-9.59%</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>1.39%</t>
+          <t>4.52%</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>22.62%</t>
+          <t>20.46%</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>7.93%</t>
+          <t>4.81%</t>
         </is>
       </c>
     </row>
@@ -4130,78 +4142,82 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>赫富乐想500指数增强1号</t>
+          <t>衍复新擎A号</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2021-09-10</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1.2402</v>
+        <v>1.1749</v>
       </c>
       <c r="F46" t="n">
-        <v>1.2402</v>
+        <v>1.7149</v>
       </c>
       <c r="G46" t="n">
-        <v>1.2402</v>
+        <v>1.8463</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>24.02%</t>
+          <t>84.63%</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6.33%</t>
+          <t>14.18%</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-24.66%</t>
+          <t>-19.19%</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>22.77%</t>
+          <t>18.77%</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>5.69%</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1.87%</t>
+          <t>27.54%</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-9.59%</t>
+          <t>-3.01%</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4.52%</t>
+          <t>8.36%</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>20.46%</t>
+          <t>24.43%</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>6.96%</t>
+          <t>4.74%</t>
         </is>
       </c>
     </row>
@@ -4213,51 +4229,51 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>宽德中证500指数增强22号一期</t>
+          <t>卓识中证500指数增强十一号A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2022-09-16</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.122</v>
+        <v>1.1446</v>
       </c>
       <c r="F47" t="n">
-        <v>1.506</v>
+        <v>1.1446</v>
       </c>
       <c r="G47" t="n">
-        <v>1.5684</v>
+        <v>1.1446</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>56.84%</t>
+          <t>14.46%</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>19.78%</t>
+          <t>4.61%</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-22.71%</t>
+          <t>-26.06%</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>21.42%</t>
+          <t>20.69%</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -4265,22 +4281,22 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-3.60%</t>
+          <t>3.18%</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>12.62%</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>32.38%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>9.12%</t>
+          <t>1.25%</t>
         </is>
       </c>
     </row>
@@ -4292,78 +4308,70 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>衍复新擎1000增强一号A期</t>
+          <t>黑翼中证1000指数增强5号1期</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2021-07-21</t>
+          <t>2023-01-13</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1.2889</v>
+        <v>1.231</v>
       </c>
       <c r="F48" t="n">
-        <v>1.4939</v>
+        <v>1.231</v>
       </c>
       <c r="G48" t="n">
-        <v>1.5459</v>
+        <v>1.231</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>54.59%</t>
+          <t>23.10%</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>12.68%</t>
+          <t>9.97%</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-21.93%</t>
+          <t>-27.93%</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>25.01%</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>5.85%</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>-4.58%</t>
-        </is>
-      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>12.74%</t>
+          <t>0.50%</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>21.67%</t>
+          <t>8.36%</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>11.59%</t>
+          <t>13.04%</t>
         </is>
       </c>
     </row>
@@ -4380,31 +4388,31 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2022-08-22</t>
+          <t>2022-09-05</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.168</v>
+        <v>1.157</v>
       </c>
       <c r="F49" t="n">
-        <v>1.578</v>
+        <v>1.567</v>
       </c>
       <c r="G49" t="n">
-        <v>1.6779</v>
+        <v>1.6621</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>67.79%</t>
+          <t>66.21%</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>22.39%</t>
+          <t>22.12%</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4414,12 +4422,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>25.98%</t>
+          <t>26.10%</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="M49" t="inlineStr"/>
@@ -4442,7 +4450,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>13.94%</t>
+          <t>12.87%</t>
         </is>
       </c>
     </row>
@@ -4459,31 +4467,31 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-08-12</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.7621</v>
+        <v>0.7603</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7621</v>
+        <v>0.7603</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7621</v>
+        <v>0.7603</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-23.79%</t>
+          <t>-23.97%</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>-7.26%</t>
+          <t>-7.31%</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4493,12 +4501,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17.74%</t>
+          <t>17.69%</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -4525,7 +4533,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>10.39%</t>
+          <t>10.12%</t>
         </is>
       </c>
     </row>
@@ -4537,82 +4545,78 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>幻方量化1000指数专享14号2期A</t>
+          <t>衍复新擎1000增强一号A期</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2021-08-03</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.7476</v>
+        <v>1.2681</v>
       </c>
       <c r="F51" t="n">
-        <v>1.7476</v>
+        <v>1.4731</v>
       </c>
       <c r="G51" t="n">
-        <v>1.7476</v>
+        <v>1.5209</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>74.76%</t>
+          <t>52.09%</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>12.64%</t>
+          <t>12.23%</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-33.12%</t>
+          <t>-21.93%</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>21.70%</t>
+          <t>23.16%</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>8.16%</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>20.89%</t>
+          <t>5.85%</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>1.07%</t>
+          <t>-4.58%</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>9.79%</t>
+          <t>12.74%</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>11.27%</t>
+          <t>21.67%</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>9.78%</t>
         </is>
       </c>
     </row>
@@ -4629,31 +4633,31 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.3627</v>
+        <v>1.3577</v>
       </c>
       <c r="F52" t="n">
-        <v>1.3627</v>
+        <v>1.3577</v>
       </c>
       <c r="G52" t="n">
-        <v>1.3627</v>
+        <v>1.3577</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>36.27%</t>
+          <t>35.77%</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>36.15%</t>
+          <t>37.07%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4663,12 +4667,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>24.21%</t>
+          <t>24.67%</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="M52" t="inlineStr"/>
@@ -4683,7 +4687,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>7.97%</t>
         </is>
       </c>
     </row>
@@ -4695,74 +4699,66 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>黑翼中证1000指数增强5号1期</t>
+          <t>玄信星选1000指数增强1号1期</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.243</v>
+        <v>1.412</v>
       </c>
       <c r="F53" t="n">
-        <v>1.243</v>
+        <v>1.412</v>
       </c>
       <c r="G53" t="n">
-        <v>1.243</v>
+        <v>1.412</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>24.30%</t>
+          <t>41.20%</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>10.27%</t>
+          <t>61.71%</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-27.93%</t>
+          <t>-12.81%</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>24.78%</t>
+          <t>29.28%</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>0.50%</t>
-        </is>
-      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>8.36%</t>
+          <t>31.21%</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>14.14%</t>
+          <t>7.61%</t>
         </is>
       </c>
     </row>
@@ -4774,66 +4770,82 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>玄信星选1000指数增强1号1期</t>
+          <t>幻方量化1000指数专享14号2期A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1.412</v>
+        <v>1.7331</v>
       </c>
       <c r="F54" t="n">
-        <v>1.412</v>
+        <v>1.7331</v>
       </c>
       <c r="G54" t="n">
-        <v>1.412</v>
+        <v>1.7331</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>41.20%</t>
+          <t>73.31%</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>55.80%</t>
+          <t>12.44%</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-14.65%</t>
+          <t>-33.12%</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>26.99%</t>
+          <t>21.70%</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>8.16%</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>20.89%</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>9.79%</t>
+        </is>
+      </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>26.93%</t>
+          <t>11.27%</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>11.24%</t>
+          <t>7.35%</t>
         </is>
       </c>
     </row>
@@ -4845,51 +4857,51 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>衍复新擎小市值增强一号A期</t>
+          <t>宽德小洞天3号B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1.3758</v>
+        <v>1.704</v>
       </c>
       <c r="F55" t="n">
-        <v>1.4658</v>
+        <v>1.704</v>
       </c>
       <c r="G55" t="n">
-        <v>1.4923</v>
+        <v>1.704</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>49.23%</t>
+          <t>70.40%</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>26.62%</t>
+          <t>43.18%</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-28.52%</t>
+          <t>-28.47%</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>31.47%</t>
+          <t>34.87%</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
@@ -4898,17 +4910,17 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>3.15%</t>
+          <t>7.60%</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>27.51%</t>
+          <t>37.73%</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>13.46%</t>
+          <t>14.98%</t>
         </is>
       </c>
     </row>
@@ -4920,51 +4932,51 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>宽德小洞天3号B</t>
+          <t>衍复新擎小市值增强一号A期</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.709</v>
+        <v>1.3732</v>
       </c>
       <c r="F56" t="n">
-        <v>1.709</v>
+        <v>1.4632</v>
       </c>
       <c r="G56" t="n">
-        <v>1.709</v>
+        <v>1.4894</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>70.90%</t>
+          <t>48.94%</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>41.81%</t>
+          <t>26.82%</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-28.47%</t>
+          <t>-28.52%</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>34.43%</t>
+          <t>31.65%</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -4973,17 +4985,17 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>7.60%</t>
+          <t>3.15%</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>37.73%</t>
+          <t>27.51%</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>15.32%</t>
+          <t>13.24%</t>
         </is>
       </c>
     </row>
@@ -4995,78 +5007,70 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>天演国睿量化精选6期</t>
+          <t>黑翼量化成长18S1期</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.061</v>
+        <v>1.668</v>
       </c>
       <c r="F57" t="n">
-        <v>1.488</v>
+        <v>1.668</v>
       </c>
       <c r="G57" t="n">
-        <v>1.5801</v>
+        <v>1.668</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>58.01%</t>
+          <t>66.80%</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>14.00%</t>
+          <t>49.29%</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-26.38%</t>
+          <t>-27.70%</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>27.05%</t>
+          <t>36.43%</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>6.00%</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>-2.55%</t>
-        </is>
-      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>11.51%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>25.29%</t>
+          <t>39.10%</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>9.49%</t>
+          <t>19.91%</t>
         </is>
       </c>
     </row>
@@ -5083,31 +5087,31 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.321</v>
+        <v>1.302</v>
       </c>
       <c r="F58" t="n">
-        <v>1.321</v>
+        <v>1.302</v>
       </c>
       <c r="G58" t="n">
-        <v>1.321</v>
+        <v>1.302</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>32.10%</t>
+          <t>30.20%</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>16.81%</t>
+          <t>16.08%</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -5117,12 +5121,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>27.85%</t>
+          <t>28.03%</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -5141,7 +5145,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>18.37%</t>
+          <t>16.67%</t>
         </is>
       </c>
     </row>
@@ -5153,70 +5157,78 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>黑翼量化成长18S1期</t>
+          <t>明汯乐享股票精选2号</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2023-12-07</t>
+          <t>2021-11-08</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.693</v>
+        <v>1.5426</v>
       </c>
       <c r="F59" t="n">
-        <v>1.693</v>
+        <v>1.5426</v>
       </c>
       <c r="G59" t="n">
-        <v>1.693</v>
+        <v>1.5426</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>69.30%</t>
+          <t>54.26%</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>51.45%</t>
+          <t>13.74%</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-27.70%</t>
+          <t>-31.41%</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>36.37%</t>
+          <t>28.71%</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>-3.89%</t>
+        </is>
+      </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>9.89%</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>39.10%</t>
+          <t>26.82%</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>21.71%</t>
+          <t>13.90%</t>
         </is>
       </c>
     </row>
@@ -5233,31 +5245,31 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.113</v>
+        <v>1.123</v>
       </c>
       <c r="F60" t="n">
-        <v>1.418</v>
+        <v>1.428</v>
       </c>
       <c r="G60" t="n">
-        <v>1.4525</v>
+        <v>1.4655</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>45.25%</t>
+          <t>46.55%</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>22.63%</t>
+          <t>23.62%</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -5267,12 +5279,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>25.08%</t>
+          <t>25.35%</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
@@ -5291,7 +5303,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>10.09%</t>
+          <t>11.07%</t>
         </is>
       </c>
     </row>
@@ -5303,78 +5315,66 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>致远精选六号A</t>
+          <t>茂源量化选股15号1期</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2021-08-27</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1.081</v>
+        <v>1.5965</v>
       </c>
       <c r="F61" t="n">
-        <v>1.312</v>
+        <v>1.5965</v>
       </c>
       <c r="G61" t="n">
-        <v>1.3307</v>
+        <v>1.5965</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>33.07%</t>
+          <t>59.65%</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>8.39%</t>
+          <t>80.92%</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-27.19%</t>
+          <t>-10.97%</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>21.30%</t>
+          <t>28.50%</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>10.90%</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>-4.78%</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>2.65%</t>
-        </is>
-      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>13.90%</t>
+          <t>44.48%</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>7.78%</t>
+          <t>10.50%</t>
         </is>
       </c>
     </row>
@@ -5386,78 +5386,78 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>九坤股票量化优选42号</t>
+          <t>天演国睿量化精选6期</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2021-08-17</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1.2209</v>
+        <v>1.06</v>
       </c>
       <c r="F62" t="n">
-        <v>1.2209</v>
+        <v>1.487</v>
       </c>
       <c r="G62" t="n">
-        <v>1.2209</v>
+        <v>1.5787</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>22.09%</t>
+          <t>57.87%</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>5.74%</t>
+          <t>13.89%</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-28.03%</t>
+          <t>-26.38%</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>21.28%</t>
+          <t>26.98%</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>-4.28%</t>
+          <t>6.00%</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>-7.31%</t>
+          <t>-2.55%</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>10.20%</t>
+          <t>11.51%</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>13.86%</t>
+          <t>25.29%</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>9.67%</t>
+          <t>9.39%</t>
         </is>
       </c>
     </row>
@@ -5469,78 +5469,78 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>明汯乐享股票精选2号</t>
+          <t>九坤股票量化优选42号</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2021-10-22</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1.5552</v>
+        <v>1.2064</v>
       </c>
       <c r="F63" t="n">
-        <v>1.5552</v>
+        <v>1.2064</v>
       </c>
       <c r="G63" t="n">
-        <v>1.5552</v>
+        <v>1.2064</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>55.52%</t>
+          <t>20.64%</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>13.89%</t>
+          <t>5.43%</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-31.41%</t>
+          <t>-28.03%</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>28.62%</t>
+          <t>21.35%</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>1.12%</t>
+          <t>-4.28%</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>-3.89%</t>
+          <t>-7.31%</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>9.89%</t>
+          <t>10.20%</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>26.82%</t>
+          <t>13.86%</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>14.83%</t>
+          <t>8.37%</t>
         </is>
       </c>
     </row>
@@ -5552,66 +5552,78 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>茂源量化选股15号1期</t>
+          <t>致远精选六号A</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1.6006</v>
+        <v>1.071</v>
       </c>
       <c r="F64" t="n">
-        <v>1.6006</v>
+        <v>1.302</v>
       </c>
       <c r="G64" t="n">
-        <v>1.6006</v>
+        <v>1.3184</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>60.06%</t>
+          <t>31.84%</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>76.56%</t>
+          <t>8.23%</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-10.97%</t>
+          <t>-27.19%</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>27.88%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>10.90%</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>-4.78%</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>2.65%</t>
+        </is>
+      </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>44.48%</t>
+          <t>13.90%</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>10.78%</t>
+          <t>6.78%</t>
         </is>
       </c>
     </row>
@@ -5628,31 +5640,31 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023-05-04</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.0757</v>
+        <v>1.0561</v>
       </c>
       <c r="F65" t="n">
-        <v>1.0757</v>
+        <v>1.0561</v>
       </c>
       <c r="G65" t="n">
-        <v>1.0757</v>
+        <v>1.0561</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>7.57%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>3.03%</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -5662,12 +5674,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>14.50%</t>
+          <t>14.72%</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -5686,7 +5698,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>4.57%</t>
+          <t>2.66%</t>
         </is>
       </c>
     </row>
@@ -5698,78 +5710,74 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>衍复新擎对冲一号A期</t>
+          <t>上海宽德量化中性1号二期</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.1542</v>
+        <v>1.285</v>
       </c>
       <c r="F66" t="n">
-        <v>1.2392</v>
+        <v>1.349</v>
       </c>
       <c r="G66" t="n">
-        <v>1.2484</v>
+        <v>1.362</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>24.84%</t>
+          <t>36.20%</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>5.98%</t>
+          <t>12.88%</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-6.10%</t>
+          <t>-7.71%</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>5.90%</t>
+          <t>8.94%</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>-2.48%</t>
-        </is>
-      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>7.75%</t>
+          <t>-0.60%</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>7.47%</t>
+          <t>18.36%</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>8.03%</t>
+          <t>9.73%</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>2.33%</t>
+          <t>5.50%</t>
         </is>
       </c>
     </row>
@@ -5781,74 +5789,66 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>衍复春晓一期</t>
+          <t>黑翼中性策略18号1期</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1.2273</v>
+        <v>1.085</v>
       </c>
       <c r="F67" t="n">
-        <v>1.2273</v>
+        <v>1.085</v>
       </c>
       <c r="G67" t="n">
-        <v>1.2273</v>
+        <v>1.085</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>22.73%</t>
+          <t>8.50%</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>9.18%</t>
+          <t>9.59%</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-8.24%</t>
+          <t>-4.64%</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>7.97%</t>
+          <t>6.46%</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>0.40%</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>11.17%</t>
-        </is>
-      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>7.35%</t>
+          <t>2.90%</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>2.44%</t>
+          <t>5.44%</t>
         </is>
       </c>
     </row>
@@ -5860,74 +5860,66 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>上海宽德量化中性1号二期</t>
+          <t>涵德和光淳德量化对冲1号1期</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.27</v>
+        <v>1.0371</v>
       </c>
       <c r="F68" t="n">
-        <v>1.334</v>
+        <v>1.0371</v>
       </c>
       <c r="G68" t="n">
-        <v>1.3461</v>
+        <v>1.0371</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>34.61%</t>
+          <t>3.71%</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>11.71%</t>
+          <t>4.26%</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-7.71%</t>
+          <t>-5.04%</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>8.70%</t>
+          <t>6.42%</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>-0.60%</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>18.36%</t>
-        </is>
-      </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>9.73%</t>
+          <t>-0.31%</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>4.27%</t>
+          <t>4.03%</t>
         </is>
       </c>
     </row>
@@ -5939,51 +5931,51 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>玄信麒麟市场中性一号一期</t>
+          <t>托特春晓市场中性8号</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-04-10</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1.047</v>
+        <v>1.1215</v>
       </c>
       <c r="F69" t="n">
-        <v>1.047</v>
+        <v>1.1393</v>
       </c>
       <c r="G69" t="n">
-        <v>1.047</v>
+        <v>1.1402</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>4.70%</t>
+          <t>14.02%</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2.55%</t>
+          <t>6.94%</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-7.31%</t>
+          <t>-4.11%</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>7.95%</t>
+          <t>7.48%</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -5992,17 +5984,17 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>2.44%</t>
+          <t>1.76%</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>-0.38%</t>
+          <t>3.19%</t>
         </is>
       </c>
     </row>
@@ -6014,70 +6006,74 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>托特春晓市场中性8号</t>
+          <t>衍复春晓一期</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2023-04-10</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1.1089</v>
+        <v>1.2308</v>
       </c>
       <c r="F70" t="n">
-        <v>1.1267</v>
+        <v>1.2308</v>
       </c>
       <c r="G70" t="n">
-        <v>1.1274</v>
+        <v>1.2308</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>12.74%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>6.38%</t>
+          <t>9.24%</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-4.11%</t>
+          <t>-8.24%</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>7.47%</t>
+          <t>7.94%</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>11.17%</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>1.76%</t>
+          <t>7.35%</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>2.03%</t>
+          <t>2.73%</t>
         </is>
       </c>
     </row>
@@ -6089,66 +6085,78 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>涵德和光淳德量化对冲1号1期</t>
+          <t>衍复新擎对冲一号A期</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2021-06-01</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1.0278</v>
+        <v>1.1573</v>
       </c>
       <c r="F71" t="n">
-        <v>1.0278</v>
+        <v>1.2423</v>
       </c>
       <c r="G71" t="n">
-        <v>1.0278</v>
+        <v>1.2518</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2.78%</t>
+          <t>25.18%</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3.09%</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-5.04%</t>
+          <t>-6.10%</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>6.29%</t>
+          <t>5.91%</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>-2.48%</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>7.75%</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>7.47%</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>-0.31%</t>
+          <t>8.03%</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>3.10%</t>
+          <t>2.61%</t>
         </is>
       </c>
     </row>
@@ -6160,66 +6168,70 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>黑翼中性策略18号1期</t>
+          <t>玄信麒麟市场中性一号一期</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1.082</v>
+        <v>1.048</v>
       </c>
       <c r="F72" t="n">
-        <v>1.082</v>
+        <v>1.048</v>
       </c>
       <c r="G72" t="n">
-        <v>1.082</v>
+        <v>1.048</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>8.20%</t>
+          <t>4.80%</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>8.39%</t>
+          <t>2.63%</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-4.64%</t>
+          <t>-7.31%</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>7.99%</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>2.90%</t>
+          <t>2.44%</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>5.15%</t>
+          <t>-0.29%</t>
         </is>
       </c>
     </row>
@@ -6236,31 +6248,31 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2022-02-16</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.4346</v>
+        <v>1.406</v>
       </c>
       <c r="F73" t="n">
-        <v>1.4346</v>
+        <v>1.406</v>
       </c>
       <c r="G73" t="n">
-        <v>1.4346</v>
+        <v>1.406</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>43.46%</t>
+          <t>40.60%</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>12.46%</t>
+          <t>11.90%</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -6270,12 +6282,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>11.35%</t>
+          <t>11.53%</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -6283,7 +6295,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>3.23%</t>
+          <t>3.22%</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -6298,7 +6310,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>7.44%</t>
+          <t>5.31%</t>
         </is>
       </c>
     </row>
@@ -6310,70 +6322,66 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>悬铃瑞享C号1期</t>
+          <t>博普安兴私享一号</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.057</v>
+        <v>1.0266</v>
       </c>
       <c r="F74" t="n">
-        <v>1.057</v>
+        <v>1.0266</v>
       </c>
       <c r="G74" t="n">
-        <v>1.057</v>
+        <v>1.0266</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>5.70%</t>
+          <t>2.66%</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2.89%</t>
+          <t>3.88%</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-10.12%</t>
+          <t>-2.89%</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>7.26%</t>
+          <t>4.81%</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>2.90%</t>
-        </is>
-      </c>
+      <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>1.36%</t>
+          <t>1.59%</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>1.05%</t>
         </is>
       </c>
     </row>
@@ -6385,66 +6393,70 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>博普安兴私享一号</t>
+          <t>悬铃瑞享C号1期</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1.0253</v>
+        <v>1.047</v>
       </c>
       <c r="F75" t="n">
-        <v>1.0253</v>
+        <v>1.047</v>
       </c>
       <c r="G75" t="n">
-        <v>1.0253</v>
+        <v>1.047</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>4.70%</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>3.79%</t>
+          <t>2.41%</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-2.89%</t>
+          <t>-10.12%</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>4.88%</t>
+          <t>7.33%</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>1.59%</t>
+          <t>1.36%</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.38%</t>
         </is>
       </c>
     </row>
@@ -6456,70 +6468,66 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>黑翼CTA28号B</t>
+          <t>均成均享1号1期</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2023-12-07</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.216</v>
+        <v>1.0904</v>
       </c>
       <c r="F76" t="n">
-        <v>1.216</v>
+        <v>1.0904</v>
       </c>
       <c r="G76" t="n">
-        <v>1.216</v>
+        <v>1.0904</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>21.60%</t>
+          <t>9.04%</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>12.61%</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-3.90%</t>
+          <t>-3.17%</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>7.79%</t>
+          <t>7.41%</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+      <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>18.10%</t>
+          <t>2.73%</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>2.96%</t>
+          <t>6.14%</t>
         </is>
       </c>
     </row>
@@ -6531,74 +6539,70 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>细水居20号私募证券投资基金B</t>
+          <t>道合青云8号一期</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.3703</v>
+        <v>1.109</v>
       </c>
       <c r="F77" t="n">
-        <v>1.893</v>
+        <v>1.109</v>
       </c>
       <c r="G77" t="n">
-        <v>2.0214</v>
+        <v>1.109</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>102.14%</t>
+          <t>10.90%</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>31.43%</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>-15.65%</t>
+          <t>-8.15%</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>19.44%</t>
+          <t>8.65%</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>3.24%</t>
-        </is>
-      </c>
+      <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>26.90%</t>
+          <t>-3.40%</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>47.23%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>4.80%</t>
+          <t>5.72%</t>
         </is>
       </c>
     </row>
@@ -6610,70 +6614,74 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>会世元丰29号1期</t>
+          <t>细水居20号私募证券投资基金B</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2023-01-06</t>
+          <t>2022-08-25</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1.1651</v>
+        <v>1.376</v>
       </c>
       <c r="F78" t="n">
-        <v>1.1651</v>
+        <v>1.8987</v>
       </c>
       <c r="G78" t="n">
-        <v>1.1651</v>
+        <v>2.0299</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>16.51%</t>
+          <t>102.99%</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>7.24%</t>
+          <t>31.68%</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-6.45%</t>
+          <t>-15.65%</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>6.96%</t>
+          <t>19.44%</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>3.24%</t>
+        </is>
+      </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>26.90%</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>14.68%</t>
+          <t>47.23%</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>-0.98%</t>
+          <t>5.24%</t>
         </is>
       </c>
     </row>
@@ -6685,66 +6693,70 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>均成均享1号1期</t>
+          <t>黑翼CTA28号B</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2023-12-14</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1.0847</v>
+        <v>1.221</v>
       </c>
       <c r="F79" t="n">
-        <v>1.0847</v>
+        <v>1.221</v>
       </c>
       <c r="G79" t="n">
-        <v>1.0847</v>
+        <v>1.221</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>8.47%</t>
+          <t>22.10%</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>11.18%</t>
+          <t>17.05%</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-3.17%</t>
+          <t>-3.90%</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>7.22%</t>
+          <t>7.79%</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>2.74%</t>
+          <t>18.10%</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>5.58%</t>
+          <t>3.39%</t>
         </is>
       </c>
     </row>
@@ -6756,51 +6768,51 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>道合青云8号一期</t>
+          <t>会世元丰29号1期</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-01-19</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1.121</v>
+        <v>1.1691</v>
       </c>
       <c r="F80" t="n">
-        <v>1.121</v>
+        <v>1.1691</v>
       </c>
       <c r="G80" t="n">
-        <v>1.121</v>
+        <v>1.1691</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>12.10%</t>
+          <t>16.91%</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>6.52%</t>
+          <t>7.47%</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-8.15%</t>
+          <t>-6.45%</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>8.46%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
@@ -6809,17 +6821,17 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>-3.40%</t>
+          <t>2.60%</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>14.68%</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>6.86%</t>
+          <t>-0.64%</t>
         </is>
       </c>
     </row>
@@ -6836,31 +6848,31 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1.619</v>
+        <v>1.601</v>
       </c>
       <c r="F81" t="n">
-        <v>1.619</v>
+        <v>1.601</v>
       </c>
       <c r="G81" t="n">
-        <v>1.619</v>
+        <v>1.601</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>61.90%</t>
+          <t>60.10%</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>17.97%</t>
+          <t>17.77%</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -6870,12 +6882,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>20.05%</t>
+          <t>20.20%</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="M81" t="inlineStr"/>
@@ -6898,7 +6910,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>15.23%</t>
+          <t>13.95%</t>
         </is>
       </c>
     </row>
@@ -6915,31 +6927,31 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2020-11-26</t>
+          <t>2020-12-16</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1.096</v>
+        <v>1.102</v>
       </c>
       <c r="F82" t="n">
-        <v>1.397</v>
+        <v>1.403</v>
       </c>
       <c r="G82" t="n">
-        <v>1.4385</v>
+        <v>1.4464</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>43.85%</t>
+          <t>44.64%</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>8.83%</t>
+          <t>9.04%</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6949,12 +6961,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>9.08%</t>
+          <t>9.12%</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
@@ -6985,7 +6997,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>5.28%</t>
+          <t>5.86%</t>
         </is>
       </c>
     </row>
@@ -6997,51 +7009,51 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>佳期海港1号</t>
+          <t>博普CTA股票全市场五号1期</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1.23</v>
+        <v>1.079</v>
       </c>
       <c r="F83" t="n">
-        <v>1.23</v>
+        <v>1.079</v>
       </c>
       <c r="G83" t="n">
-        <v>1.23</v>
+        <v>1.079</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>23.00%</t>
+          <t>7.90%</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>7.67%</t>
+          <t>2.84%</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-24.91%</t>
+          <t>-26.42%</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>19.54%</t>
+          <t>19.84%</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -7049,22 +7061,22 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>-2.40%</t>
+          <t>-4.30%</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>-0.92%</t>
+          <t>-1.78%</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>21.72%</t>
+          <t>9.36%</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>4.50%</t>
+          <t>4.96%</t>
         </is>
       </c>
     </row>
@@ -7076,51 +7088,51 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>千宜乐享精选CTA2号</t>
+          <t>佳期海港1号</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1.1058</v>
+        <v>1.203</v>
       </c>
       <c r="F84" t="n">
-        <v>1.1058</v>
+        <v>1.203</v>
       </c>
       <c r="G84" t="n">
-        <v>1.1058</v>
+        <v>1.203</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>10.58%</t>
+          <t>20.30%</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3.31%</t>
+          <t>6.94%</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-15.27%</t>
+          <t>-24.91%</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>13.60%</t>
+          <t>19.73%</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -7128,22 +7140,22 @@
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>-2.85%</t>
+          <t>-2.40%</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>0.41%</t>
+          <t>-0.92%</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>17.73%</t>
+          <t>21.72%</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>-3.72%</t>
+          <t>2.21%</t>
         </is>
       </c>
     </row>
@@ -7155,74 +7167,66 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>博普CTA股票全市场五号1期</t>
+          <t>君享大类资产全天候2号</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1.069</v>
+        <v>1.0993</v>
       </c>
       <c r="F85" t="n">
-        <v>1.069</v>
+        <v>1.0993</v>
       </c>
       <c r="G85" t="n">
-        <v>1.069</v>
+        <v>1.0993</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>6.90%</t>
+          <t>9.93%</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2.46%</t>
+          <t>9.73%</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-26.42%</t>
+          <t>-3.10%</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>19.76%</t>
+          <t>4.41%</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>-4.30%</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>-1.78%</t>
-        </is>
-      </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>9.36%</t>
+          <t>8.73%</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>1.10%</t>
         </is>
       </c>
     </row>
@@ -7234,66 +7238,74 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>君享大类资产全天候2号</t>
+          <t>千宜乐享精选CTA2号</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1.0993</v>
+        <v>1.1058</v>
       </c>
       <c r="F86" t="n">
-        <v>1.0993</v>
+        <v>1.1058</v>
       </c>
       <c r="G86" t="n">
-        <v>1.0993</v>
+        <v>1.1058</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>10.58%</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>8.47%</t>
+          <t>3.37%</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>-3.10%</t>
+          <t>-15.27%</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>4.16%</t>
+          <t>13.73%</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-2.85%</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>8.73%</t>
+          <t>17.73%</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>1.10%</t>
+          <t>-3.72%</t>
         </is>
       </c>
     </row>
@@ -7310,31 +7322,31 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2021-08-31</t>
+          <t>2021-09-07</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1.0779</v>
+        <v>1.0775</v>
       </c>
       <c r="F87" t="n">
-        <v>1.3993</v>
+        <v>1.3989</v>
       </c>
       <c r="G87" t="n">
-        <v>1.4402</v>
+        <v>1.4397</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>44.02%</t>
+          <t>43.97%</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>10.86%</t>
+          <t>10.85%</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -7376,7 +7388,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>9.71%</t>
+          <t>9.67%</t>
         </is>
       </c>
     </row>
@@ -7388,51 +7400,51 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>博普凤祥13号</t>
+          <t>玖鹏宏远3号</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-08-23</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1.022</v>
+        <v>1.0736</v>
       </c>
       <c r="F88" t="n">
-        <v>1.071</v>
+        <v>1.1989</v>
       </c>
       <c r="G88" t="n">
-        <v>1.0721</v>
+        <v>1.2081</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>7.21%</t>
+          <t>20.81%</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>7.61%</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-29.87%</t>
+          <t>-31.31%</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>22.42%</t>
+          <t>27.07%</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="M88" t="inlineStr"/>
@@ -7440,22 +7452,22 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>4.60%</t>
+          <t>0.90%</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>-4.83%</t>
+          <t>4.89%</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>3.69%</t>
+          <t>7.15%</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>3.87%</t>
+          <t>6.53%</t>
         </is>
       </c>
     </row>
@@ -7467,51 +7479,51 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>玖鹏宏远3号</t>
+          <t>博普凤祥13号</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2022-08-23</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1.0819</v>
+        <v>1.022</v>
       </c>
       <c r="F89" t="n">
-        <v>1.2072</v>
+        <v>1.071</v>
       </c>
       <c r="G89" t="n">
-        <v>1.2175</v>
+        <v>1.0721</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>21.75%</t>
+          <t>7.21%</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>7.99%</t>
+          <t>2.48%</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-31.31%</t>
+          <t>-29.87%</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>27.16%</t>
+          <t>22.35%</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -7519,22 +7531,22 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>0.90%</t>
+          <t>4.60%</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>4.89%</t>
+          <t>-4.83%</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>7.15%</t>
+          <t>3.69%</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>7.36%</t>
+          <t>3.87%</t>
         </is>
       </c>
     </row>

--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S89"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>净值起始日期</t>
+          <t>成立日期</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>净值结束日期</t>
+          <t>最新净值日期</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -527,6 +527,11 @@
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>2025收益</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>近一周收益</t>
         </is>
       </c>
     </row>
@@ -608,6 +613,11 @@
           <t>42.32%</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-0.65%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -693,6 +703,11 @@
       <c r="S3" t="inlineStr">
         <is>
           <t>11.63%</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-1.79%</t>
         </is>
       </c>
     </row>
@@ -778,6 +793,11 @@
           <t>1.04%</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-4.69%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -861,6 +881,11 @@
           <t>0.71%</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.47%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -944,6 +969,11 @@
           <t>-6.13%</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1027,6 +1057,11 @@
           <t>14.06%</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-2.46%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1108,6 +1143,11 @@
       <c r="S8" t="inlineStr">
         <is>
           <t>12.26%</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-0.80%</t>
         </is>
       </c>
     </row>
@@ -1189,6 +1229,11 @@
           <t>10.20%</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-2.33%</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1268,6 +1313,11 @@
           <t>7.03%</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1349,6 +1399,11 @@
       <c r="S11" t="inlineStr">
         <is>
           <t>6.43%</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-9.98%</t>
         </is>
       </c>
     </row>
@@ -1430,6 +1485,11 @@
           <t>5.76%</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>-2.45%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1517,6 +1577,11 @@
           <t>4.75%</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>-2.78%</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1602,6 +1667,11 @@
       <c r="S14" t="inlineStr">
         <is>
           <t>3.48%</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>-2.57%</t>
         </is>
       </c>
     </row>
@@ -1683,6 +1753,11 @@
           <t>2.85%</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>-3.62%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1762,6 +1837,11 @@
           <t>2.20%</t>
         </is>
       </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>-3.20%</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1843,6 +1923,11 @@
       <c r="S17" t="inlineStr">
         <is>
           <t>0.72%</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0.04%</t>
         </is>
       </c>
     </row>
@@ -1916,6 +2001,11 @@
           <t>-2.24%</t>
         </is>
       </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>-0.38%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1989,6 +2079,11 @@
       <c r="S19" t="inlineStr">
         <is>
           <t>-2.47%</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>-4.27%</t>
         </is>
       </c>
     </row>
@@ -2062,6 +2157,11 @@
           <t>-5.84%</t>
         </is>
       </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>-0.24%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2151,6 +2251,11 @@
       <c r="S21" t="inlineStr">
         <is>
           <t>18.78%</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>-1.34%</t>
         </is>
       </c>
     </row>
@@ -2228,6 +2333,11 @@
           <t>11.68%</t>
         </is>
       </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>-3.45%</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2315,6 +2425,7 @@
           <t>11.65%</t>
         </is>
       </c>
+      <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2398,6 +2509,7 @@
           <t>9.53%</t>
         </is>
       </c>
+      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2479,6 +2591,11 @@
       <c r="S25" t="inlineStr">
         <is>
           <t>8.38%</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>-0.83%</t>
         </is>
       </c>
     </row>
@@ -2560,6 +2677,11 @@
           <t>7.79%</t>
         </is>
       </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>-2.16%</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2643,6 +2765,7 @@
           <t>7.67%</t>
         </is>
       </c>
+      <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2726,6 +2849,11 @@
           <t>5.89%</t>
         </is>
       </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>-2.25%</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2815,6 +2943,11 @@
       <c r="S29" t="inlineStr">
         <is>
           <t>5.60%</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>-2.29%</t>
         </is>
       </c>
     </row>
@@ -2900,6 +3033,11 @@
           <t>3.70%</t>
         </is>
       </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>-2.35%</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2991,6 +3129,11 @@
           <t>2.27%</t>
         </is>
       </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>-1.50%</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3082,6 +3225,11 @@
           <t>1.16%</t>
         </is>
       </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3171,6 +3319,11 @@
       <c r="S33" t="inlineStr">
         <is>
           <t>-2.23%</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>-2.56%</t>
         </is>
       </c>
     </row>
@@ -3248,6 +3401,11 @@
           <t>-2.99%</t>
         </is>
       </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>-2.13%</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3327,6 +3485,11 @@
           <t>-16.83%</t>
         </is>
       </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3408,6 +3571,11 @@
       <c r="S36" t="inlineStr">
         <is>
           <t>-17.27%</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>1.19%</t>
         </is>
       </c>
     </row>
@@ -3489,6 +3657,11 @@
           <t>7.85%</t>
         </is>
       </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>-1.86%</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3568,6 +3741,11 @@
           <t>5.55%</t>
         </is>
       </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>-2.28%</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3653,6 +3831,11 @@
       <c r="S39" t="inlineStr">
         <is>
           <t>2.47%</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>-1.69%</t>
         </is>
       </c>
     </row>
@@ -3726,6 +3909,11 @@
           <t>1.96%</t>
         </is>
       </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>-1.81%</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3805,6 +3993,11 @@
           <t>0.07%</t>
         </is>
       </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>-1.91%</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3884,6 +4077,11 @@
           <t>7.76%</t>
         </is>
       </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>-1.25%</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3967,6 +4165,11 @@
           <t>6.80%</t>
         </is>
       </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>-0.98%</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4050,6 +4253,11 @@
           <t>6.29%</t>
         </is>
       </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>-1.52%</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4133,6 +4341,11 @@
           <t>4.81%</t>
         </is>
       </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4218,6 +4431,11 @@
       <c r="S46" t="inlineStr">
         <is>
           <t>4.74%</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>-1.71%</t>
         </is>
       </c>
     </row>
@@ -4297,6 +4515,11 @@
       <c r="S47" t="inlineStr">
         <is>
           <t>1.25%</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>-1.70%</t>
         </is>
       </c>
     </row>
@@ -4374,6 +4597,11 @@
           <t>13.04%</t>
         </is>
       </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4453,6 +4681,11 @@
           <t>12.87%</t>
         </is>
       </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>-0.94%</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4536,6 +4769,11 @@
           <t>10.12%</t>
         </is>
       </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>-0.24%</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4617,6 +4855,11 @@
       <c r="S51" t="inlineStr">
         <is>
           <t>9.78%</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>-1.62%</t>
         </is>
       </c>
     </row>
@@ -4690,6 +4933,11 @@
           <t>7.97%</t>
         </is>
       </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>-0.37%</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4761,6 +5009,11 @@
           <t>7.61%</t>
         </is>
       </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4846,6 +5099,11 @@
       <c r="S54" t="inlineStr">
         <is>
           <t>7.35%</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>-0.83%</t>
         </is>
       </c>
     </row>
@@ -4923,6 +5181,11 @@
           <t>14.98%</t>
         </is>
       </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>-0.29%</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4998,6 +5261,11 @@
           <t>13.24%</t>
         </is>
       </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>-0.19%</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5073,6 +5341,11 @@
           <t>19.91%</t>
         </is>
       </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>-1.48%</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5148,6 +5421,11 @@
           <t>16.67%</t>
         </is>
       </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>-1.44%</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5229,6 +5507,11 @@
       <c r="S59" t="inlineStr">
         <is>
           <t>13.90%</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>-0.81%</t>
         </is>
       </c>
     </row>
@@ -5304,6 +5587,11 @@
       <c r="S60" t="inlineStr">
         <is>
           <t>11.07%</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>0.90%</t>
         </is>
       </c>
     </row>
@@ -5377,6 +5665,11 @@
           <t>10.50%</t>
         </is>
       </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>-0.26%</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5460,6 +5753,11 @@
           <t>9.39%</t>
         </is>
       </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>-0.09%</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5543,6 +5841,11 @@
           <t>8.37%</t>
         </is>
       </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>-1.19%</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5624,6 +5927,11 @@
       <c r="S64" t="inlineStr">
         <is>
           <t>6.78%</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>-0.92%</t>
         </is>
       </c>
     </row>
@@ -5701,6 +6009,11 @@
           <t>2.66%</t>
         </is>
       </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>-1.82%</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5778,6 +6091,11 @@
       <c r="S66" t="inlineStr">
         <is>
           <t>5.50%</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>1.18%</t>
         </is>
       </c>
     </row>
@@ -5851,6 +6169,11 @@
           <t>5.44%</t>
         </is>
       </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5922,6 +6245,11 @@
           <t>4.03%</t>
         </is>
       </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>0.90%</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5997,6 +6325,11 @@
           <t>3.19%</t>
         </is>
       </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>1.14%</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6076,6 +6409,11 @@
           <t>2.73%</t>
         </is>
       </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6157,6 +6495,11 @@
       <c r="S71" t="inlineStr">
         <is>
           <t>2.61%</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>0.27%</t>
         </is>
       </c>
     </row>
@@ -6234,6 +6577,11 @@
           <t>-0.29%</t>
         </is>
       </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6311,6 +6659,11 @@
       <c r="S73" t="inlineStr">
         <is>
           <t>5.31%</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>-1.99%</t>
         </is>
       </c>
     </row>
@@ -6384,6 +6737,11 @@
           <t>1.05%</t>
         </is>
       </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>0.13%</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6457,6 +6815,11 @@
       <c r="S75" t="inlineStr">
         <is>
           <t>0.38%</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>-0.95%</t>
         </is>
       </c>
     </row>
@@ -6530,6 +6893,11 @@
           <t>6.14%</t>
         </is>
       </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6605,6 +6973,11 @@
           <t>5.72%</t>
         </is>
       </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>-1.07%</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6682,6 +7055,11 @@
       <c r="S78" t="inlineStr">
         <is>
           <t>5.24%</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>0.42%</t>
         </is>
       </c>
     </row>
@@ -6759,6 +7137,11 @@
           <t>3.39%</t>
         </is>
       </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6834,6 +7217,11 @@
           <t>-0.64%</t>
         </is>
       </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6913,6 +7301,11 @@
           <t>13.95%</t>
         </is>
       </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>-1.11%</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6998,6 +7391,11 @@
       <c r="S82" t="inlineStr">
         <is>
           <t>5.86%</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>0.55%</t>
         </is>
       </c>
     </row>
@@ -7079,6 +7477,11 @@
           <t>4.96%</t>
         </is>
       </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7156,6 +7559,11 @@
       <c r="S84" t="inlineStr">
         <is>
           <t>2.21%</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>-2.20%</t>
         </is>
       </c>
     </row>
@@ -7229,6 +7637,11 @@
           <t>1.10%</t>
         </is>
       </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7308,6 +7721,7 @@
           <t>-3.72%</t>
         </is>
       </c>
+      <c r="T86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7389,6 +7803,11 @@
       <c r="S87" t="inlineStr">
         <is>
           <t>9.67%</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>-0.03%</t>
         </is>
       </c>
     </row>
@@ -7470,6 +7889,11 @@
           <t>6.53%</t>
         </is>
       </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>-0.77%</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7549,6 +7973,11 @@
           <t>3.87%</t>
         </is>
       </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\VScode\Private_nav_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E316FC9-D0F3-4AC5-80D4-E382252AA2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B81AB2C-90ED-4428-9C55-518B2ACD957B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -936,7 +936,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,17 +995,23 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1075,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1115,20 +1121,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1401,6 +1406,13 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
@@ -1418,13 +1430,6 @@
         <charset val="134"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1470,7 +1475,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:U90" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:U90" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22">
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="策略类型" dataDxfId="20">
       <calculatedColumnFormula>Sheet2!A2</calculatedColumnFormula>
@@ -1827,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9113,8 +9118,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9123,7 +9129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:U89"/>
     </sheetView>
   </sheetViews>
@@ -9231,7 +9237,7 @@
       <c r="L2" s="8">
         <v>0.33410000000000001</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2">
         <v>0.13</v>
       </c>
       <c r="Q2" s="8">
@@ -9287,7 +9293,7 @@
       <c r="L3" s="8">
         <v>0.188</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3">
         <v>0.24</v>
       </c>
       <c r="O3" s="8">
@@ -9349,7 +9355,7 @@
       <c r="L4" s="8">
         <v>0.20569999999999999</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4">
         <v>0.19</v>
       </c>
       <c r="P4" s="8">
@@ -9408,7 +9414,7 @@
       <c r="L5" s="8">
         <v>0.1429</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5">
         <v>-0.41</v>
       </c>
       <c r="P5" s="8">
@@ -9467,7 +9473,7 @@
       <c r="L6" s="8">
         <v>0.13769999999999999</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6">
         <v>-0.25</v>
       </c>
       <c r="P6" s="8">
@@ -9526,7 +9532,7 @@
       <c r="L7" s="8">
         <v>0.19359999999999999</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="P7" s="8">
@@ -9585,7 +9591,7 @@
       <c r="L8" s="8">
         <v>0.20569999999999999</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8">
         <v>0.14000000000000001</v>
       </c>
       <c r="P8" s="8">
@@ -9644,7 +9650,7 @@
       <c r="L9" s="8">
         <v>0.2011</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9">
         <v>0.48</v>
       </c>
       <c r="Q9" s="8">
@@ -9700,7 +9706,7 @@
       <c r="L10" s="8">
         <v>0.2382</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10">
         <v>-0.48</v>
       </c>
       <c r="Q10" s="8">
@@ -9756,7 +9762,7 @@
       <c r="L11" s="8">
         <v>0.28120000000000001</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11">
         <v>0.01</v>
       </c>
       <c r="P11" s="8">
@@ -9815,7 +9821,7 @@
       <c r="L12" s="8">
         <v>0.1075</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12">
         <v>0.4</v>
       </c>
       <c r="Q12" s="8">
@@ -9871,7 +9877,7 @@
       <c r="L13" s="8">
         <v>0.18379999999999999</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13">
         <v>0.16</v>
       </c>
       <c r="O13" s="8">
@@ -9933,7 +9939,7 @@
       <c r="L14" s="8">
         <v>0.1183</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14">
         <v>0.46</v>
       </c>
       <c r="O14" s="8">
@@ -9995,7 +10001,7 @@
       <c r="L15" s="8">
         <v>0.219</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15">
         <v>-0.71</v>
       </c>
       <c r="Q15" s="8">
@@ -10051,7 +10057,7 @@
       <c r="L16" s="8">
         <v>0.11169999999999999</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16">
         <v>-0.44</v>
       </c>
       <c r="Q16" s="8">
@@ -10107,7 +10113,7 @@
       <c r="L17" s="8">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17">
         <v>-1</v>
       </c>
       <c r="P17" s="8">
@@ -10166,7 +10172,7 @@
       <c r="L18" s="8">
         <v>0.124</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18">
         <v>-0.25</v>
       </c>
       <c r="S18" s="8">
@@ -10216,7 +10222,7 @@
       <c r="L19" s="8">
         <v>0.15329999999999999</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19">
         <v>-1.08</v>
       </c>
       <c r="R19" s="8">
@@ -10269,7 +10275,7 @@
       <c r="L20" s="8">
         <v>0.2142</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20">
         <v>0.19</v>
       </c>
       <c r="S20" s="8">
@@ -10319,7 +10325,7 @@
       <c r="L21" s="8">
         <v>0.2107</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21">
         <v>0.42</v>
       </c>
       <c r="N21" s="8">
@@ -10384,7 +10390,7 @@
       <c r="L22" s="8">
         <v>0.25340000000000001</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22">
         <v>0.65</v>
       </c>
       <c r="R22" s="8">
@@ -10437,7 +10443,7 @@
       <c r="L23" s="8">
         <v>0.25669999999999998</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23">
         <v>0.06</v>
       </c>
       <c r="O23" s="8">
@@ -10496,7 +10502,7 @@
       <c r="L24" s="8">
         <v>0.1905</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24">
         <v>0.18</v>
       </c>
       <c r="P24" s="8">
@@ -10552,7 +10558,7 @@
       <c r="L25" s="8">
         <v>0.1124</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25">
         <v>0.72</v>
       </c>
       <c r="P25" s="8">
@@ -10611,7 +10617,7 @@
       <c r="L26" s="8">
         <v>0.17730000000000001</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26">
         <v>0.15</v>
       </c>
       <c r="Q26" s="8">
@@ -10667,7 +10673,7 @@
       <c r="L27" s="8">
         <v>0.1928</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27">
         <v>-0.06</v>
       </c>
       <c r="P27" s="8">
@@ -10723,7 +10729,7 @@
       <c r="L28" s="8">
         <v>0.13980000000000001</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="P28" s="8">
@@ -10782,7 +10788,7 @@
       <c r="L29" s="8">
         <v>0.21310000000000001</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29">
         <v>-0.11</v>
       </c>
       <c r="N29" s="8">
@@ -10847,7 +10853,7 @@
       <c r="L30" s="8">
         <v>0.14710000000000001</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30">
         <v>-0.4</v>
       </c>
       <c r="P30" s="8">
@@ -10906,7 +10912,7 @@
       <c r="L31" s="8">
         <v>0.1459</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31">
         <v>1.33</v>
       </c>
       <c r="N31" s="8">
@@ -10971,7 +10977,7 @@
       <c r="L32" s="8">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32">
         <v>0.66</v>
       </c>
       <c r="N32" s="8">
@@ -11036,7 +11042,7 @@
       <c r="L33" s="8">
         <v>0.1661</v>
       </c>
-      <c r="M33" s="20">
+      <c r="M33">
         <v>0.65</v>
       </c>
       <c r="N33" s="8">
@@ -11101,7 +11107,7 @@
       <c r="L34" s="8">
         <v>0.1832</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M34">
         <v>-0.27</v>
       </c>
       <c r="R34" s="8">
@@ -11154,7 +11160,7 @@
       <c r="L35" s="8">
         <v>0.27139999999999997</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35">
         <v>-0.48</v>
       </c>
       <c r="Q35" s="8">
@@ -11210,7 +11216,7 @@
       <c r="L36" s="8">
         <v>0.1915</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36">
         <v>-0.31</v>
       </c>
       <c r="P36" s="8">
@@ -11269,7 +11275,7 @@
       <c r="L37" s="8">
         <v>0.14050000000000001</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M37">
         <v>0.59</v>
       </c>
       <c r="Q37" s="8">
@@ -11325,7 +11331,7 @@
       <c r="L38" s="8">
         <v>0.16839999999999999</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M38">
         <v>-0.47</v>
       </c>
       <c r="Q38" s="8">
@@ -11381,7 +11387,7 @@
       <c r="L39" s="8">
         <v>0.1908</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39">
         <v>0.61</v>
       </c>
       <c r="O39" s="8">
@@ -11443,7 +11449,7 @@
       <c r="L40" s="8">
         <v>0.19040000000000001</v>
       </c>
-      <c r="M40" s="20">
+      <c r="M40">
         <v>0.9</v>
       </c>
       <c r="S40" s="8">
@@ -11493,7 +11499,7 @@
       <c r="L41" s="8">
         <v>0.16830000000000001</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M41">
         <v>0.42</v>
       </c>
       <c r="Q41" s="8">
@@ -11549,7 +11555,7 @@
       <c r="L42" s="8">
         <v>0.21529999999999999</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42">
         <v>0.82</v>
       </c>
       <c r="Q42" s="8">
@@ -11605,7 +11611,7 @@
       <c r="L43" s="8">
         <v>0.2127</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43">
         <v>0.14000000000000001</v>
       </c>
       <c r="P43" s="8">
@@ -11664,7 +11670,7 @@
       <c r="L44" s="8">
         <v>0.20480000000000001</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44">
         <v>0.23</v>
       </c>
       <c r="P44" s="8">
@@ -11723,7 +11729,7 @@
       <c r="L45" s="8">
         <v>0.2293</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45">
         <v>0.16</v>
       </c>
       <c r="P45" s="8">
@@ -11782,7 +11788,7 @@
       <c r="L46" s="8">
         <v>0.18770000000000001</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46">
         <v>0.65</v>
       </c>
       <c r="O46" s="8">
@@ -11844,7 +11850,7 @@
       <c r="L47" s="8">
         <v>0.2069</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47">
         <v>0.13</v>
       </c>
       <c r="Q47" s="8">
@@ -11900,7 +11906,7 @@
       <c r="L48" s="8">
         <v>0.25009999999999999</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48">
         <v>0.32</v>
       </c>
       <c r="R48" s="8">
@@ -11953,7 +11959,7 @@
       <c r="L49" s="8">
         <v>0.26100000000000001</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49">
         <v>0.77</v>
       </c>
       <c r="Q49" s="8">
@@ -12009,7 +12015,7 @@
       <c r="L50" s="8">
         <v>0.1769</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M50">
         <v>-0.53</v>
       </c>
       <c r="P50" s="8">
@@ -12068,7 +12074,7 @@
       <c r="L51" s="8">
         <v>0.2316</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M51">
         <v>0.44</v>
       </c>
       <c r="P51" s="8">
@@ -12127,7 +12133,7 @@
       <c r="L52" s="8">
         <v>0.2467</v>
       </c>
-      <c r="M52" s="20">
+      <c r="M52">
         <v>1.42</v>
       </c>
       <c r="S52" s="8">
@@ -12177,7 +12183,7 @@
       <c r="L53" s="8">
         <v>0.2928</v>
       </c>
-      <c r="M53" s="20">
+      <c r="M53">
         <v>2.04</v>
       </c>
       <c r="S53" s="8">
@@ -12227,7 +12233,7 @@
       <c r="L54" s="8">
         <v>0.217</v>
       </c>
-      <c r="M54" s="20">
+      <c r="M54">
         <v>0.48</v>
       </c>
       <c r="O54" s="8">
@@ -12289,7 +12295,7 @@
       <c r="L55" s="8">
         <v>0.34870000000000001</v>
       </c>
-      <c r="M55" s="20">
+      <c r="M55">
         <v>1.18</v>
       </c>
       <c r="R55" s="8">
@@ -12342,7 +12348,7 @@
       <c r="L56" s="8">
         <v>0.3165</v>
       </c>
-      <c r="M56" s="20">
+      <c r="M56">
         <v>0.78</v>
       </c>
       <c r="R56" s="8">
@@ -12395,7 +12401,7 @@
       <c r="L57" s="8">
         <v>0.36430000000000001</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M57">
         <v>1.3</v>
       </c>
       <c r="R57" s="8">
@@ -12448,7 +12454,7 @@
       <c r="L58" s="8">
         <v>0.28029999999999999</v>
       </c>
-      <c r="M58" s="20">
+      <c r="M58">
         <v>0.5</v>
       </c>
       <c r="R58" s="8">
@@ -12501,7 +12507,7 @@
       <c r="L59" s="8">
         <v>0.28710000000000002</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M59">
         <v>0.41</v>
       </c>
       <c r="P59" s="8">
@@ -12560,7 +12566,7 @@
       <c r="L60" s="8">
         <v>0.2535</v>
       </c>
-      <c r="M60" s="20">
+      <c r="M60">
         <v>0.85</v>
       </c>
       <c r="R60" s="8">
@@ -12613,7 +12619,7 @@
       <c r="L61" s="8">
         <v>0.28499999999999998</v>
       </c>
-      <c r="M61" s="20">
+      <c r="M61">
         <v>2.77</v>
       </c>
       <c r="S61" s="8">
@@ -12663,7 +12669,7 @@
       <c r="L62" s="8">
         <v>0.26979999999999998</v>
       </c>
-      <c r="M62" s="20">
+      <c r="M62">
         <v>0.44</v>
       </c>
       <c r="P62" s="8">
@@ -12722,7 +12728,7 @@
       <c r="L63" s="8">
         <v>0.2135</v>
       </c>
-      <c r="M63" s="20">
+      <c r="M63">
         <v>0.16</v>
       </c>
       <c r="P63" s="8">
@@ -12781,7 +12787,7 @@
       <c r="L64" s="8">
         <v>0.21429999999999999</v>
       </c>
-      <c r="M64" s="20">
+      <c r="M64">
         <v>0.28999999999999998</v>
       </c>
       <c r="P64" s="8">
@@ -12840,7 +12846,7 @@
       <c r="L65" s="8">
         <v>0.1472</v>
       </c>
-      <c r="M65" s="20">
+      <c r="M65">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="R65" s="8">
@@ -12893,7 +12899,7 @@
       <c r="L66" s="8">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="M66" s="20">
+      <c r="M66">
         <v>1.22</v>
       </c>
       <c r="Q66" s="8">
@@ -12949,7 +12955,7 @@
       <c r="L67" s="8">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="M67" s="20">
+      <c r="M67">
         <v>1.18</v>
       </c>
       <c r="S67" s="8">
@@ -12999,7 +13005,7 @@
       <c r="L68" s="8">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="M68" s="20">
+      <c r="M68">
         <v>0.35</v>
       </c>
       <c r="S68" s="8">
@@ -13049,7 +13055,7 @@
       <c r="L69" s="8">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="M69" s="20">
+      <c r="M69">
         <v>0.66</v>
       </c>
       <c r="R69" s="8">
@@ -13102,7 +13108,7 @@
       <c r="L70" s="8">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="M70" s="20">
+      <c r="M70">
         <v>0.91</v>
       </c>
       <c r="Q70" s="8">
@@ -13158,7 +13164,7 @@
       <c r="L71" s="8">
         <v>5.91E-2</v>
       </c>
-      <c r="M71" s="20">
+      <c r="M71">
         <v>0.69</v>
       </c>
       <c r="P71" s="8">
@@ -13217,7 +13223,7 @@
       <c r="L72" s="8">
         <v>7.9899999999999999E-2</v>
       </c>
-      <c r="M72" s="20">
+      <c r="M72">
         <v>0.08</v>
       </c>
       <c r="R72" s="8">
@@ -13270,7 +13276,7 @@
       <c r="L73" s="8">
         <v>0.1153</v>
       </c>
-      <c r="M73" s="20">
+      <c r="M73">
         <v>0.86</v>
       </c>
       <c r="Q73" s="8">
@@ -13326,7 +13332,7 @@
       <c r="L74" s="8">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="M74" s="20">
+      <c r="M74">
         <v>0.39</v>
       </c>
       <c r="S74" s="8">
@@ -13376,7 +13382,7 @@
       <c r="L75" s="8">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="M75" s="20">
+      <c r="M75">
         <v>0.06</v>
       </c>
       <c r="R75" s="8">
@@ -13429,7 +13435,7 @@
       <c r="L76" s="8">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="M76" s="20">
+      <c r="M76">
         <v>1.43</v>
       </c>
       <c r="S76" s="8">
@@ -13479,7 +13485,7 @@
       <c r="L77" s="8">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="M77" s="20">
+      <c r="M77">
         <v>0.47</v>
       </c>
       <c r="R77" s="8">
@@ -13532,7 +13538,7 @@
       <c r="L78" s="8">
         <v>0.19439999999999999</v>
       </c>
-      <c r="M78" s="20">
+      <c r="M78">
         <v>1.53</v>
       </c>
       <c r="Q78" s="8">
@@ -13588,7 +13594,7 @@
       <c r="L79" s="8">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="M79" s="20">
+      <c r="M79">
         <v>1.93</v>
       </c>
       <c r="R79" s="8">
@@ -13641,7 +13647,7 @@
       <c r="L80" s="8">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="M80" s="20">
+      <c r="M80">
         <v>0.79</v>
       </c>
       <c r="R80" s="8">
@@ -13694,7 +13700,7 @@
       <c r="L81" s="8">
         <v>0.20200000000000001</v>
       </c>
-      <c r="M81" s="20">
+      <c r="M81">
         <v>0.78</v>
       </c>
       <c r="Q81" s="8">
@@ -13750,7 +13756,7 @@
       <c r="L82" s="8">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="M82" s="20">
+      <c r="M82">
         <v>0.77</v>
       </c>
       <c r="O82" s="8">
@@ -13812,7 +13818,7 @@
       <c r="L83" s="8">
         <v>0.19839999999999999</v>
       </c>
-      <c r="M83" s="20">
+      <c r="M83">
         <v>0.04</v>
       </c>
       <c r="Q83" s="8">
@@ -13868,7 +13874,7 @@
       <c r="L84" s="8">
         <v>0.1973</v>
       </c>
-      <c r="M84" s="20">
+      <c r="M84">
         <v>0.25</v>
       </c>
       <c r="Q84" s="8">
@@ -13924,7 +13930,7 @@
       <c r="L85" s="8">
         <v>4.41E-2</v>
       </c>
-      <c r="M85" s="20">
+      <c r="M85">
         <v>1.75</v>
       </c>
       <c r="S85" s="8">
@@ -13974,7 +13980,7 @@
       <c r="L86" s="8">
         <v>0.13730000000000001</v>
       </c>
-      <c r="M86" s="20">
+      <c r="M86">
         <v>0.1</v>
       </c>
       <c r="Q86" s="8">
@@ -14027,7 +14033,7 @@
       <c r="L87" s="8">
         <v>0.2661</v>
       </c>
-      <c r="M87" s="20">
+      <c r="M87">
         <v>0.33</v>
       </c>
       <c r="P87" s="8">
@@ -14086,7 +14092,7 @@
       <c r="L88" s="8">
         <v>0.2707</v>
       </c>
-      <c r="M88" s="20">
+      <c r="M88">
         <v>0.21</v>
       </c>
       <c r="Q88" s="8">
@@ -14142,7 +14148,7 @@
       <c r="L89" s="8">
         <v>0.2235</v>
       </c>
-      <c r="M89" s="20">
+      <c r="M89">
         <v>0.02</v>
       </c>
       <c r="Q89" s="8">

--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\VScode\Private_nav_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4911D865-6F08-4EF2-88AF-517AE0C30939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A0AA63-1FE9-4E4B-99DE-7BF793466B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>指数</t>
   </si>
   <si>
-    <t>注：仅供内部使用，请勿外传。</t>
-  </si>
-  <si>
     <t>灵活配置</t>
   </si>
   <si>
@@ -921,7 +918,7 @@
     <t>万得全A</t>
   </si>
   <si>
-    <t>中证300</t>
+    <t>沪深300</t>
   </si>
   <si>
     <t>中证500</t>
@@ -937,6 +934,10 @@
   </si>
   <si>
     <t>纳斯达克</t>
+  </si>
+  <si>
+    <t>注：仅供内部使用，请勿外传。净值根据成立日期净值做归一化处理。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2183,7 +2184,7 @@
   <dimension ref="A1:X101"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5696,7 +5697,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="str">
         <f>Sheet3!A3</f>
-        <v>中证300</v>
+        <v>沪深300</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -9676,7 +9677,7 @@
     </row>
     <row r="100" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="B100" s="30"/>
       <c r="C100" s="30"/>
@@ -10340,7 +10341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:V89"/>
     </sheetView>
   </sheetViews>
@@ -10416,19 +10417,19 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -10475,19 +10476,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
       </c>
       <c r="F3">
         <v>1.004</v>
@@ -10540,19 +10541,19 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>0.85860000000000003</v>
@@ -10602,19 +10603,19 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>0.89349999999999996</v>
@@ -10664,19 +10665,19 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>0.46179999999999999</v>
@@ -10726,19 +10727,19 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>1.038</v>
@@ -10788,19 +10789,19 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>1.1849000000000001</v>
@@ -10850,19 +10851,19 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>1.2816000000000001</v>
@@ -10909,19 +10910,19 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>0.73</v>
@@ -10968,19 +10969,19 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>1.1531</v>
@@ -11027,19 +11028,19 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12">
         <v>1.2470000000000001</v>
@@ -11092,19 +11093,19 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13">
         <v>1.359</v>
@@ -11157,19 +11158,19 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>66</v>
       </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14">
         <v>0.9042</v>
@@ -11216,19 +11217,19 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
         <v>68</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>69</v>
       </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15">
         <v>0.62019999999999997</v>
@@ -11275,19 +11276,19 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>72</v>
       </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16">
         <v>0.82930000000000004</v>
@@ -11337,19 +11338,19 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17">
         <v>0.72729999999999995</v>
@@ -11393,19 +11394,19 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18">
         <v>1.002</v>
@@ -11455,19 +11456,19 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>80</v>
       </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19">
         <v>0.98850000000000005</v>
@@ -11508,19 +11509,19 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20">
         <v>1.0624</v>
@@ -11561,19 +11562,19 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
         <v>85</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>87</v>
       </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21">
         <v>2.573</v>
@@ -11629,19 +11630,19 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
         <v>89</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="D22" t="s">
-        <v>91</v>
-      </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22">
         <v>1.127</v>
@@ -11685,19 +11686,19 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
         <v>92</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>93</v>
       </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23">
         <v>1.1720999999999999</v>
@@ -11747,19 +11748,19 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
         <v>95</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>96</v>
       </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24">
         <v>1.2325999999999999</v>
@@ -11806,19 +11807,19 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
         <v>98</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>99</v>
       </c>
-      <c r="D25" t="s">
-        <v>100</v>
-      </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>1.0468</v>
@@ -11865,19 +11866,19 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
-        <v>103</v>
-      </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26">
         <v>1.1386000000000001</v>
@@ -11924,19 +11925,19 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
         <v>104</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>105</v>
       </c>
-      <c r="D27" t="s">
-        <v>106</v>
-      </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27">
         <v>1.415</v>
@@ -11986,19 +11987,19 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
         <v>107</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>108</v>
       </c>
-      <c r="D28" t="s">
-        <v>109</v>
-      </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28">
         <v>1.0429999999999999</v>
@@ -12048,19 +12049,19 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
         <v>110</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>111</v>
       </c>
-      <c r="D29" t="s">
-        <v>112</v>
-      </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29">
         <v>0.95199999999999996</v>
@@ -12116,19 +12117,19 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>114</v>
       </c>
-      <c r="D30" t="s">
-        <v>115</v>
-      </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30">
         <v>0.84950000000000003</v>
@@ -12178,19 +12179,19 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
         <v>116</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>117</v>
       </c>
-      <c r="D31" t="s">
-        <v>118</v>
-      </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31">
         <v>1.1319999999999999</v>
@@ -12246,19 +12247,19 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>120</v>
       </c>
-      <c r="D32" t="s">
-        <v>121</v>
-      </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32">
         <v>2.3719999999999999</v>
@@ -12314,19 +12315,19 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
         <v>122</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="D33" t="s">
-        <v>124</v>
-      </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33">
         <v>0.95979999999999999</v>
@@ -12370,19 +12371,19 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
         <v>125</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>126</v>
       </c>
-      <c r="D34" t="s">
-        <v>127</v>
-      </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34">
         <v>1.974</v>
@@ -12438,19 +12439,19 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
         <v>128</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>129</v>
       </c>
-      <c r="D35" t="s">
-        <v>130</v>
-      </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35">
         <v>0.83099999999999996</v>
@@ -12500,19 +12501,19 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
         <v>131</v>
       </c>
-      <c r="C36" t="s">
-        <v>132</v>
-      </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36">
         <v>0.67700000000000005</v>
@@ -12559,19 +12560,19 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
         <v>133</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>134</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>135</v>
       </c>
-      <c r="D37" t="s">
-        <v>136</v>
-      </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37">
         <v>1.3180000000000001</v>
@@ -12618,19 +12619,19 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
         <v>137</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>138</v>
       </c>
-      <c r="D38" t="s">
-        <v>139</v>
-      </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38">
         <v>0.84499999999999997</v>
@@ -12677,19 +12678,19 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
         <v>140</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>141</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>142</v>
       </c>
-      <c r="D39" t="s">
-        <v>143</v>
-      </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F39">
         <v>1.9026000000000001</v>
@@ -12742,19 +12743,19 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
         <v>144</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>145</v>
       </c>
-      <c r="D40" t="s">
-        <v>146</v>
-      </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40">
         <v>1.1910000000000001</v>
@@ -12795,19 +12796,19 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>148</v>
       </c>
-      <c r="D41" t="s">
-        <v>149</v>
-      </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F41">
         <v>1.0572999999999999</v>
@@ -12854,19 +12855,19 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
         <v>150</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>151</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>152</v>
       </c>
-      <c r="D42" t="s">
-        <v>153</v>
-      </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42">
         <v>1.089</v>
@@ -12913,19 +12914,19 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" t="s">
         <v>154</v>
       </c>
-      <c r="C43" t="s">
-        <v>155</v>
-      </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43">
         <v>0.98250000000000004</v>
@@ -12975,19 +12976,19 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
         <v>156</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>157</v>
       </c>
-      <c r="D44" t="s">
-        <v>158</v>
-      </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F44">
         <v>1.212</v>
@@ -13037,19 +13038,19 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
         <v>159</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>160</v>
       </c>
-      <c r="D45" t="s">
-        <v>161</v>
-      </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F45">
         <v>1.2035</v>
@@ -13099,19 +13100,19 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" t="s">
         <v>162</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>163</v>
       </c>
-      <c r="D46" t="s">
-        <v>164</v>
-      </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F46">
         <v>1.1614</v>
@@ -13164,19 +13165,19 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" t="s">
         <v>165</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>166</v>
       </c>
-      <c r="D47" t="s">
-        <v>167</v>
-      </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47">
         <v>1.1172</v>
@@ -13223,19 +13224,19 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s">
         <v>168</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>169</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>170</v>
       </c>
-      <c r="D48" t="s">
-        <v>171</v>
-      </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F48">
         <v>1.1319999999999999</v>
@@ -13282,19 +13283,19 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" t="s">
         <v>172</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>173</v>
       </c>
-      <c r="D49" t="s">
-        <v>174</v>
-      </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49">
         <v>1.198</v>
@@ -13338,19 +13339,19 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" t="s">
         <v>175</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>176</v>
       </c>
-      <c r="D50" t="s">
-        <v>177</v>
-      </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F50">
         <v>0.746</v>
@@ -13400,19 +13401,19 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" t="s">
         <v>178</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>179</v>
       </c>
-      <c r="D51" t="s">
-        <v>180</v>
-      </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51">
         <v>1.2441</v>
@@ -13462,19 +13463,19 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
         <v>181</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>182</v>
       </c>
-      <c r="D52" t="s">
-        <v>183</v>
-      </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F52">
         <v>1.7161</v>
@@ -13527,19 +13528,19 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" t="s">
         <v>184</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>185</v>
       </c>
-      <c r="D53" t="s">
-        <v>186</v>
-      </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F53">
         <v>1.3327</v>
@@ -13580,19 +13581,19 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" t="s">
         <v>187</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>188</v>
       </c>
-      <c r="D54" t="s">
-        <v>189</v>
-      </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F54">
         <v>1.3614999999999999</v>
@@ -13633,19 +13634,19 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" t="s">
         <v>190</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>191</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>192</v>
       </c>
-      <c r="D55" t="s">
-        <v>193</v>
-      </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F55">
         <v>1.649</v>
@@ -13689,19 +13690,19 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" t="s">
         <v>194</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>195</v>
       </c>
-      <c r="D56" t="s">
-        <v>196</v>
-      </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F56">
         <v>1.3382000000000001</v>
@@ -13745,19 +13746,19 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" t="s">
         <v>197</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>198</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>199</v>
       </c>
-      <c r="D57" t="s">
-        <v>200</v>
-      </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F57">
         <v>1.573</v>
@@ -13801,19 +13802,19 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" t="s">
         <v>201</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>202</v>
       </c>
-      <c r="D58" t="s">
-        <v>203</v>
-      </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F58">
         <v>1.2430000000000001</v>
@@ -13857,19 +13858,19 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" t="s">
         <v>204</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>205</v>
       </c>
-      <c r="D59" t="s">
-        <v>206</v>
-      </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F59">
         <v>1.4896</v>
@@ -13919,19 +13920,19 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" t="s">
         <v>207</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>208</v>
       </c>
-      <c r="D60" t="s">
-        <v>209</v>
-      </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F60">
         <v>1.087</v>
@@ -13975,19 +13976,19 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" t="s">
         <v>210</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>211</v>
       </c>
-      <c r="D61" t="s">
-        <v>212</v>
-      </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61">
         <v>1.5482</v>
@@ -14028,19 +14029,19 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" t="s">
         <v>213</v>
       </c>
-      <c r="C62" t="s">
-        <v>214</v>
-      </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F62">
         <v>1.0329999999999999</v>
@@ -14090,19 +14091,19 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" t="s">
         <v>215</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>216</v>
       </c>
-      <c r="D63" t="s">
-        <v>217</v>
-      </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F63">
         <v>1.1830000000000001</v>
@@ -14152,19 +14153,19 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B64" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" t="s">
         <v>218</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>219</v>
       </c>
-      <c r="D64" t="s">
-        <v>220</v>
-      </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F64">
         <v>1.0580000000000001</v>
@@ -14214,19 +14215,19 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B65" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" t="s">
         <v>221</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>222</v>
       </c>
-      <c r="D65" t="s">
-        <v>223</v>
-      </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F65">
         <v>1.0431999999999999</v>
@@ -14270,19 +14271,19 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" t="s">
         <v>224</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>225</v>
       </c>
-      <c r="C66" t="s">
-        <v>226</v>
-      </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F66">
         <v>1.2709999999999999</v>
@@ -14329,19 +14330,19 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" t="s">
         <v>227</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>228</v>
       </c>
-      <c r="D67" t="s">
-        <v>229</v>
-      </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67">
         <v>1.071</v>
@@ -14382,19 +14383,19 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" t="s">
         <v>230</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>231</v>
       </c>
-      <c r="D68" t="s">
-        <v>232</v>
-      </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F68">
         <v>1.1235999999999999</v>
@@ -14438,19 +14439,19 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" t="s">
         <v>233</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>234</v>
       </c>
-      <c r="D69" t="s">
-        <v>235</v>
-      </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F69">
         <v>1.0227999999999999</v>
@@ -14491,19 +14492,19 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" t="s">
         <v>236</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>237</v>
       </c>
-      <c r="D70" t="s">
-        <v>238</v>
-      </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F70">
         <v>1.2234</v>
@@ -14550,19 +14551,19 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" t="s">
         <v>239</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>240</v>
       </c>
-      <c r="D71" t="s">
-        <v>241</v>
-      </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F71">
         <v>1.1505000000000001</v>
@@ -14612,19 +14613,19 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B72" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" t="s">
         <v>242</v>
       </c>
-      <c r="C72" t="s">
-        <v>243</v>
-      </c>
       <c r="D72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F72">
         <v>1.0509999999999999</v>
@@ -14668,19 +14669,19 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>243</v>
+      </c>
+      <c r="B73" t="s">
         <v>244</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>245</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>246</v>
       </c>
-      <c r="D73" t="s">
-        <v>247</v>
-      </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F73">
         <v>1.4007000000000001</v>
@@ -14727,19 +14728,19 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B74" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" t="s">
         <v>248</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>249</v>
       </c>
-      <c r="D74" t="s">
-        <v>250</v>
-      </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F74">
         <v>1.0269999999999999</v>
@@ -14780,19 +14781,19 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B75" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" t="s">
         <v>251</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>252</v>
       </c>
-      <c r="D75" t="s">
-        <v>253</v>
-      </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F75">
         <v>1.044</v>
@@ -14836,19 +14837,19 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>253</v>
+      </c>
+      <c r="B76" t="s">
         <v>254</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>255</v>
       </c>
-      <c r="C76" t="s">
-        <v>256</v>
-      </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F76">
         <v>1.0865</v>
@@ -14889,19 +14890,19 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B77" t="s">
+        <v>256</v>
+      </c>
+      <c r="C77" t="s">
         <v>257</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>258</v>
       </c>
-      <c r="D77" t="s">
-        <v>259</v>
-      </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F77">
         <v>1.1020000000000001</v>
@@ -14945,19 +14946,19 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B78" t="s">
+        <v>259</v>
+      </c>
+      <c r="C78" t="s">
         <v>260</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>261</v>
       </c>
-      <c r="D78" t="s">
-        <v>262</v>
-      </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F78">
         <v>1.343</v>
@@ -15004,19 +15005,19 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B79" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" t="s">
         <v>263</v>
       </c>
-      <c r="C79" t="s">
-        <v>264</v>
-      </c>
       <c r="D79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F79">
         <v>1.2090000000000001</v>
@@ -15060,19 +15061,19 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B80" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" t="s">
         <v>265</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>266</v>
       </c>
-      <c r="D80" t="s">
-        <v>267</v>
-      </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F80">
         <v>1.1556</v>
@@ -15116,19 +15117,19 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>267</v>
+      </c>
+      <c r="B81" t="s">
         <v>268</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>269</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>270</v>
       </c>
-      <c r="D81" t="s">
-        <v>271</v>
-      </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F81">
         <v>1.538</v>
@@ -15175,19 +15176,19 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B82" t="s">
+        <v>271</v>
+      </c>
+      <c r="C82" t="s">
         <v>272</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>273</v>
       </c>
-      <c r="D82" t="s">
-        <v>274</v>
-      </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F82">
         <v>1.0860000000000001</v>
@@ -15240,19 +15241,19 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B83" t="s">
+        <v>274</v>
+      </c>
+      <c r="C83" t="s">
         <v>275</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>276</v>
       </c>
-      <c r="D83" t="s">
-        <v>277</v>
-      </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F83">
         <v>1.048</v>
@@ -15299,19 +15300,19 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B84" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" t="s">
         <v>278</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>279</v>
       </c>
-      <c r="D84" t="s">
-        <v>280</v>
-      </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F84">
         <v>1.1312</v>
@@ -15355,19 +15356,19 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B85" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" t="s">
         <v>281</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>282</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>283</v>
-      </c>
-      <c r="E85" t="s">
-        <v>284</v>
       </c>
       <c r="F85">
         <v>1.1023000000000001</v>
@@ -15408,19 +15409,19 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B86" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" t="s">
         <v>285</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>286</v>
       </c>
-      <c r="D86" t="s">
-        <v>287</v>
-      </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F86">
         <v>1.1919999999999999</v>
@@ -15467,19 +15468,19 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>287</v>
+      </c>
+      <c r="B87" t="s">
         <v>288</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>289</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>290</v>
       </c>
-      <c r="D87" t="s">
-        <v>291</v>
-      </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F87">
         <v>1.0777000000000001</v>
@@ -15526,19 +15527,19 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B88" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" t="s">
         <v>292</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>293</v>
       </c>
-      <c r="D88" t="s">
-        <v>294</v>
-      </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F88">
         <v>1.0488999999999999</v>
@@ -15588,19 +15589,19 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B89" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89" t="s">
         <v>295</v>
       </c>
-      <c r="C89" t="s">
-        <v>296</v>
-      </c>
       <c r="D89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F89">
         <v>0.98699999999999999</v>
@@ -15655,19 +15656,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>20</v>
@@ -15681,7 +15676,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B2">
         <v>0.37387210134471882</v>
@@ -15695,7 +15690,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3">
         <v>-1.6544584798102611</v>
@@ -15709,7 +15704,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4">
         <v>0.28588615018747537</v>
@@ -15723,7 +15718,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <v>1.5677724417823</v>
@@ -15737,7 +15732,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6">
         <v>6.6675486154094354</v>
@@ -15751,7 +15746,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7">
         <v>21.325565869576231</v>
@@ -15765,7 +15760,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8">
         <v>-12.16426503762542</v>

--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\VScode\Private_nav_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9124A1F-EB0B-4767-8012-027A73F4E22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45468FFB-38F2-4C0C-A044-B9F2BA39572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1253,7 +1253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1336,9 +1336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2103,7 +2100,7 @@
   <dimension ref="B1:AT105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:X105"/>
+      <selection activeCell="Z100" sqref="Z100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2414,27 +2411,27 @@
         <f>Sheet2!N3</f>
         <v>0.13</v>
       </c>
-      <c r="P4" s="31" t="str">
+      <c r="P4" s="5" t="str">
         <f>IF(Sheet2!O3="","",Sheet2!O3)</f>
         <v/>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="5">
         <f>IF(Sheet2!P3="","",Sheet2!P3)</f>
         <v>0.40400000000000003</v>
       </c>
-      <c r="R4" s="31">
+      <c r="R4" s="5">
         <f>IF(Sheet2!Q3="","",Sheet2!Q3)</f>
         <v>0.15459999999999999</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="5">
         <f>IF(Sheet2!R3="","",Sheet2!R3)</f>
         <v>-0.1719</v>
       </c>
-      <c r="T4" s="31">
+      <c r="T4" s="5">
         <f>IF(Sheet2!S3="","",Sheet2!S3)</f>
         <v>-0.1293</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="5">
         <f>IF(Sheet2!T3="","",Sheet2!T3)</f>
         <v>5.33E-2</v>
       </c>
@@ -2520,27 +2517,27 @@
         <f>Sheet2!N4</f>
         <v>-0.41</v>
       </c>
-      <c r="P5" s="31" t="str">
+      <c r="P5" s="5" t="str">
         <f>IF(Sheet2!O4="","",Sheet2!O4)</f>
         <v/>
       </c>
-      <c r="Q5" s="31" t="str">
+      <c r="Q5" s="5" t="str">
         <f>IF(Sheet2!P4="","",Sheet2!P4)</f>
         <v/>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="5">
         <f>IF(Sheet2!Q4="","",Sheet2!Q4)</f>
         <v>0.02</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="5">
         <f>IF(Sheet2!R4="","",Sheet2!R4)</f>
         <v>-0.1222</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="5">
         <f>IF(Sheet2!S4="","",Sheet2!S4)</f>
         <v>-4.2299999999999997E-2</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="5">
         <f>IF(Sheet2!T4="","",Sheet2!T4)</f>
         <v>-4.4000000000000003E-3</v>
       </c>
@@ -2626,27 +2623,27 @@
         <f>Sheet2!N5</f>
         <v>0.12</v>
       </c>
-      <c r="P6" s="31" t="str">
+      <c r="P6" s="5" t="str">
         <f>IF(Sheet2!O5="","",Sheet2!O5)</f>
         <v/>
       </c>
-      <c r="Q6" s="31" t="str">
+      <c r="Q6" s="5" t="str">
         <f>IF(Sheet2!P5="","",Sheet2!P5)</f>
         <v/>
       </c>
-      <c r="R6" s="31">
+      <c r="R6" s="5">
         <f>IF(Sheet2!Q5="","",Sheet2!Q5)</f>
         <v>0.62160000000000004</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="5">
         <f>IF(Sheet2!R5="","",Sheet2!R5)</f>
         <v>-0.2702</v>
       </c>
-      <c r="T6" s="31">
+      <c r="T6" s="5">
         <f>IF(Sheet2!S5="","",Sheet2!S5)</f>
         <v>-0.1081</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="5">
         <f>IF(Sheet2!T5="","",Sheet2!T5)</f>
         <v>0.1807</v>
       </c>
@@ -2944,27 +2941,27 @@
         <f>Sheet2!N8</f>
         <v>0</v>
       </c>
-      <c r="P9" s="31" t="str">
+      <c r="P9" s="5" t="str">
         <f>IF(Sheet2!O8="","",Sheet2!O8)</f>
         <v/>
       </c>
-      <c r="Q9" s="31" t="str">
+      <c r="Q9" s="5" t="str">
         <f>IF(Sheet2!P8="","",Sheet2!P8)</f>
         <v/>
       </c>
-      <c r="R9" s="31">
+      <c r="R9" s="5">
         <f>IF(Sheet2!Q8="","",Sheet2!Q8)</f>
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="S9" s="31">
+      <c r="S9" s="5">
         <f>IF(Sheet2!R8="","",Sheet2!R8)</f>
         <v>-0.11609999999999999</v>
       </c>
-      <c r="T9" s="31">
+      <c r="T9" s="5">
         <f>IF(Sheet2!S8="","",Sheet2!S8)</f>
         <v>-1.2800000000000001E-2</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="5">
         <f>IF(Sheet2!T8="","",Sheet2!T8)</f>
         <v>0.1188</v>
       </c>
@@ -3050,27 +3047,27 @@
         <f>Sheet2!N9</f>
         <v>-0.53</v>
       </c>
-      <c r="P10" s="31" t="str">
+      <c r="P10" s="5" t="str">
         <f>IF(Sheet2!O9="","",Sheet2!O9)</f>
         <v/>
       </c>
-      <c r="Q10" s="31" t="str">
+      <c r="Q10" s="5" t="str">
         <f>IF(Sheet2!P9="","",Sheet2!P9)</f>
         <v/>
       </c>
-      <c r="R10" s="31" t="str">
+      <c r="R10" s="5" t="str">
         <f>IF(Sheet2!Q9="","",Sheet2!Q9)</f>
         <v/>
       </c>
-      <c r="S10" s="31">
+      <c r="S10" s="5">
         <f>IF(Sheet2!R9="","",Sheet2!R9)</f>
         <v>-6.0400000000000002E-2</v>
       </c>
-      <c r="T10" s="31">
+      <c r="T10" s="5">
         <f>IF(Sheet2!S9="","",Sheet2!S9)</f>
         <v>-0.18540000000000001</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="5">
         <f>IF(Sheet2!T9="","",Sheet2!T9)</f>
         <v>-0.1014</v>
       </c>
@@ -3156,27 +3153,27 @@
         <f>Sheet2!N10</f>
         <v>0.11</v>
       </c>
-      <c r="P11" s="31" t="str">
+      <c r="P11" s="5" t="str">
         <f>IF(Sheet2!O10="","",Sheet2!O10)</f>
         <v/>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="5">
         <f>IF(Sheet2!P10="","",Sheet2!P10)</f>
         <v>0.16</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="5">
         <f>IF(Sheet2!Q10="","",Sheet2!Q10)</f>
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="5">
         <f>IF(Sheet2!R10="","",Sheet2!R10)</f>
         <v>-3.1099999999999999E-2</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="5">
         <f>IF(Sheet2!S10="","",Sheet2!S10)</f>
         <v>-9.9699999999999997E-2</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="5">
         <f>IF(Sheet2!T10="","",Sheet2!T10)</f>
         <v>0.12659999999999999</v>
       </c>
@@ -3262,27 +3259,27 @@
         <f>Sheet2!N11</f>
         <v>0.37</v>
       </c>
-      <c r="P12" s="31" t="str">
+      <c r="P12" s="5" t="str">
         <f>IF(Sheet2!O11="","",Sheet2!O11)</f>
         <v/>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="5">
         <f>IF(Sheet2!P11="","",Sheet2!P11)</f>
         <v>3.9E-2</v>
       </c>
-      <c r="R12" s="31">
+      <c r="R12" s="5">
         <f>IF(Sheet2!Q11="","",Sheet2!Q11)</f>
         <v>0.2666</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S12" s="5">
         <f>IF(Sheet2!R11="","",Sheet2!R11)</f>
         <v>4.48E-2</v>
       </c>
-      <c r="T12" s="31">
+      <c r="T12" s="5">
         <f>IF(Sheet2!S11="","",Sheet2!S11)</f>
         <v>-7.4899999999999994E-2</v>
       </c>
-      <c r="U12" s="31">
+      <c r="U12" s="5">
         <f>IF(Sheet2!T11="","",Sheet2!T11)</f>
         <v>3.7699999999999997E-2</v>
       </c>
@@ -3368,27 +3365,27 @@
         <f>Sheet2!N12</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="P13" s="31" t="str">
+      <c r="P13" s="5" t="str">
         <f>IF(Sheet2!O12="","",Sheet2!O12)</f>
         <v/>
       </c>
-      <c r="Q13" s="31" t="str">
+      <c r="Q13" s="5" t="str">
         <f>IF(Sheet2!P12="","",Sheet2!P12)</f>
         <v/>
       </c>
-      <c r="R13" s="31" t="str">
+      <c r="R13" s="5" t="str">
         <f>IF(Sheet2!Q12="","",Sheet2!Q12)</f>
         <v/>
       </c>
-      <c r="S13" s="31">
+      <c r="S13" s="5">
         <f>IF(Sheet2!R12="","",Sheet2!R12)</f>
         <v>-5.8500000000000003E-2</v>
       </c>
-      <c r="T13" s="31">
+      <c r="T13" s="5">
         <f>IF(Sheet2!S12="","",Sheet2!S12)</f>
         <v>-1.0200000000000001E-2</v>
       </c>
-      <c r="U13" s="31">
+      <c r="U13" s="5">
         <f>IF(Sheet2!T12="","",Sheet2!T12)</f>
         <v>0.18990000000000001</v>
       </c>
@@ -3474,27 +3471,27 @@
         <f>Sheet2!N13</f>
         <v>0.22</v>
       </c>
-      <c r="P14" s="31" t="str">
+      <c r="P14" s="5" t="str">
         <f>IF(Sheet2!O13="","",Sheet2!O13)</f>
         <v/>
       </c>
-      <c r="Q14" s="31" t="str">
+      <c r="Q14" s="5" t="str">
         <f>IF(Sheet2!P13="","",Sheet2!P13)</f>
         <v/>
       </c>
-      <c r="R14" s="31" t="str">
+      <c r="R14" s="5" t="str">
         <f>IF(Sheet2!Q13="","",Sheet2!Q13)</f>
         <v/>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="5">
         <f>IF(Sheet2!R13="","",Sheet2!R13)</f>
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T14" s="5">
         <f>IF(Sheet2!S13="","",Sheet2!S13)</f>
         <v>6.6E-3</v>
       </c>
-      <c r="U14" s="31">
+      <c r="U14" s="5">
         <f>IF(Sheet2!T13="","",Sheet2!T13)</f>
         <v>0.157</v>
       </c>
@@ -3580,27 +3577,27 @@
         <f>Sheet2!N14</f>
         <v>-0.52</v>
       </c>
-      <c r="P15" s="31" t="str">
+      <c r="P15" s="5" t="str">
         <f>IF(Sheet2!O14="","",Sheet2!O14)</f>
         <v/>
       </c>
-      <c r="Q15" s="31" t="str">
+      <c r="Q15" s="5" t="str">
         <f>IF(Sheet2!P14="","",Sheet2!P14)</f>
         <v/>
       </c>
-      <c r="R15" s="31" t="str">
+      <c r="R15" s="5" t="str">
         <f>IF(Sheet2!Q14="","",Sheet2!Q14)</f>
         <v/>
       </c>
-      <c r="S15" s="31">
+      <c r="S15" s="5">
         <f>IF(Sheet2!R14="","",Sheet2!R14)</f>
         <v>-2.2499999999999999E-2</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="5">
         <f>IF(Sheet2!S14="","",Sheet2!S14)</f>
         <v>-0.1321</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="5">
         <f>IF(Sheet2!T14="","",Sheet2!T14)</f>
         <v>5.04E-2</v>
       </c>
@@ -3686,27 +3683,27 @@
         <f>Sheet2!N15</f>
         <v>-1.05</v>
       </c>
-      <c r="P16" s="31" t="str">
+      <c r="P16" s="5" t="str">
         <f>IF(Sheet2!O15="","",Sheet2!O15)</f>
         <v/>
       </c>
-      <c r="Q16" s="31" t="str">
+      <c r="Q16" s="5" t="str">
         <f>IF(Sheet2!P15="","",Sheet2!P15)</f>
         <v/>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="5">
         <f>IF(Sheet2!Q15="","",Sheet2!Q15)</f>
         <v>-0.09</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="5">
         <f>IF(Sheet2!R15="","",Sheet2!R15)</f>
         <v>-0.1046</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T16" s="5">
         <f>IF(Sheet2!S15="","",Sheet2!S15)</f>
         <v>-1.0800000000000001E-2</v>
       </c>
-      <c r="U16" s="31">
+      <c r="U16" s="5">
         <f>IF(Sheet2!T15="","",Sheet2!T15)</f>
         <v>1.9099999999999999E-2</v>
       </c>
@@ -3792,27 +3789,27 @@
         <f>Sheet2!N16</f>
         <v>-0.06</v>
       </c>
-      <c r="P17" s="31" t="str">
+      <c r="P17" s="5" t="str">
         <f>IF(Sheet2!O16="","",Sheet2!O16)</f>
         <v/>
       </c>
-      <c r="Q17" s="31" t="str">
+      <c r="Q17" s="5" t="str">
         <f>IF(Sheet2!P16="","",Sheet2!P16)</f>
         <v/>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="5">
         <f>IF(Sheet2!Q16="","",Sheet2!Q16)</f>
         <v>0.374</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="5">
         <f>IF(Sheet2!R16="","",Sheet2!R16)</f>
         <v>-0.37119999999999997</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17" s="5">
         <f>IF(Sheet2!S16="","",Sheet2!S16)</f>
         <v>-9.9500000000000005E-2</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U17" s="5">
         <f>IF(Sheet2!T16="","",Sheet2!T16)</f>
         <v>0.31879999999999997</v>
       </c>
@@ -3898,27 +3895,27 @@
         <f>Sheet2!N17</f>
         <v>-1.1100000000000001</v>
       </c>
-      <c r="P18" s="31" t="str">
+      <c r="P18" s="5" t="str">
         <f>IF(Sheet2!O17="","",Sheet2!O17)</f>
         <v/>
       </c>
-      <c r="Q18" s="31" t="str">
+      <c r="Q18" s="5" t="str">
         <f>IF(Sheet2!P17="","",Sheet2!P17)</f>
         <v/>
       </c>
-      <c r="R18" s="31" t="str">
+      <c r="R18" s="5" t="str">
         <f>IF(Sheet2!Q17="","",Sheet2!Q17)</f>
         <v/>
       </c>
-      <c r="S18" s="31" t="str">
+      <c r="S18" s="5" t="str">
         <f>IF(Sheet2!R17="","",Sheet2!R17)</f>
         <v/>
       </c>
-      <c r="T18" s="31">
+      <c r="T18" s="5">
         <f>IF(Sheet2!S17="","",Sheet2!S17)</f>
         <v>-0.1244</v>
       </c>
-      <c r="U18" s="31">
+      <c r="U18" s="5">
         <f>IF(Sheet2!T17="","",Sheet2!T17)</f>
         <v>-0.14979999999999999</v>
       </c>
@@ -4015,27 +4012,27 @@
         <f>Sheet2!N18</f>
         <v>-0.78</v>
       </c>
-      <c r="P19" s="31" t="str">
+      <c r="P19" s="5" t="str">
         <f>IF(Sheet2!O18="","",Sheet2!O18)</f>
         <v/>
       </c>
-      <c r="Q19" s="31" t="str">
+      <c r="Q19" s="5" t="str">
         <f>IF(Sheet2!P18="","",Sheet2!P18)</f>
         <v/>
       </c>
-      <c r="R19" s="31" t="str">
+      <c r="R19" s="5" t="str">
         <f>IF(Sheet2!Q18="","",Sheet2!Q18)</f>
         <v/>
       </c>
-      <c r="S19" s="31">
+      <c r="S19" s="5">
         <f>IF(Sheet2!R18="","",Sheet2!R18)</f>
         <v>-0.1968</v>
       </c>
-      <c r="T19" s="31">
+      <c r="T19" s="5">
         <f>IF(Sheet2!S18="","",Sheet2!S18)</f>
         <v>-0.25140000000000001</v>
       </c>
-      <c r="U19" s="31">
+      <c r="U19" s="5">
         <f>IF(Sheet2!T18="","",Sheet2!T18)</f>
         <v>2.0299999999999999E-2</v>
       </c>
@@ -4109,27 +4106,27 @@
         <f>Sheet2!N19</f>
         <v>-4.9000000000000004</v>
       </c>
-      <c r="P20" s="31" t="str">
+      <c r="P20" s="5" t="str">
         <f>IF(Sheet2!O19="","",Sheet2!O19)</f>
         <v/>
       </c>
-      <c r="Q20" s="31" t="str">
+      <c r="Q20" s="5" t="str">
         <f>IF(Sheet2!P19="","",Sheet2!P19)</f>
         <v/>
       </c>
-      <c r="R20" s="31" t="str">
+      <c r="R20" s="5" t="str">
         <f>IF(Sheet2!Q19="","",Sheet2!Q19)</f>
         <v/>
       </c>
-      <c r="S20" s="31" t="str">
+      <c r="S20" s="5" t="str">
         <f>IF(Sheet2!R19="","",Sheet2!R19)</f>
         <v/>
       </c>
-      <c r="T20" s="31" t="str">
+      <c r="T20" s="5" t="str">
         <f>IF(Sheet2!S19="","",Sheet2!S19)</f>
         <v/>
       </c>
-      <c r="U20" s="31" t="str">
+      <c r="U20" s="5" t="str">
         <f>IF(Sheet2!T19="","",Sheet2!T19)</f>
         <v/>
       </c>
@@ -4207,27 +4204,27 @@
         <f>Sheet2!N20</f>
         <v>-4.93</v>
       </c>
-      <c r="P21" s="31" t="str">
+      <c r="P21" s="5" t="str">
         <f>IF(Sheet2!O20="","",Sheet2!O20)</f>
         <v/>
       </c>
-      <c r="Q21" s="31" t="str">
+      <c r="Q21" s="5" t="str">
         <f>IF(Sheet2!P20="","",Sheet2!P20)</f>
         <v/>
       </c>
-      <c r="R21" s="31" t="str">
+      <c r="R21" s="5" t="str">
         <f>IF(Sheet2!Q20="","",Sheet2!Q20)</f>
         <v/>
       </c>
-      <c r="S21" s="31" t="str">
+      <c r="S21" s="5" t="str">
         <f>IF(Sheet2!R20="","",Sheet2!R20)</f>
         <v/>
       </c>
-      <c r="T21" s="31" t="str">
+      <c r="T21" s="5" t="str">
         <f>IF(Sheet2!S20="","",Sheet2!S20)</f>
         <v/>
       </c>
-      <c r="U21" s="31" t="str">
+      <c r="U21" s="5" t="str">
         <f>IF(Sheet2!T20="","",Sheet2!T20)</f>
         <v/>
       </c>
@@ -4493,27 +4490,27 @@
         <f>Sheet2!N23</f>
         <v>0.21</v>
       </c>
-      <c r="P24" s="31" t="str">
+      <c r="P24" s="5" t="str">
         <f>IF(Sheet2!O23="","",Sheet2!O23)</f>
         <v/>
       </c>
-      <c r="Q24" s="31" t="str">
+      <c r="Q24" s="5" t="str">
         <f>IF(Sheet2!P23="","",Sheet2!P23)</f>
         <v/>
       </c>
-      <c r="R24" s="31">
+      <c r="R24" s="5">
         <f>IF(Sheet2!Q23="","",Sheet2!Q23)</f>
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="S24" s="31">
+      <c r="S24" s="5">
         <f>IF(Sheet2!R23="","",Sheet2!R23)</f>
         <v>-0.13150000000000001</v>
       </c>
-      <c r="T24" s="31">
+      <c r="T24" s="5">
         <f>IF(Sheet2!S23="","",Sheet2!S23)</f>
         <v>0.11849999999999999</v>
       </c>
-      <c r="U24" s="31">
+      <c r="U24" s="5">
         <f>IF(Sheet2!T23="","",Sheet2!T23)</f>
         <v>0.15490000000000001</v>
       </c>
@@ -4587,27 +4584,27 @@
         <f>Sheet2!N24</f>
         <v>0.38</v>
       </c>
-      <c r="P25" s="31">
+      <c r="P25" s="5">
         <f>IF(Sheet2!O24="","",Sheet2!O24)</f>
         <v>0.29170000000000001</v>
       </c>
-      <c r="Q25" s="31">
+      <c r="Q25" s="5">
         <f>IF(Sheet2!P24="","",Sheet2!P24)</f>
         <v>0.25659999999999999</v>
       </c>
-      <c r="R25" s="31">
+      <c r="R25" s="5">
         <f>IF(Sheet2!Q24="","",Sheet2!Q24)</f>
         <v>0.16719999999999999</v>
       </c>
-      <c r="S25" s="31">
+      <c r="S25" s="5">
         <f>IF(Sheet2!R24="","",Sheet2!R24)</f>
         <v>-0.14710000000000001</v>
       </c>
-      <c r="T25" s="31">
+      <c r="T25" s="5">
         <f>IF(Sheet2!S24="","",Sheet2!S24)</f>
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="U25" s="31">
+      <c r="U25" s="5">
         <f>IF(Sheet2!T24="","",Sheet2!T24)</f>
         <v>0.22109999999999999</v>
       </c>
@@ -4681,27 +4678,27 @@
         <f>Sheet2!N25</f>
         <v>-0.03</v>
       </c>
-      <c r="P26" s="31" t="str">
+      <c r="P26" s="5" t="str">
         <f>IF(Sheet2!O25="","",Sheet2!O25)</f>
         <v/>
       </c>
-      <c r="Q26" s="31" t="str">
+      <c r="Q26" s="5" t="str">
         <f>IF(Sheet2!P25="","",Sheet2!P25)</f>
         <v/>
       </c>
-      <c r="R26" s="31">
+      <c r="R26" s="5">
         <f>IF(Sheet2!Q25="","",Sheet2!Q25)</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="S26" s="31">
+      <c r="S26" s="5">
         <f>IF(Sheet2!R25="","",Sheet2!R25)</f>
         <v>-0.24959999999999999</v>
       </c>
-      <c r="T26" s="31">
+      <c r="T26" s="5">
         <f>IF(Sheet2!S25="","",Sheet2!S25)</f>
         <v>0.1424</v>
       </c>
-      <c r="U26" s="31">
+      <c r="U26" s="5">
         <f>IF(Sheet2!T25="","",Sheet2!T25)</f>
         <v>0.1222</v>
       </c>
@@ -4775,27 +4772,27 @@
         <f>Sheet2!N26</f>
         <v>0.45</v>
       </c>
-      <c r="P27" s="31" t="str">
+      <c r="P27" s="5" t="str">
         <f>IF(Sheet2!O26="","",Sheet2!O26)</f>
         <v/>
       </c>
-      <c r="Q27" s="31" t="str">
+      <c r="Q27" s="5" t="str">
         <f>IF(Sheet2!P26="","",Sheet2!P26)</f>
         <v/>
       </c>
-      <c r="R27" s="31" t="str">
+      <c r="R27" s="5" t="str">
         <f>IF(Sheet2!Q26="","",Sheet2!Q26)</f>
         <v/>
       </c>
-      <c r="S27" s="31" t="str">
+      <c r="S27" s="5" t="str">
         <f>IF(Sheet2!R26="","",Sheet2!R26)</f>
         <v/>
       </c>
-      <c r="T27" s="31">
+      <c r="T27" s="5">
         <f>IF(Sheet2!S26="","",Sheet2!S26)</f>
         <v>-8.6699999999999999E-2</v>
       </c>
-      <c r="U27" s="31">
+      <c r="U27" s="5">
         <f>IF(Sheet2!T26="","",Sheet2!T26)</f>
         <v>0.27429999999999999</v>
       </c>
@@ -4869,27 +4866,27 @@
         <f>Sheet2!N27</f>
         <v>1.22</v>
       </c>
-      <c r="P28" s="31" t="str">
+      <c r="P28" s="5" t="str">
         <f>IF(Sheet2!O27="","",Sheet2!O27)</f>
         <v/>
       </c>
-      <c r="Q28" s="31" t="str">
+      <c r="Q28" s="5" t="str">
         <f>IF(Sheet2!P27="","",Sheet2!P27)</f>
         <v/>
       </c>
-      <c r="R28" s="31" t="str">
+      <c r="R28" s="5" t="str">
         <f>IF(Sheet2!Q27="","",Sheet2!Q27)</f>
         <v/>
       </c>
-      <c r="S28" s="31" t="str">
+      <c r="S28" s="5" t="str">
         <f>IF(Sheet2!R27="","",Sheet2!R27)</f>
         <v/>
       </c>
-      <c r="T28" s="31" t="str">
+      <c r="T28" s="5" t="str">
         <f>IF(Sheet2!S27="","",Sheet2!S27)</f>
         <v/>
       </c>
-      <c r="U28" s="31" t="str">
+      <c r="U28" s="5" t="str">
         <f>IF(Sheet2!T27="","",Sheet2!T27)</f>
         <v/>
       </c>
@@ -4963,27 +4960,27 @@
         <f>Sheet2!N28</f>
         <v>0.6</v>
       </c>
-      <c r="P29" s="31" t="str">
+      <c r="P29" s="5" t="str">
         <f>IF(Sheet2!O28="","",Sheet2!O28)</f>
         <v/>
       </c>
-      <c r="Q29" s="31" t="str">
+      <c r="Q29" s="5" t="str">
         <f>IF(Sheet2!P28="","",Sheet2!P28)</f>
         <v/>
       </c>
-      <c r="R29" s="31">
+      <c r="R29" s="5">
         <f>IF(Sheet2!Q28="","",Sheet2!Q28)</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S29" s="31">
+      <c r="S29" s="5">
         <f>IF(Sheet2!R28="","",Sheet2!R28)</f>
         <v>-3.3799999999999997E-2</v>
       </c>
-      <c r="T29" s="31">
+      <c r="T29" s="5">
         <f>IF(Sheet2!S28="","",Sheet2!S28)</f>
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="U29" s="31">
+      <c r="U29" s="5">
         <f>IF(Sheet2!T28="","",Sheet2!T28)</f>
         <v>0.2586</v>
       </c>
@@ -5057,27 +5054,27 @@
         <f>Sheet2!N29</f>
         <v>-0.14000000000000001</v>
       </c>
-      <c r="P30" s="31">
+      <c r="P30" s="5">
         <f>IF(Sheet2!O29="","",Sheet2!O29)</f>
         <v>0.31819999999999998</v>
       </c>
-      <c r="Q30" s="31">
+      <c r="Q30" s="5">
         <f>IF(Sheet2!P29="","",Sheet2!P29)</f>
         <v>0.48530000000000001</v>
       </c>
-      <c r="R30" s="31">
+      <c r="R30" s="5">
         <f>IF(Sheet2!Q29="","",Sheet2!Q29)</f>
         <v>-7.5399999999999995E-2</v>
       </c>
-      <c r="S30" s="31">
+      <c r="S30" s="5">
         <f>IF(Sheet2!R29="","",Sheet2!R29)</f>
         <v>-0.2329</v>
       </c>
-      <c r="T30" s="31">
+      <c r="T30" s="5">
         <f>IF(Sheet2!S29="","",Sheet2!S29)</f>
         <v>-0.23899999999999999</v>
       </c>
-      <c r="U30" s="31">
+      <c r="U30" s="5">
         <f>IF(Sheet2!T29="","",Sheet2!T29)</f>
         <v>-1.1000000000000001E-3</v>
       </c>
@@ -5151,27 +5148,27 @@
         <f>Sheet2!N30</f>
         <v>-0.15</v>
       </c>
-      <c r="P31" s="31" t="str">
+      <c r="P31" s="5" t="str">
         <f>IF(Sheet2!O30="","",Sheet2!O30)</f>
         <v/>
       </c>
-      <c r="Q31" s="31" t="str">
+      <c r="Q31" s="5" t="str">
         <f>IF(Sheet2!P30="","",Sheet2!P30)</f>
         <v/>
       </c>
-      <c r="R31" s="31">
+      <c r="R31" s="5">
         <f>IF(Sheet2!Q30="","",Sheet2!Q30)</f>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="S31" s="31">
+      <c r="S31" s="5">
         <f>IF(Sheet2!R30="","",Sheet2!R30)</f>
         <v>-8.6999999999999994E-3</v>
       </c>
-      <c r="T31" s="31">
+      <c r="T31" s="5">
         <f>IF(Sheet2!S30="","",Sheet2!S30)</f>
         <v>-7.2300000000000003E-2</v>
       </c>
-      <c r="U31" s="31">
+      <c r="U31" s="5">
         <f>IF(Sheet2!T30="","",Sheet2!T30)</f>
         <v>4.3200000000000002E-2</v>
       </c>
@@ -5245,27 +5242,27 @@
         <f>Sheet2!N31</f>
         <v>0.63</v>
       </c>
-      <c r="P32" s="31">
+      <c r="P32" s="5">
         <f>IF(Sheet2!O31="","",Sheet2!O31)</f>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q32" s="5">
         <f>IF(Sheet2!P31="","",Sheet2!P31)</f>
         <v>0.30170000000000002</v>
       </c>
-      <c r="R32" s="31">
+      <c r="R32" s="5">
         <f>IF(Sheet2!Q31="","",Sheet2!Q31)</f>
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="S32" s="31">
+      <c r="S32" s="5">
         <f>IF(Sheet2!R31="","",Sheet2!R31)</f>
         <v>-3.39E-2</v>
       </c>
-      <c r="T32" s="31">
+      <c r="T32" s="5">
         <f>IF(Sheet2!S31="","",Sheet2!S31)</f>
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="U32" s="31">
+      <c r="U32" s="5">
         <f>IF(Sheet2!T31="","",Sheet2!T31)</f>
         <v>0.14169999999999999</v>
       </c>
@@ -5339,27 +5336,27 @@
         <f>Sheet2!N32</f>
         <v>-4.25</v>
       </c>
-      <c r="P33" s="31" t="str">
+      <c r="P33" s="5" t="str">
         <f>IF(Sheet2!O32="","",Sheet2!O32)</f>
         <v/>
       </c>
-      <c r="Q33" s="31" t="str">
+      <c r="Q33" s="5" t="str">
         <f>IF(Sheet2!P32="","",Sheet2!P32)</f>
         <v/>
       </c>
-      <c r="R33" s="31" t="str">
+      <c r="R33" s="5" t="str">
         <f>IF(Sheet2!Q32="","",Sheet2!Q32)</f>
         <v/>
       </c>
-      <c r="S33" s="31" t="str">
+      <c r="S33" s="5" t="str">
         <f>IF(Sheet2!R32="","",Sheet2!R32)</f>
         <v/>
       </c>
-      <c r="T33" s="31" t="str">
+      <c r="T33" s="5" t="str">
         <f>IF(Sheet2!S32="","",Sheet2!S32)</f>
         <v/>
       </c>
-      <c r="U33" s="31" t="str">
+      <c r="U33" s="5" t="str">
         <f>IF(Sheet2!T32="","",Sheet2!T32)</f>
         <v/>
       </c>
@@ -5433,27 +5430,27 @@
         <f>Sheet2!N33</f>
         <v>-0.49</v>
       </c>
-      <c r="P34" s="31" t="str">
+      <c r="P34" s="5" t="str">
         <f>IF(Sheet2!O33="","",Sheet2!O33)</f>
         <v/>
       </c>
-      <c r="Q34" s="31" t="str">
+      <c r="Q34" s="5" t="str">
         <f>IF(Sheet2!P33="","",Sheet2!P33)</f>
         <v/>
       </c>
-      <c r="R34" s="31">
+      <c r="R34" s="5">
         <f>IF(Sheet2!Q33="","",Sheet2!Q33)</f>
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="S34" s="31">
+      <c r="S34" s="5">
         <f>IF(Sheet2!R33="","",Sheet2!R33)</f>
         <v>-0.20050000000000001</v>
       </c>
-      <c r="T34" s="31">
+      <c r="T34" s="5">
         <f>IF(Sheet2!S33="","",Sheet2!S33)</f>
         <v>-2.69E-2</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="5">
         <f>IF(Sheet2!T33="","",Sheet2!T33)</f>
         <v>0.13339999999999999</v>
       </c>
@@ -5527,27 +5524,27 @@
         <f>Sheet2!N34</f>
         <v>-0.22</v>
       </c>
-      <c r="P35" s="31" t="str">
+      <c r="P35" s="5" t="str">
         <f>IF(Sheet2!O34="","",Sheet2!O34)</f>
         <v/>
       </c>
-      <c r="Q35" s="31" t="str">
+      <c r="Q35" s="5" t="str">
         <f>IF(Sheet2!P34="","",Sheet2!P34)</f>
         <v/>
       </c>
-      <c r="R35" s="31" t="str">
+      <c r="R35" s="5" t="str">
         <f>IF(Sheet2!Q34="","",Sheet2!Q34)</f>
         <v/>
       </c>
-      <c r="S35" s="31" t="str">
+      <c r="S35" s="5" t="str">
         <f>IF(Sheet2!R34="","",Sheet2!R34)</f>
         <v/>
       </c>
-      <c r="T35" s="31">
+      <c r="T35" s="5">
         <f>IF(Sheet2!S34="","",Sheet2!S34)</f>
         <v>2.8E-3</v>
       </c>
-      <c r="U35" s="31">
+      <c r="U35" s="5">
         <f>IF(Sheet2!T34="","",Sheet2!T34)</f>
         <v>-1.14E-2</v>
       </c>
@@ -5621,27 +5618,27 @@
         <f>Sheet2!N35</f>
         <v>1.22</v>
       </c>
-      <c r="P36" s="31">
+      <c r="P36" s="5">
         <f>IF(Sheet2!O35="","",Sheet2!O35)</f>
         <v>0.2717</v>
       </c>
-      <c r="Q36" s="31">
+      <c r="Q36" s="5">
         <f>IF(Sheet2!P35="","",Sheet2!P35)</f>
         <v>0.62690000000000001</v>
       </c>
-      <c r="R36" s="31">
+      <c r="R36" s="5">
         <f>IF(Sheet2!Q35="","",Sheet2!Q35)</f>
         <v>0.56100000000000005</v>
       </c>
-      <c r="S36" s="31">
+      <c r="S36" s="5">
         <f>IF(Sheet2!R35="","",Sheet2!R35)</f>
         <v>-3.3300000000000003E-2</v>
       </c>
-      <c r="T36" s="31">
+      <c r="T36" s="5">
         <f>IF(Sheet2!S35="","",Sheet2!S35)</f>
         <v>2.35E-2</v>
       </c>
-      <c r="U36" s="31">
+      <c r="U36" s="5">
         <f>IF(Sheet2!T35="","",Sheet2!T35)</f>
         <v>0.1109</v>
       </c>
@@ -5715,27 +5712,27 @@
         <f>Sheet2!N36</f>
         <v>-1.89</v>
       </c>
-      <c r="P37" s="31" t="str">
+      <c r="P37" s="5" t="str">
         <f>IF(Sheet2!O36="","",Sheet2!O36)</f>
         <v/>
       </c>
-      <c r="Q37" s="31" t="str">
+      <c r="Q37" s="5" t="str">
         <f>IF(Sheet2!P36="","",Sheet2!P36)</f>
         <v/>
       </c>
-      <c r="R37" s="31" t="str">
+      <c r="R37" s="5" t="str">
         <f>IF(Sheet2!Q36="","",Sheet2!Q36)</f>
         <v/>
       </c>
-      <c r="S37" s="31" t="str">
+      <c r="S37" s="5" t="str">
         <f>IF(Sheet2!R36="","",Sheet2!R36)</f>
         <v/>
       </c>
-      <c r="T37" s="31" t="str">
+      <c r="T37" s="5" t="str">
         <f>IF(Sheet2!S36="","",Sheet2!S36)</f>
         <v/>
       </c>
-      <c r="U37" s="31" t="str">
+      <c r="U37" s="5" t="str">
         <f>IF(Sheet2!T36="","",Sheet2!T36)</f>
         <v/>
       </c>
@@ -5809,27 +5806,27 @@
         <f>Sheet2!N37</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="P38" s="31">
+      <c r="P38" s="5">
         <f>IF(Sheet2!O37="","",Sheet2!O37)</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="Q38" s="31">
+      <c r="Q38" s="5">
         <f>IF(Sheet2!P37="","",Sheet2!P37)</f>
         <v>0.51670000000000005</v>
       </c>
-      <c r="R38" s="31">
+      <c r="R38" s="5">
         <f>IF(Sheet2!Q37="","",Sheet2!Q37)</f>
         <v>0.1653</v>
       </c>
-      <c r="S38" s="31">
+      <c r="S38" s="5">
         <f>IF(Sheet2!R37="","",Sheet2!R37)</f>
         <v>-0.12</v>
       </c>
-      <c r="T38" s="31">
+      <c r="T38" s="5">
         <f>IF(Sheet2!S37="","",Sheet2!S37)</f>
         <v>-1.38E-2</v>
       </c>
-      <c r="U38" s="31">
+      <c r="U38" s="5">
         <f>IF(Sheet2!T37="","",Sheet2!T37)</f>
         <v>0.15390000000000001</v>
       </c>
@@ -5903,27 +5900,27 @@
         <f>Sheet2!N38</f>
         <v>-0.49</v>
       </c>
-      <c r="P39" s="31" t="str">
+      <c r="P39" s="5" t="str">
         <f>IF(Sheet2!O38="","",Sheet2!O38)</f>
         <v/>
       </c>
-      <c r="Q39" s="31" t="str">
+      <c r="Q39" s="5" t="str">
         <f>IF(Sheet2!P38="","",Sheet2!P38)</f>
         <v/>
       </c>
-      <c r="R39" s="31" t="str">
+      <c r="R39" s="5" t="str">
         <f>IF(Sheet2!Q38="","",Sheet2!Q38)</f>
         <v/>
       </c>
-      <c r="S39" s="31">
+      <c r="S39" s="5">
         <f>IF(Sheet2!R38="","",Sheet2!R38)</f>
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="T39" s="31">
+      <c r="T39" s="5">
         <f>IF(Sheet2!S38="","",Sheet2!S38)</f>
         <v>-0.30349999999999999</v>
       </c>
-      <c r="U39" s="31">
+      <c r="U39" s="5">
         <f>IF(Sheet2!T38="","",Sheet2!T38)</f>
         <v>0.29920000000000002</v>
       </c>
@@ -10441,27 +10438,27 @@
         <f>Sheet2!N82</f>
         <v>1.92</v>
       </c>
-      <c r="P95" s="31" t="str">
+      <c r="P95" s="5" t="str">
         <f>IF(Sheet2!O82="","",Sheet2!O82)</f>
         <v/>
       </c>
-      <c r="Q95" s="31" t="str">
+      <c r="Q95" s="5" t="str">
         <f>IF(Sheet2!P82="","",Sheet2!P82)</f>
         <v/>
       </c>
-      <c r="R95" s="31" t="str">
+      <c r="R95" s="5" t="str">
         <f>IF(Sheet2!Q82="","",Sheet2!Q82)</f>
         <v/>
       </c>
-      <c r="S95" s="31" t="str">
+      <c r="S95" s="5" t="str">
         <f>IF(Sheet2!R82="","",Sheet2!R82)</f>
         <v/>
       </c>
-      <c r="T95" s="31">
+      <c r="T95" s="5">
         <f>IF(Sheet2!S82="","",Sheet2!S82)</f>
         <v>0</v>
       </c>
-      <c r="U95" s="31">
+      <c r="U95" s="5">
         <f>IF(Sheet2!T82="","",Sheet2!T82)</f>
         <v>0.18099999999999999</v>
       </c>
@@ -10723,27 +10720,27 @@
         <f>Sheet2!N85</f>
         <v>0.74</v>
       </c>
-      <c r="P98" s="31" t="str">
+      <c r="P98" s="5" t="str">
         <f>IF(Sheet2!O85="","",Sheet2!O85)</f>
         <v/>
       </c>
-      <c r="Q98" s="31">
+      <c r="Q98" s="5">
         <f>IF(Sheet2!P85="","",Sheet2!P85)</f>
         <v>0</v>
       </c>
-      <c r="R98" s="31">
+      <c r="R98" s="5">
         <f>IF(Sheet2!Q85="","",Sheet2!Q85)</f>
         <v>0.2447</v>
       </c>
-      <c r="S98" s="31">
+      <c r="S98" s="5">
         <f>IF(Sheet2!R85="","",Sheet2!R85)</f>
         <v>-7.1499999999999994E-2</v>
       </c>
-      <c r="T98" s="31">
+      <c r="T98" s="5">
         <f>IF(Sheet2!S85="","",Sheet2!S85)</f>
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="U98" s="31">
+      <c r="U98" s="5">
         <f>IF(Sheet2!T85="","",Sheet2!T85)</f>
         <v>7.9500000000000001E-2</v>
       </c>
@@ -10817,27 +10814,27 @@
         <f>Sheet2!N86</f>
         <v>0.16</v>
       </c>
-      <c r="P99" s="31" t="str">
+      <c r="P99" s="5" t="str">
         <f>IF(Sheet2!O86="","",Sheet2!O86)</f>
         <v/>
       </c>
-      <c r="Q99" s="31" t="str">
+      <c r="Q99" s="5" t="str">
         <f>IF(Sheet2!P86="","",Sheet2!P86)</f>
         <v/>
       </c>
-      <c r="R99" s="31" t="str">
+      <c r="R99" s="5" t="str">
         <f>IF(Sheet2!Q86="","",Sheet2!Q86)</f>
         <v/>
       </c>
-      <c r="S99" s="31">
+      <c r="S99" s="5">
         <f>IF(Sheet2!R86="","",Sheet2!R86)</f>
         <v>-2.4E-2</v>
       </c>
-      <c r="T99" s="31">
+      <c r="T99" s="5">
         <f>IF(Sheet2!S86="","",Sheet2!S86)</f>
         <v>-9.1999999999999998E-3</v>
       </c>
-      <c r="U99" s="31">
+      <c r="U99" s="5">
         <f>IF(Sheet2!T86="","",Sheet2!T86)</f>
         <v>0.2172</v>
       </c>
@@ -11099,27 +11096,27 @@
         <f>Sheet2!N89</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="P102" s="31" t="str">
+      <c r="P102" s="5" t="str">
         <f>IF(Sheet2!O89="","",Sheet2!O89)</f>
         <v/>
       </c>
-      <c r="Q102" s="31" t="str">
+      <c r="Q102" s="5" t="str">
         <f>IF(Sheet2!P89="","",Sheet2!P89)</f>
         <v/>
       </c>
-      <c r="R102" s="31">
+      <c r="R102" s="5">
         <f>IF(Sheet2!Q89="","",Sheet2!Q89)</f>
         <v>-1.23E-2</v>
       </c>
-      <c r="S102" s="31">
+      <c r="S102" s="5">
         <f>IF(Sheet2!R89="","",Sheet2!R89)</f>
         <v>-3.7600000000000001E-2</v>
       </c>
-      <c r="T102" s="31">
+      <c r="T102" s="5">
         <f>IF(Sheet2!S89="","",Sheet2!S89)</f>
         <v>0.1172</v>
       </c>
-      <c r="U102" s="31">
+      <c r="U102" s="5">
         <f>IF(Sheet2!T89="","",Sheet2!T89)</f>
         <v>0.2359</v>
       </c>
@@ -11193,27 +11190,27 @@
         <f>Sheet2!N90</f>
         <v>0.18</v>
       </c>
-      <c r="P103" s="31" t="str">
+      <c r="P103" s="5" t="str">
         <f>IF(Sheet2!O90="","",Sheet2!O90)</f>
         <v/>
       </c>
-      <c r="Q103" s="31" t="str">
+      <c r="Q103" s="5" t="str">
         <f>IF(Sheet2!P90="","",Sheet2!P90)</f>
         <v/>
       </c>
-      <c r="R103" s="31" t="str">
+      <c r="R103" s="5" t="str">
         <f>IF(Sheet2!Q90="","",Sheet2!Q90)</f>
         <v/>
       </c>
-      <c r="S103" s="31" t="str">
+      <c r="S103" s="5" t="str">
         <f>IF(Sheet2!R90="","",Sheet2!R90)</f>
         <v/>
       </c>
-      <c r="T103" s="31">
+      <c r="T103" s="5">
         <f>IF(Sheet2!S90="","",Sheet2!S90)</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="U103" s="31">
+      <c r="U103" s="5">
         <f>IF(Sheet2!T90="","",Sheet2!T90)</f>
         <v>8.3199999999999996E-2</v>
       </c>
@@ -11358,6 +11355,102 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="V3:V45">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V46:V48">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V49:V56">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V57:V58">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V59:V65">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V66:V67">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V68:V70">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V71:V72">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V73:V84">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -11369,7 +11462,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V46:V48">
+  <conditionalFormatting sqref="V85:V91">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -11381,7 +11474,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V49:V56">
+  <conditionalFormatting sqref="V92:V93">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -11393,7 +11486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V57:V58">
+  <conditionalFormatting sqref="V94:V96">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -11405,7 +11498,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V59:V65">
+  <conditionalFormatting sqref="V97:V100">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -11417,7 +11510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V66:V67">
+  <conditionalFormatting sqref="V101:V104">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -11429,7 +11522,343 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V68:V70">
+  <conditionalFormatting sqref="W3:W45">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W46:W48">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W49:W56">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W57:W58">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W59:W65">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W66:W67">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W68:W70">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W71:W72">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W73:W84">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W85:W91">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W92:W93">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W94:W96">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W97:W100">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W101:W104">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X45">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X46:X48">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X49:X56">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X57:X58">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X59:X65">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X66:X67">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X68:X70">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X71:X72">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X73:X84">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X85:X91">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X92:X93">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X94:X96">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X97:X100">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X101:X104">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T42">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -11441,7 +11870,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V71:V72">
+  <conditionalFormatting sqref="U3:U42">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T46:T47">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U46:U47">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -11453,7 +11906,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V73:V84">
+  <conditionalFormatting sqref="T49:T55">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U49:U55">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T59:T64">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -11465,7 +11942,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V85:V91">
+  <conditionalFormatting sqref="U59:U64">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T66">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U66">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -11477,7 +11978,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V92:V93">
+  <conditionalFormatting sqref="T68:T69">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U68:U69">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T73:T82">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -11489,7 +12014,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V94:V96">
+  <conditionalFormatting sqref="U73:U82">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T85:T91">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U85:U91">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -11501,7 +12050,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V97:V100">
+  <conditionalFormatting sqref="T92:T93">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U92:U93">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T94:T96">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -11513,7 +12086,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V101:V104">
+  <conditionalFormatting sqref="U94:U96">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T97:T100">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U97:U100">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11525,163 +12122,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W45">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W46:W48">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W49:W56">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W57:W58">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W59:W65">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W66:W67">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W68:W70">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W71:W72">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W73:W84">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W85:W91">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W92:W93">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W94:W96">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W97:W100">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W101:W104">
+  <conditionalFormatting sqref="T101:T104">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -11693,163 +12134,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X45">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X46:X48">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X49:X56">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X57:X58">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X59:X65">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X66:X67">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X68:X70">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X71:X72">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X73:X84">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X85:X91">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X92:X93">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X94:X96">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X97:X100">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X101:X104">
+  <conditionalFormatting sqref="U101:U104">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -2017,7 +2017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2071,15 +2071,6 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2099,9 +2090,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2932,8 +2920,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AX105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AC18"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2951,7 +2939,7 @@
     <col min="14" max="14" width="11.4416666666667" style="6" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="9.33333333333333" style="7" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="11.4416666666667" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.44166666666667" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.44166666666667" style="3" customWidth="1"/>
     <col min="18" max="18" width="11" style="3" customWidth="1"/>
     <col min="19" max="20" width="9.88333333333333" style="7" customWidth="1"/>
     <col min="21" max="24" width="9.88333333333333" style="7" hidden="1" customWidth="1"/>
@@ -2993,7 +2981,7 @@
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
       <c r="X1" s="8"/>
-      <c r="Z1" s="24" t="str">
+      <c r="Z1" s="21" t="str">
         <f>"分公司保有私募周表现梳理"&amp;"("&amp;TEXT(Z20,"yyyy/mm/dd")&amp;"-"&amp;TEXT(Z21,"yyyy/mm/dd")&amp;")"</f>
         <v>分公司保有私募周表现梳理(2025/04/23-2025/04/30)</v>
       </c>
@@ -3056,43 +3044,43 @@
       <c r="T2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="26" t="s">
+      <c r="AF2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AG2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AH2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="43" t="s">
+      <c r="AI2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="40" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3198,20 +3186,20 @@
       <c r="AB3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AC3" s="27" t="s">
+      <c r="AC3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="28" t="s">
+      <c r="AF3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="45">
+      <c r="AG3" s="41">
         <v>-0.0004</v>
       </c>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="47" t="s">
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" s="48"/>
+      <c r="AJ3" s="44"/>
     </row>
     <row r="4" ht="25.05" customHeight="1" spans="2:36">
       <c r="B4" s="6" t="str">
@@ -3315,22 +3303,22 @@
       <c r="AB4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="27" t="s">
+      <c r="AC4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="29" t="s">
+      <c r="AF4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="49">
+      <c r="AG4" s="45">
         <v>0.0025</v>
       </c>
-      <c r="AH4" s="49">
+      <c r="AH4" s="45">
         <v>-0.0487</v>
       </c>
-      <c r="AI4" s="50" t="s">
+      <c r="AI4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="AJ4" s="51" t="s">
+      <c r="AJ4" s="47" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3436,22 +3424,22 @@
       <c r="AB5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AC5" s="27" t="s">
+      <c r="AC5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AF5" s="30" t="s">
+      <c r="AF5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AG5" s="52">
+      <c r="AG5" s="48">
         <v>0.028</v>
       </c>
-      <c r="AH5" s="52">
+      <c r="AH5" s="48">
         <v>-0.0461</v>
       </c>
-      <c r="AI5" s="53" t="s">
+      <c r="AI5" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="AJ5" s="54" t="s">
+      <c r="AJ5" s="50" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3548,31 +3536,31 @@
         <f>IF(Sheet2!O5="","",Sheet2!O5)</f>
         <v/>
       </c>
-      <c r="Z6" s="31" t="s">
+      <c r="Z6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AA6" s="31" t="s">
+      <c r="AA6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="31" t="s">
+      <c r="AB6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AC6" s="32" t="s">
+      <c r="AC6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AF6" s="33" t="s">
+      <c r="AF6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AG6" s="55">
+      <c r="AG6" s="51">
         <v>-0.0152</v>
       </c>
-      <c r="AH6" s="55">
+      <c r="AH6" s="51">
         <v>-0.0503</v>
       </c>
-      <c r="AI6" s="56" t="s">
+      <c r="AI6" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AJ6" s="57" t="s">
+      <c r="AJ6" s="53" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3653,19 +3641,19 @@
         <f>IF(Sheet2!S6="","",Sheet2!S6)</f>
         <v>-0.0773</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="16">
         <f>IF(Sheet2!R6="","",Sheet2!R6)</f>
         <v>-0.0771</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V7" s="16">
         <f>IF(Sheet2!Q6="","",Sheet2!Q6)</f>
         <v>0.9929</v>
       </c>
-      <c r="W7" s="22" t="str">
+      <c r="W7" s="16" t="str">
         <f>IF(Sheet2!P6="","",Sheet2!P6)</f>
         <v/>
       </c>
-      <c r="X7" s="22" t="str">
+      <c r="X7" s="16" t="str">
         <f>IF(Sheet2!O6="","",Sheet2!O6)</f>
         <v/>
       </c>
@@ -3678,22 +3666,22 @@
       <c r="AB7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AC7" s="27" t="s">
+      <c r="AC7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AF7" s="30" t="s">
+      <c r="AF7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AG7" s="52">
+      <c r="AG7" s="48">
         <v>0.052</v>
       </c>
-      <c r="AH7" s="52">
+      <c r="AH7" s="48">
         <v>-0.0376</v>
       </c>
-      <c r="AI7" s="53" t="s">
+      <c r="AI7" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="AJ7" s="54" t="s">
+      <c r="AJ7" s="50" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3799,22 +3787,22 @@
       <c r="AB8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AC8" s="27" t="s">
+      <c r="AC8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="AF8" s="33" t="s">
+      <c r="AF8" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AG8" s="55">
+      <c r="AG8" s="51">
         <v>0.0625</v>
       </c>
-      <c r="AH8" s="55">
+      <c r="AH8" s="51">
         <v>-0.0227</v>
       </c>
-      <c r="AI8" s="56" t="s">
+      <c r="AI8" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AJ8" s="57" t="s">
+      <c r="AJ8" s="53" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3920,22 +3908,22 @@
       <c r="AB9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AC9" s="27" t="s">
+      <c r="AC9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AF9" s="30" t="s">
+      <c r="AF9" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AG9" s="52">
+      <c r="AG9" s="48">
         <v>0.097</v>
       </c>
-      <c r="AH9" s="52">
+      <c r="AH9" s="48">
         <v>0.0367</v>
       </c>
-      <c r="AI9" s="53" t="s">
+      <c r="AI9" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="AJ9" s="54" t="s">
+      <c r="AJ9" s="50" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4041,20 +4029,20 @@
       <c r="AB10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AC10" s="27" t="s">
+      <c r="AC10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="AF10" s="33" t="s">
+      <c r="AF10" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AG10" s="55">
+      <c r="AG10" s="51">
         <v>0.0074</v>
       </c>
-      <c r="AH10" s="55">
+      <c r="AH10" s="51">
         <v>-0.0404</v>
       </c>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="57"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="53"/>
     </row>
     <row r="11" ht="25.05" customHeight="1" spans="2:36">
       <c r="B11" s="6" t="str">
@@ -4158,20 +4146,20 @@
       <c r="AB11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AC11" s="27" t="s">
+      <c r="AC11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AF11" s="30" t="s">
+      <c r="AF11" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AG11" s="52">
+      <c r="AG11" s="48">
         <v>0.0614</v>
       </c>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="53" t="s">
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="AJ11" s="54"/>
+      <c r="AJ11" s="50"/>
     </row>
     <row r="12" ht="25.05" customHeight="1" spans="2:36">
       <c r="B12" s="6" t="str">
@@ -4275,20 +4263,20 @@
       <c r="AB12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" s="27" t="s">
+      <c r="AC12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AF12" s="34" t="s">
+      <c r="AF12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AG12" s="58">
+      <c r="AG12" s="54">
         <v>0.0258</v>
       </c>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="59" t="s">
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AJ12" s="60" t="s">
+      <c r="AJ12" s="56" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4394,20 +4382,20 @@
       <c r="AB13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AC13" s="27" t="s">
+      <c r="AC13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AF13" s="35" t="s">
+      <c r="AF13" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AG13" s="61">
+      <c r="AG13" s="57">
         <v>0.018</v>
       </c>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="62" t="s">
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="AJ13" s="63"/>
+      <c r="AJ13" s="59"/>
     </row>
     <row r="14" ht="25.05" customHeight="1" spans="2:36">
       <c r="B14" s="6" t="str">
@@ -4502,29 +4490,29 @@
         <f>IF(Sheet2!O13="","",Sheet2!O13)</f>
         <v/>
       </c>
-      <c r="Z14" s="31" t="s">
+      <c r="Z14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AA14" s="31" t="s">
+      <c r="AA14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AB14" s="31" t="s">
+      <c r="AB14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AC14" s="32" t="s">
+      <c r="AC14" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="AF14" s="36" t="s">
+      <c r="AF14" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AG14" s="64">
+      <c r="AG14" s="60">
         <v>0.0501</v>
       </c>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="65" t="s">
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="AJ14" s="66"/>
+      <c r="AJ14" s="62"/>
     </row>
     <row r="15" ht="25.05" customHeight="1" spans="2:36">
       <c r="B15" s="6" t="str">
@@ -4619,29 +4607,29 @@
         <f>IF(Sheet2!O14="","",Sheet2!O14)</f>
         <v/>
       </c>
-      <c r="Z15" s="31" t="s">
+      <c r="Z15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AA15" s="31" t="s">
+      <c r="AA15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AB15" s="31" t="s">
+      <c r="AB15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AC15" s="32" t="s">
+      <c r="AC15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AF15" s="35" t="s">
+      <c r="AF15" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="AG15" s="61">
+      <c r="AG15" s="57">
         <v>0.0173</v>
       </c>
-      <c r="AH15" s="61"/>
-      <c r="AI15" s="62" t="s">
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="AJ15" s="63"/>
+      <c r="AJ15" s="59"/>
     </row>
     <row r="16" ht="25.05" customHeight="1" spans="2:36">
       <c r="B16" s="6" t="str">
@@ -4736,21 +4724,21 @@
         <f>IF(Sheet2!O15="","",Sheet2!O15)</f>
         <v/>
       </c>
-      <c r="Z16" s="31" t="s">
+      <c r="Z16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AA16" s="31" t="s">
+      <c r="AA16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" s="31" t="s">
+      <c r="AB16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AC16" s="32" t="s">
+      <c r="AC16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AF16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
+      <c r="AF16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
     </row>
     <row r="17" ht="25.05" customHeight="1" spans="2:29">
       <c r="B17" s="6" t="str">
@@ -4845,16 +4833,16 @@
         <f>IF(Sheet2!O16="","",Sheet2!O16)</f>
         <v/>
       </c>
-      <c r="Z17" s="31" t="s">
+      <c r="Z17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AA17" s="31" t="s">
+      <c r="AA17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AB17" s="31" t="s">
+      <c r="AB17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AC17" s="32" t="s">
+      <c r="AC17" s="28" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4951,25 +4939,25 @@
         <f>IF(Sheet2!O17="","",Sheet2!O17)</f>
         <v/>
       </c>
-      <c r="Z18" s="38" t="s">
+      <c r="Z18" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="67"/>
-      <c r="AM18" s="67"/>
-      <c r="AN18" s="67"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="67"/>
-      <c r="AR18" s="67"/>
-      <c r="AS18" s="67"/>
-      <c r="AT18" s="67"/>
-      <c r="AU18" s="67"/>
-      <c r="AV18" s="67"/>
-      <c r="AW18" s="67"/>
-      <c r="AX18" s="67"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="33"/>
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="63"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="63"/>
     </row>
     <row r="19" ht="25.05" customHeight="1" spans="2:24">
       <c r="B19" s="6" t="str">
@@ -5158,7 +5146,7 @@
         <f>IF(Sheet2!O19="","",Sheet2!O19)</f>
         <v/>
       </c>
-      <c r="Z20" s="39">
+      <c r="Z20" s="35">
         <f>Z21-7</f>
         <v>45770</v>
       </c>
@@ -5256,7 +5244,7 @@
         <f>IF(Sheet2!O20="","",Sheet2!O20)</f>
         <v/>
       </c>
-      <c r="Z21" s="40" t="str">
+      <c r="Z21" s="36" t="str">
         <f>G3</f>
         <v>2025-04-30</v>
       </c>
@@ -5338,19 +5326,19 @@
         <f>IF(Sheet2!S21="","",Sheet2!S21)</f>
         <v/>
       </c>
-      <c r="U22" s="22" t="str">
+      <c r="U22" s="16" t="str">
         <f>IF(Sheet2!R21="","",Sheet2!R21)</f>
         <v/>
       </c>
-      <c r="V22" s="22" t="str">
+      <c r="V22" s="16" t="str">
         <f>IF(Sheet2!Q21="","",Sheet2!Q21)</f>
         <v/>
       </c>
-      <c r="W22" s="22" t="str">
+      <c r="W22" s="16" t="str">
         <f>IF(Sheet2!P21="","",Sheet2!P21)</f>
         <v/>
       </c>
-      <c r="X22" s="22" t="str">
+      <c r="X22" s="16" t="str">
         <f>IF(Sheet2!O21="","",Sheet2!O21)</f>
         <v/>
       </c>
@@ -7030,19 +7018,19 @@
         <f>IF(Sheet2!S39="","",Sheet2!S39)</f>
         <v>0.182</v>
       </c>
-      <c r="U40" s="22">
+      <c r="U40" s="16">
         <f>IF(Sheet2!R39="","",Sheet2!R39)</f>
         <v>-0.2709</v>
       </c>
-      <c r="V40" s="22">
+      <c r="V40" s="16">
         <f>IF(Sheet2!Q39="","",Sheet2!Q39)</f>
         <v>-0.103</v>
       </c>
-      <c r="W40" s="22" t="str">
+      <c r="W40" s="16" t="str">
         <f>IF(Sheet2!P39="","",Sheet2!P39)</f>
         <v/>
       </c>
-      <c r="X40" s="22" t="str">
+      <c r="X40" s="16" t="str">
         <f>IF(Sheet2!O39="","",Sheet2!O39)</f>
         <v/>
       </c>
@@ -7218,19 +7206,19 @@
         <f>IF(Sheet2!S41="","",Sheet2!S41)</f>
         <v>-0.2155</v>
       </c>
-      <c r="U42" s="22">
+      <c r="U42" s="16">
         <f>IF(Sheet2!R41="","",Sheet2!R41)</f>
         <v>-0.0353</v>
       </c>
-      <c r="V42" s="22" t="str">
+      <c r="V42" s="16" t="str">
         <f>IF(Sheet2!Q41="","",Sheet2!Q41)</f>
         <v/>
       </c>
-      <c r="W42" s="22" t="str">
+      <c r="W42" s="16" t="str">
         <f>IF(Sheet2!P41="","",Sheet2!P41)</f>
         <v/>
       </c>
-      <c r="X42" s="22" t="str">
+      <c r="X42" s="16" t="str">
         <f>IF(Sheet2!O41="","",Sheet2!O41)</f>
         <v/>
       </c>
@@ -7341,10 +7329,10 @@
       </c>
       <c r="S45" s="16"/>
       <c r="T45" s="19"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
     </row>
     <row r="46" ht="25.05" customHeight="1" spans="2:27">
       <c r="B46" s="6" t="str">
@@ -7440,7 +7428,7 @@
         <v>-0.0083</v>
       </c>
       <c r="Z46" s="7"/>
-      <c r="AA46" s="41"/>
+      <c r="AA46" s="37"/>
     </row>
     <row r="47" ht="25.05" customHeight="1" spans="2:27">
       <c r="B47" s="6" t="str">
@@ -7536,7 +7524,7 @@
         <v/>
       </c>
       <c r="Z47" s="7"/>
-      <c r="AA47" s="41"/>
+      <c r="AA47" s="37"/>
     </row>
     <row r="48" ht="25.05" customHeight="1" spans="2:27">
       <c r="B48" s="10"/>
@@ -7572,12 +7560,12 @@
       </c>
       <c r="S48" s="16"/>
       <c r="T48" s="19"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
       <c r="Z48" s="7"/>
-      <c r="AA48" s="41"/>
+      <c r="AA48" s="37"/>
     </row>
     <row r="49" ht="25.05" customHeight="1" spans="2:27">
       <c r="B49" s="11" t="str">
@@ -7673,7 +7661,7 @@
         <v/>
       </c>
       <c r="Z49" s="7"/>
-      <c r="AA49" s="41"/>
+      <c r="AA49" s="37"/>
     </row>
     <row r="50" ht="25.05" customHeight="1" spans="2:27">
       <c r="B50" s="6" t="str">
@@ -7769,7 +7757,7 @@
         <v/>
       </c>
       <c r="Z50" s="7"/>
-      <c r="AA50" s="41"/>
+      <c r="AA50" s="37"/>
     </row>
     <row r="51" ht="25.05" customHeight="1" spans="2:27">
       <c r="B51" s="6" t="str">
@@ -7865,7 +7853,7 @@
         <v/>
       </c>
       <c r="Z51" s="7"/>
-      <c r="AA51" s="41"/>
+      <c r="AA51" s="37"/>
     </row>
     <row r="52" ht="25.05" customHeight="1" spans="2:27">
       <c r="B52" s="6" t="str">
@@ -7961,7 +7949,7 @@
         <v/>
       </c>
       <c r="Z52" s="7"/>
-      <c r="AA52" s="41"/>
+      <c r="AA52" s="37"/>
     </row>
     <row r="53" ht="25.05" customHeight="1" spans="2:27">
       <c r="B53" s="6" t="str">
@@ -8057,7 +8045,7 @@
         <v/>
       </c>
       <c r="Z53" s="7"/>
-      <c r="AA53" s="42"/>
+      <c r="AA53" s="38"/>
     </row>
     <row r="54" ht="25.05" customHeight="1" spans="2:27">
       <c r="B54" s="6" t="str">
@@ -8153,7 +8141,7 @@
         <v/>
       </c>
       <c r="Z54" s="7"/>
-      <c r="AA54" s="42"/>
+      <c r="AA54" s="38"/>
     </row>
     <row r="55" ht="25.05" customHeight="1" spans="2:27">
       <c r="B55" s="6" t="str">
@@ -8249,7 +8237,7 @@
         <v/>
       </c>
       <c r="Z55" s="7"/>
-      <c r="AA55" s="42"/>
+      <c r="AA55" s="38"/>
     </row>
     <row r="56" ht="25.05" customHeight="1" spans="2:27">
       <c r="B56" s="10"/>
@@ -8285,12 +8273,12 @@
       </c>
       <c r="S56" s="16"/>
       <c r="T56" s="19"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
       <c r="Z56" s="7"/>
-      <c r="AA56" s="42"/>
+      <c r="AA56" s="38"/>
     </row>
     <row r="57" ht="25.05" customHeight="1" spans="2:27">
       <c r="B57" s="11" t="str">
@@ -8366,7 +8354,7 @@
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Z57" s="7"/>
-      <c r="AA57" s="42"/>
+      <c r="AA57" s="38"/>
     </row>
     <row r="58" ht="25.05" customHeight="1" spans="2:24">
       <c r="B58" s="10"/>
@@ -8402,10 +8390,10 @@
       </c>
       <c r="S58" s="16"/>
       <c r="T58" s="19"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23"/>
-      <c r="W58" s="23"/>
-      <c r="X58" s="23"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
     </row>
     <row r="59" ht="25.05" customHeight="1" spans="2:24">
       <c r="B59" s="6" t="str">
@@ -9005,10 +8993,10 @@
       </c>
       <c r="S65" s="16"/>
       <c r="T65" s="19"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="23"/>
-      <c r="W65" s="23"/>
-      <c r="X65" s="23"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
     </row>
     <row r="66" ht="25.05" customHeight="1" spans="2:24">
       <c r="B66" s="6" t="str">
@@ -9138,10 +9126,10 @@
       </c>
       <c r="S67" s="16"/>
       <c r="T67" s="19"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="23"/>
-      <c r="W67" s="23"/>
-      <c r="X67" s="23"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
     </row>
     <row r="68" ht="25.05" customHeight="1" spans="2:24">
       <c r="B68" s="6" t="str">
@@ -9365,10 +9353,10 @@
       </c>
       <c r="S70" s="16"/>
       <c r="T70" s="19"/>
-      <c r="U70" s="23"/>
-      <c r="V70" s="23"/>
-      <c r="W70" s="23"/>
-      <c r="X70" s="23"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19"/>
+      <c r="W70" s="19"/>
+      <c r="X70" s="19"/>
     </row>
     <row r="71" ht="25.05" customHeight="1" spans="2:24">
       <c r="B71" s="11" t="str">
@@ -9478,10 +9466,10 @@
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="19"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="23"/>
-      <c r="W72" s="23"/>
-      <c r="X72" s="23"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
     </row>
     <row r="73" ht="25.05" customHeight="1" spans="2:24">
       <c r="B73" s="6" t="str">
@@ -10494,10 +10482,10 @@
       </c>
       <c r="S84" s="16"/>
       <c r="T84" s="19"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="23"/>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="19"/>
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
     </row>
     <row r="85" ht="25.05" customHeight="1" spans="2:24">
       <c r="B85" s="6" t="str">
@@ -11064,35 +11052,35 @@
       </c>
     </row>
     <row r="91" ht="25.05" customHeight="1" spans="2:24">
-      <c r="B91" s="68" t="str">
+      <c r="B91" s="64" t="str">
         <f>Sheet2!A78</f>
         <v>分公司</v>
       </c>
-      <c r="C91" s="68" t="str">
+      <c r="C91" s="64" t="str">
         <f>Sheet2!B78</f>
         <v>市场中性</v>
       </c>
-      <c r="D91" s="68" t="str">
+      <c r="D91" s="64" t="str">
         <f>Sheet2!C78</f>
         <v>SATQ88</v>
       </c>
-      <c r="E91" s="68" t="str">
+      <c r="E91" s="64" t="str">
         <f>Sheet2!D78</f>
         <v>量派对冲56号2期</v>
       </c>
-      <c r="F91" s="68" t="str">
+      <c r="F91" s="64" t="str">
         <f>Sheet2!E78</f>
         <v>2025-03-14</v>
       </c>
-      <c r="G91" s="68" t="str">
+      <c r="G91" s="64" t="str">
         <f>Sheet2!F78</f>
         <v>2025-04-30</v>
       </c>
-      <c r="H91" s="68">
+      <c r="H91" s="64">
         <f>Sheet2!G78</f>
         <v>0.9997</v>
       </c>
-      <c r="I91" s="68">
+      <c r="I91" s="64">
         <f>Sheet2!H78</f>
         <v>0.9997</v>
       </c>
@@ -11134,10 +11122,10 @@
       </c>
       <c r="S91" s="16"/>
       <c r="T91" s="16"/>
-      <c r="U91" s="31"/>
-      <c r="V91" s="31"/>
-      <c r="W91" s="31"/>
-      <c r="X91" s="31"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
     </row>
     <row r="92" ht="25.05" customHeight="1" spans="2:24">
       <c r="B92" s="6" t="str">
@@ -11310,19 +11298,19 @@
         <f>IF(Sheet2!S80="","",Sheet2!S80)</f>
         <v/>
       </c>
-      <c r="U93" s="22" t="str">
+      <c r="U93" s="16" t="str">
         <f>IF(Sheet2!R80="","",Sheet2!R80)</f>
         <v/>
       </c>
-      <c r="V93" s="22" t="str">
+      <c r="V93" s="16" t="str">
         <f>IF(Sheet2!Q80="","",Sheet2!Q80)</f>
         <v/>
       </c>
-      <c r="W93" s="22" t="str">
+      <c r="W93" s="16" t="str">
         <f>IF(Sheet2!P80="","",Sheet2!P80)</f>
         <v/>
       </c>
-      <c r="X93" s="22" t="str">
+      <c r="X93" s="16" t="str">
         <f>IF(Sheet2!O80="","",Sheet2!O80)</f>
         <v/>
       </c>
@@ -11592,19 +11580,19 @@
         <f>IF(Sheet2!S83="","",Sheet2!S83)</f>
         <v/>
       </c>
-      <c r="U96" s="22" t="str">
+      <c r="U96" s="16" t="str">
         <f>IF(Sheet2!R83="","",Sheet2!R83)</f>
         <v/>
       </c>
-      <c r="V96" s="22" t="str">
+      <c r="V96" s="16" t="str">
         <f>IF(Sheet2!Q83="","",Sheet2!Q83)</f>
         <v/>
       </c>
-      <c r="W96" s="22" t="str">
+      <c r="W96" s="16" t="str">
         <f>IF(Sheet2!P83="","",Sheet2!P83)</f>
         <v/>
       </c>
-      <c r="X96" s="22" t="str">
+      <c r="X96" s="16" t="str">
         <f>IF(Sheet2!O83="","",Sheet2!O83)</f>
         <v/>
       </c>
@@ -11968,19 +11956,19 @@
         <f>IF(Sheet2!S87="","",Sheet2!S87)</f>
         <v>0.0041</v>
       </c>
-      <c r="U100" s="22">
+      <c r="U100" s="16">
         <f>IF(Sheet2!R87="","",Sheet2!R87)</f>
         <v>-0.0285</v>
       </c>
-      <c r="V100" s="22" t="str">
+      <c r="V100" s="16" t="str">
         <f>IF(Sheet2!Q87="","",Sheet2!Q87)</f>
         <v/>
       </c>
-      <c r="W100" s="22" t="str">
+      <c r="W100" s="16" t="str">
         <f>IF(Sheet2!P87="","",Sheet2!P87)</f>
         <v/>
       </c>
-      <c r="X100" s="22" t="str">
+      <c r="X100" s="16" t="str">
         <f>IF(Sheet2!O87="","",Sheet2!O87)</f>
         <v/>
       </c>
@@ -12344,25 +12332,25 @@
         <f>IF(Sheet2!S91="","",Sheet2!S91)</f>
         <v>-0.0483</v>
       </c>
-      <c r="U104" s="22">
+      <c r="U104" s="16">
         <f>IF(Sheet2!R91="","",Sheet2!R91)</f>
         <v>0.046</v>
       </c>
-      <c r="V104" s="22" t="str">
+      <c r="V104" s="16" t="str">
         <f>IF(Sheet2!Q91="","",Sheet2!Q91)</f>
         <v/>
       </c>
-      <c r="W104" s="22" t="str">
+      <c r="W104" s="16" t="str">
         <f>IF(Sheet2!P91="","",Sheet2!P91)</f>
         <v/>
       </c>
-      <c r="X104" s="22" t="str">
+      <c r="X104" s="16" t="str">
         <f>IF(Sheet2!O91="","",Sheet2!O91)</f>
         <v/>
       </c>
     </row>
     <row r="105" ht="25.05" customHeight="1" spans="2:2">
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="34" t="s">
         <v>77</v>
       </c>
     </row>

--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="huofuniu" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -689,6 +690,2299 @@
       <c r="K3" t="n">
         <v>1.47</v>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-0.20%</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>14.03%</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>94.04%</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>29.34%</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>60.94%</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>33.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>千衍六贞1号B类</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1.4831</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.4831</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.4831</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>48.28%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>25.32%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-4.60%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>8.59%</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2.02%</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>22.79%</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>18.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>细水居20号</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2.1711</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>117.11%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>30.47%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-15.64%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>19.60%</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3.11%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>26.96%</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>47.22%</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>12.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>东海龙王一号</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2018-06-08</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2.004</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.277</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.4649</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>346.49%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23.33%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-17.79%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>15.54%</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>9.16%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>111.04%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-4.97%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>12.49%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>15.91%</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>37.67%</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>4.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>黑翼CTA28号1期</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.252</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.252</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.252</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>25.20%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>15.16%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-4.00%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>7.32%</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>17.50%</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>6.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>众壹资产量合兴成一号</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2018-05-18</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.289</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.6396</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>63.96%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>7.12%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-15.88%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>10.87%</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>3.89%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>21.83%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>12.49%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>12.42%</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>9.71%</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>5.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>弘源多元化CTA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-09-11</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.666</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.666</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.666</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>66.60%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>11.05%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-7.73%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>12.84%</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>14.08%</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>15.13%</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>简雍斯量先锋</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9858</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9858</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9858</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-1.42%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-1.72%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-6.22%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>5.83%</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2.21%</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-3.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>闻道稳健2号</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>18.50%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>6.38%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-6.31%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-2.80%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2.16%</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>18.73%</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>旭诺CTA三号</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2019-06-06</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3.5528</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.5528</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.5528</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>255.32%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>22.94%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-18.17%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>19.56%</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-5.85%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>81.46%</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>22.29%</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-7.58%</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>17.80%</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>63.81%</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-4.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>宏锡量化CTA7号</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2017-02-17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3.066</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>206.60%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>14.20%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-16.54%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>14.25%</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>12.92%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>32.60%</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>-0.76%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>19.91%</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2.66%</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>11.35%</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>10.43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>鼎一兑弈量化</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2019-03-01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.1777</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>117.77%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12.92%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-9.99%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>11.36%</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>8.90%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>26.09%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>12.69%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>14.13%</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>8.23%</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>5.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>均成CTA1号</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2017-03-03</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.606</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8.0052</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>700.52%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>28.10%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-22.47%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>16.84%</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>47.98%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>91.33%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>8.12%</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>27.08%</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>14.64%</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>7.02%</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>4.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>会世元丰CTA1号</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2018-08-03</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2.1517</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.1517</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.1517</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>115.17%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>11.60%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-17.56%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>8.43%</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>13.80%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>30.16%</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>9.05%</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>6.16%</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>18.49%</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>7.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>千象15期</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2017-05-19</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.2297</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>122.97%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>10.29%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-12.90%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>9.58%</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2.87%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>29.78%</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>9.91%</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>3.86%</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-0.74%</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>17.68%</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>9.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>安贤CTA量化一号</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-01-06</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1.359</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.4299</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.4376</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>43.75%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>15.29%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-6.09%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>6.81%</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>13.14%</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>25.46%</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>量派CTA七号</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-01-06</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1.6085</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.6085</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.6085</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>60.85%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>20.48%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-3.17%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>6.61%</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>21.81%</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>30.80%</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>铭跃行远均衡专享十三号</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1.0545</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.0545</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.0545</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>5.46%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5.70%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-2.89%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>5.93%</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>4.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>文谛量化优选三号</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2019-02-15</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.203</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.2649</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>126.49%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>13.53%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-14.05%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>10.78%</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>14.60%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>38.66%</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>5.41%</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>18.26%</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>-8.86%</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>21.80%</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>3.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>远澜云杉</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2015-11-06</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2.946</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.946</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.946</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>194.60%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>11.75%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-14.59%</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>9.87%</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>12.49%</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>32.89%</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>5.33%</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2.38%</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>3.95%</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>3.19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>瑞达期货-瑞智无忧共赢7号</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2019-01-31</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1.0533</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.3622</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.9223</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>192.23%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>17.98%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-16.87%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>10.62%</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>13.95%</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>90.89%</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>5.43%</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>-4.01%</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-4.31%</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>27.98%</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>8.39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>旌安1号</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2018-06-29</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9986</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.4521</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.5663</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>256.63%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>19.68%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-6.05%</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>22.96%</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>52.52%</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>21.95%</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>4.14%</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>3.93%</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>10.95%</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>金和和善对冲5号</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1.151</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.3072</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.3103</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>31.02%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>12.79%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-0.90%</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>10.26%</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>26.81%</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>星恒哲萌1号</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1.1238</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.5871</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.7047</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>70.47%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>13.28%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-13.34%</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>9.66%</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>12.94%</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>10.97%</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>20.35%</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>12.13%</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.80%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>博普安兴私享一号B类</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1.0411</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.0411</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.0411</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>4.11%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>3.05%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-2.89%</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>3.54%</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>1.39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>唯瞻五号</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.2071</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.2085</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20.85%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>10.72%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-4.54%</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>7.52%</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>17.82%</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>远澜翠柏1号</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2017-05-12</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.101</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.1466</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>114.66%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>9.75%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-11.56%</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>10.94%</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>10.93%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>43.99%</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>4.69%</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2.85%</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>16.53%</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>-7.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>爱凡哲睿哲</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.7458</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>74.58%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>11.27%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-3.79%</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>4.48%</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>8.80%</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>15.74%</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>9.35%</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>5.80%</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>15.61%</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>基金产品</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>净值起始日期</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>净值结束日期</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>单位净值</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>累计净值</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>复权净值</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>总收益</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>年化收益</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>最大回撤</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>年化波动率</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>夏普比</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>2019收益</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>2020收益</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>2021收益</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>2022收益</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>2023收益</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>2024收益</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>2025收益</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t>7月收益</t>
+        </is>
+      </c>
+      <c r="T1" s="3" t="inlineStr">
+        <is>
+          <t>近一周收益</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>草本优益1号</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2018-09-07</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1.226</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.788</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.9104</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>591.04%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>32.41%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-12.33%</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>19.80%</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>132.03%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>16.65%</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>10.65%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>23.50%</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>12.46%</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>17.90%</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>22.11%</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-0.57%</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>草本致远1号</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-11-06</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.1437</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>514.37%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>46.93%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-26.67%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>30.48%</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1.47</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
@@ -718,6 +3012,16 @@
       <c r="R3" t="inlineStr">
         <is>
           <t>33.66%</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>11.05%</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>11.55%</t>
         </is>
       </c>
     </row>
@@ -788,6 +3092,16 @@
           <t>18.37%</t>
         </is>
       </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>3.72%</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2.42%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -856,6 +3170,16 @@
           <t>12.66%</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>3.80%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -938,6 +3262,16 @@
       <c r="R6" t="inlineStr">
         <is>
           <t>4.05%</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1.16%</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-0.45%</t>
         </is>
       </c>
     </row>
@@ -1008,6 +3342,16 @@
           <t>6.55%</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-0.24%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1092,6 +3436,16 @@
           <t>5.57%</t>
         </is>
       </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>7.06%</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1170,6 +3524,16 @@
       <c r="R9" t="inlineStr">
         <is>
           <t>0.91%</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>4.32%</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2.97%</t>
         </is>
       </c>
     </row>
@@ -1236,6 +3600,16 @@
           <t>-3.55%</t>
         </is>
       </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-1.39%</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1304,6 +3678,16 @@
           <t>0.51%</t>
         </is>
       </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>1.02%</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1386,6 +3770,16 @@
       <c r="R12" t="inlineStr">
         <is>
           <t>-4.64%</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>7.55%</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>6.08%</t>
         </is>
       </c>
     </row>
@@ -1468,6 +3862,16 @@
           <t>10.43%</t>
         </is>
       </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>4.37%</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>3.08%</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1552,6 +3956,16 @@
           <t>5.63%</t>
         </is>
       </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2.55%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1636,6 +4050,16 @@
           <t>4.50%</t>
         </is>
       </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>-1.44%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1718,6 +4142,16 @@
       <c r="R16" t="inlineStr">
         <is>
           <t>7.71%</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2.50%</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2.18%</t>
         </is>
       </c>
     </row>
@@ -1798,6 +4232,16 @@
       <c r="R17" t="inlineStr">
         <is>
           <t>9.00%</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>4.32%</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2.86%</t>
         </is>
       </c>
     </row>
@@ -1868,6 +4312,16 @@
           <t>1.27%</t>
         </is>
       </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>-1.96%</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>-1.09%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1934,6 +4388,16 @@
       <c r="R19" t="inlineStr">
         <is>
           <t>0.95%</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>-2.45%</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
         </is>
       </c>
     </row>
@@ -2000,6 +4464,16 @@
           <t>4.58%</t>
         </is>
       </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>1.43%</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>-0.58%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2084,6 +4558,16 @@
           <t>3.00%</t>
         </is>
       </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>-0.48%</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2168,6 +4652,16 @@
           <t>3.19%</t>
         </is>
       </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2252,6 +4746,16 @@
           <t>8.39%</t>
         </is>
       </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>-1.90%</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2334,6 +4838,16 @@
       <c r="R24" t="inlineStr">
         <is>
           <t>1.52%</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>-3.61%</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>-2.73%</t>
         </is>
       </c>
     </row>
@@ -2404,6 +4918,16 @@
           <t>1.32%</t>
         </is>
       </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>0.11%</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2478,6 +5002,16 @@
       <c r="R26" t="inlineStr">
         <is>
           <t>0.80%</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>-1.91%</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>-1.31%</t>
         </is>
       </c>
     </row>
@@ -2544,6 +5078,16 @@
           <t>1.39%</t>
         </is>
       </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0.14%</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.07%</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2612,6 +5156,16 @@
           <t>1.55%</t>
         </is>
       </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>3.41%</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2.04%</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2696,6 +5250,16 @@
           <t>-7.01%</t>
         </is>
       </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>-1.52%</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>-0.27%</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2774,6 +5338,16 @@
       <c r="R30" t="inlineStr">
         <is>
           <t>3.65%</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0.00%</t>
         </is>
       </c>
     </row>

--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -1197,26 +1197,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.223</v>
+        <v>1.222</v>
       </c>
       <c r="E2" t="n">
-        <v>3.785</v>
+        <v>3.784</v>
       </c>
       <c r="F2" t="n">
-        <v>6.8935</v>
+        <v>6.8878</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>589.35%</t>
+          <t>588.78%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>32.26%</t>
+          <t>32.15%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>19.77%</t>
+          <t>19.74%</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -1264,17 +1264,17 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>21.81%</t>
+          <t>21.71%</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.24%</t>
+          <t>-0.33%</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.24%</t>
+          <t>-0.08%</t>
         </is>
       </c>
     </row>
@@ -1291,26 +1291,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.371</v>
+        <v>1.431</v>
       </c>
       <c r="E3" t="n">
-        <v>3.344</v>
+        <v>3.404</v>
       </c>
       <c r="F3" t="n">
-        <v>5.6266</v>
+        <v>5.8728</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>462.66%</t>
+          <t>487.28%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>44.01%</t>
+          <t>45.09%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1320,11 +1320,11 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>30.72%</t>
+          <t>30.70%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>22.41%</t>
+          <t>27.77%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-8.42%</t>
+          <t>-4.41%</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-8.42%</t>
+          <t>4.38%</t>
         </is>
       </c>
     </row>
@@ -1381,26 +1381,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1.4438</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.4438</v>
-      </c>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>1.4438</v>
+        <v>1.4592</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>44.35%</t>
+          <t>45.89%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23.13%</t>
+          <t>23.59%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1410,11 +1406,11 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>8.85%</t>
+          <t>8.82%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -1432,17 +1428,17 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>15.24%</t>
+          <t>16.47%</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-2.65%</t>
+          <t>-1.61%</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-2.65%</t>
+          <t>1.07%</t>
         </is>
       </c>
     </row>
@@ -1459,22 +1455,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>2.0593</v>
+        <v>2.075</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>105.93%</t>
+          <t>107.50%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>27.91%</t>
+          <t>28.04%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1484,11 +1480,11 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>19.82%</t>
+          <t>19.75%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -1510,17 +1506,17 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>6.85%</t>
+          <t>7.67%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-5.15%</t>
+          <t>-4.43%</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-5.15%</t>
+          <t>0.76%</t>
         </is>
       </c>
     </row>
@@ -1537,26 +1533,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.028</v>
+        <v>2.048</v>
       </c>
       <c r="E6" t="n">
-        <v>3.301</v>
+        <v>3.321</v>
       </c>
       <c r="F6" t="n">
-        <v>4.5184</v>
+        <v>4.5629</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>351.84%</t>
+          <t>356.29%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>23.47%</t>
+          <t>23.57%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1566,11 +1562,11 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>15.52%</t>
+          <t>15.50%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1604,17 +1600,17 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>5.30%</t>
+          <t>6.33%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>2.19%</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>0.98%</t>
         </is>
       </c>
     </row>
@@ -1631,22 +1627,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>2.1019</v>
+        <v>2.1185</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>110.21%</t>
+          <t>111.87%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11.56%</t>
+          <t>11.66%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1660,7 +1656,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1694,17 +1690,17 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>3.92%</t>
+          <t>4.74%</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.28%</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.28%</t>
+          <t>0.79%</t>
         </is>
       </c>
     </row>
@@ -1721,26 +1717,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.257</v>
+        <v>1.247</v>
       </c>
       <c r="E8" t="n">
-        <v>1.529</v>
+        <v>1.519</v>
       </c>
       <c r="F8" t="n">
-        <v>1.5989</v>
+        <v>1.5862</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>59.89%</t>
+          <t>58.62%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6.72%</t>
+          <t>6.59%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1750,11 +1746,11 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>10.89%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1788,17 +1784,17 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2.95%</t>
+          <t>2.13%</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-2.48%</t>
+          <t>-3.26%</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-2.48%</t>
+          <t>-0.79%</t>
         </is>
       </c>
     </row>
@@ -1815,26 +1811,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.625</v>
+        <v>1.637</v>
       </c>
       <c r="E9" t="n">
-        <v>1.625</v>
+        <v>1.637</v>
       </c>
       <c r="F9" t="n">
-        <v>1.625</v>
+        <v>1.637</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>63.70%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10.44%</t>
+          <t>10.56%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1844,11 +1840,11 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>7.67%</t>
+          <t>7.66%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
@@ -1878,17 +1874,17 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-1.57%</t>
+          <t>-0.85%</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-2.46%</t>
+          <t>-1.74%</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-2.46%</t>
+          <t>0.74%</t>
         </is>
       </c>
     </row>
@@ -1905,26 +1901,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9851</v>
+        <v>0.9857</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9851</v>
+        <v>0.9857</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9851</v>
+        <v>0.9857</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-1.49%</t>
+          <t>-1.43%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-1.76%</t>
+          <t>-1.66%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1934,11 +1930,11 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5.76%</t>
+          <t>5.70%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-0.65</v>
+        <v>-0.64</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1952,17 +1948,17 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-3.62%</t>
+          <t>-3.56%</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.07%</t>
+          <t>-0.01%</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.07%</t>
+          <t>0.06%</t>
         </is>
       </c>
     </row>
@@ -1979,22 +1975,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1.178</v>
+        <v>1.184</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17.80%</t>
+          <t>18.40%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6.11%</t>
+          <t>6.26%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2004,11 +2000,11 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7.58%</t>
+          <t>7.55%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -2030,17 +2026,17 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>-0.08%</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.59%</t>
-        </is>
-      </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.59%</t>
+          <t>0.51%</t>
         </is>
       </c>
     </row>
@@ -2057,26 +2053,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.2999</v>
+        <v>3.3289</v>
       </c>
       <c r="E12" t="n">
-        <v>3.2999</v>
+        <v>3.3289</v>
       </c>
       <c r="F12" t="n">
-        <v>3.2999</v>
+        <v>3.3289</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>230.02%</t>
+          <t>232.92%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21.39%</t>
+          <t>21.49%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2086,11 +2082,11 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>19.77%</t>
+          <t>19.74%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -2124,17 +2120,17 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-11.43%</t>
+          <t>-10.65%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-7.12%</t>
+          <t>-6.30%</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-7.12%</t>
+          <t>0.88%</t>
         </is>
       </c>
     </row>
@@ -2151,22 +2147,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>3.0083</v>
+        <v>3.0283</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>200.83%</t>
+          <t>202.83%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>13.91%</t>
+          <t>13.96%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2176,7 +2172,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>14.26%</t>
+          <t>14.24%</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -2214,17 +2210,17 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>8.36%</t>
+          <t>9.08%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-1.88%</t>
+          <t>-1.23%</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-1.88%</t>
+          <t>0.66%</t>
         </is>
       </c>
     </row>
@@ -2241,26 +2237,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1.134</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.885</v>
-      </c>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>2.1951</v>
+        <v>2.1854</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>119.51%</t>
+          <t>118.54%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13.02%</t>
+          <t>12.90%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2270,11 +2262,11 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>11.34%</t>
+          <t>11.33%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -2308,17 +2300,17 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>6.48%</t>
+          <t>6.01%</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.80%</t>
+          <t>0.35%</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.80%</t>
+          <t>-0.44%</t>
         </is>
       </c>
     </row>
@@ -2335,26 +2327,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7.064</v>
+        <v>6.996</v>
       </c>
       <c r="E15" t="n">
-        <v>7.709</v>
+        <v>7.641</v>
       </c>
       <c r="F15" t="n">
-        <v>8.1236</v>
+        <v>8.045400000000001</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>712.36%</t>
+          <t>704.54%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>28.25%</t>
+          <t>28.03%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2364,11 +2356,11 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>16.82%</t>
+          <t>16.81%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -2402,17 +2394,17 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>6.05%</t>
+          <t>5.03%</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1.48%</t>
+          <t>0.50%</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>1.48%</t>
+          <t>-0.96%</t>
         </is>
       </c>
     </row>
@@ -2429,26 +2421,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.1134</v>
+        <v>2.1119</v>
       </c>
       <c r="E16" t="n">
-        <v>2.1134</v>
+        <v>2.1119</v>
       </c>
       <c r="F16" t="n">
-        <v>2.1134</v>
+        <v>2.1119</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>111.34%</t>
+          <t>111.19%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11.28%</t>
+          <t>11.24%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2458,11 +2450,11 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>8.45%</t>
+          <t>8.44%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -2496,17 +2488,17 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>5.80%</t>
+          <t>5.72%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-1.78%</t>
+          <t>-1.85%</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-1.78%</t>
+          <t>-0.07%</t>
         </is>
       </c>
     </row>
@@ -2523,22 +2515,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>2.1767</v>
+        <v>2.1853</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>117.67%</t>
+          <t>118.53%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9.94%</t>
+          <t>9.97%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2548,7 +2540,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>9.61%</t>
+          <t>9.60%</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -2586,17 +2578,17 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>6.41%</t>
+          <t>6.83%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-2.38%</t>
+          <t>-1.99%</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-2.38%</t>
+          <t>0.40%</t>
         </is>
       </c>
     </row>
@@ -2613,26 +2605,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.3516</v>
+        <v>1.3469</v>
       </c>
       <c r="E18" t="n">
-        <v>1.4225</v>
+        <v>1.4178</v>
       </c>
       <c r="F18" t="n">
-        <v>1.4298</v>
+        <v>1.4248</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>42.97%</t>
+          <t>42.47%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14.92%</t>
+          <t>14.65%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2642,11 +2634,11 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6.80%</t>
+          <t>6.79%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -2664,17 +2656,17 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>0.37%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-0.54%</t>
+          <t>-0.89%</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-0.54%</t>
+          <t>-0.35%</t>
         </is>
       </c>
     </row>
@@ -2691,26 +2683,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.63</v>
-      </c>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>1.63</v>
+        <v>1.6321</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>63.00%</t>
+          <t>63.21%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>20.94%</t>
+          <t>20.83%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2720,7 +2708,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>6.62%</t>
+          <t>6.59%</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -2742,17 +2730,17 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2.30%</t>
+          <t>2.44%</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>1.47%</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>0.13%</t>
         </is>
       </c>
     </row>
@@ -2769,26 +2757,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.0428</v>
+        <v>1.0501</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0428</v>
+        <v>1.0501</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0428</v>
+        <v>1.0501</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4.29%</t>
+          <t>5.02%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.39%</t>
+          <t>5.03%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2798,11 +2786,11 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5.99%</t>
+          <t>5.97%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -2816,17 +2804,17 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>3.42%</t>
+          <t>4.15%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-1.11%</t>
+          <t>-0.42%</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-1.11%</t>
+          <t>0.70%</t>
         </is>
       </c>
     </row>
@@ -2843,26 +2831,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.856</v>
+        <v>1.853</v>
       </c>
       <c r="E21" t="n">
-        <v>2.206</v>
+        <v>2.203</v>
       </c>
       <c r="F21" t="n">
-        <v>2.2686</v>
+        <v>2.2649</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>126.86%</t>
+          <t>126.49%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>13.51%</t>
+          <t>13.44%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2872,11 +2860,11 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10.76%</t>
+          <t>10.75%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2910,17 +2898,17 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>3.17%</t>
+          <t>3.00%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>-0.16%</t>
         </is>
       </c>
     </row>
@@ -2937,26 +2925,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.838</v>
+        <v>2.817</v>
       </c>
       <c r="E22" t="n">
-        <v>2.838</v>
+        <v>2.817</v>
       </c>
       <c r="F22" t="n">
-        <v>2.838</v>
+        <v>2.817</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>183.80%</t>
+          <t>181.70%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11.30%</t>
+          <t>11.19%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2966,11 +2954,11 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>9.94%</t>
+          <t>9.93%</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -3004,17 +2992,17 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-0.60%</t>
+          <t>-1.33%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-3.67%</t>
+          <t>-4.38%</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-3.67%</t>
+          <t>-0.74%</t>
         </is>
       </c>
     </row>
@@ -3031,22 +3019,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>2.9524</v>
+        <v>2.9643</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>195.24%</t>
+          <t>196.43%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>18.11%</t>
+          <t>18.13%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3056,7 +3044,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10.66%</t>
+          <t>10.65%</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -3094,17 +3082,17 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>9.51%</t>
+          <t>9.95%</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.59%</t>
+          <t>0.99%</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.59%</t>
+          <t>0.33%</t>
         </is>
       </c>
     </row>
@@ -3121,17 +3109,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>3.6767</v>
+        <v>3.6883</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>267.67%</t>
+          <t>268.83%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3146,7 +3134,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>7.55%</t>
+          <t>7.54%</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -3184,17 +3172,17 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>3.17%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>1.45%</t>
+          <t>1.77%</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>1.45%</t>
+          <t>0.32%</t>
         </is>
       </c>
     </row>
@@ -3211,26 +3199,26 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.1513</v>
+        <v>1.1514</v>
       </c>
       <c r="E25" t="n">
-        <v>1.3075</v>
+        <v>1.3076</v>
       </c>
       <c r="F25" t="n">
-        <v>1.3106</v>
+        <v>1.3107</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>31.05%</t>
+          <t>31.06%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>12.69%</t>
+          <t>12.58%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3240,11 +3228,11 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10.21%</t>
+          <t>10.17%</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -3267,12 +3255,12 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.01%</t>
         </is>
       </c>
     </row>
@@ -3284,45 +3272,41 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021-04-16</t>
+          <t>2021-04-14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1.1351</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1.5984</v>
-      </c>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>1.7219</v>
+        <v>1.7313</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>72.19%</t>
+          <t>73.13%</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>13.48%</t>
+          <t>13.55%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-13.34%</t>
+          <t>-14.01%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>9.64%</t>
+          <t>9.28%</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -3343,22 +3327,22 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>12.13%</t>
+          <t>12.07%</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1.82%</t>
+          <t>2.41%</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>1.01%</t>
+          <t>0.96%</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>1.01%</t>
+          <t>0.09%</t>
         </is>
       </c>
     </row>
@@ -3375,26 +3359,26 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.04</v>
+        <v>1.0403</v>
       </c>
       <c r="E27" t="n">
-        <v>1.04</v>
+        <v>1.0403</v>
       </c>
       <c r="F27" t="n">
-        <v>1.04</v>
+        <v>1.0403</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4.00%</t>
+          <t>4.03%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2.92%</t>
+          <t>2.90%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3404,7 +3388,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>3.52%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -3422,17 +3406,17 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>1.29%</t>
+          <t>1.31%</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.11%</t>
+          <t>-0.08%</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.11%</t>
+          <t>0.03%</t>
         </is>
       </c>
     </row>
@@ -3449,26 +3433,26 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9825</v>
+        <v>0.9883</v>
       </c>
       <c r="E28" t="n">
-        <v>1.1896</v>
+        <v>1.1967</v>
       </c>
       <c r="F28" t="n">
-        <v>1.1873</v>
+        <v>1.1959</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18.73%</t>
+          <t>19.59%</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>9.56%</t>
+          <t>9.88%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3478,11 +3462,11 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>7.62%</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -3500,17 +3484,17 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-0.23%</t>
+          <t>0.50%</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-1.75%</t>
+          <t>-1.04%</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-1.75%</t>
+          <t>0.72%</t>
         </is>
       </c>
     </row>
@@ -3527,26 +3511,26 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.097</v>
+        <v>1.095</v>
       </c>
       <c r="E29" t="n">
-        <v>2.097</v>
+        <v>2.095</v>
       </c>
       <c r="F29" t="n">
-        <v>2.1388</v>
+        <v>2.1349</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>113.88%</t>
+          <t>113.49%</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>9.63%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3556,7 +3540,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>10.91%</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -3594,17 +3578,17 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-7.35%</t>
+          <t>-7.52%</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.36%</t>
+          <t>-0.55%</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.36%</t>
+          <t>-0.18%</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3605,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -3640,7 +3624,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>11.29%</t>
+          <t>11.24%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3654,7 +3638,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
@@ -3694,7 +3678,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>

--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -1173,26 +1173,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.196</v>
+        <v>1.195</v>
       </c>
       <c r="E2" t="n">
-        <v>3.758</v>
+        <v>3.757</v>
       </c>
       <c r="F2" t="n">
-        <v>6.7413</v>
+        <v>6.7356</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>574.13%</t>
+          <t>573.56%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>31.14%</t>
+          <t>31.03%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1202,11 +1202,11 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>19.61%</t>
+          <t>19.58%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -1240,17 +1240,17 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>19.12%</t>
+          <t>19.02%</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-2.53%</t>
+          <t>-2.61%</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>-0.08%</t>
         </is>
       </c>
     </row>
@@ -1267,26 +1267,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.556</v>
+        <v>1.547</v>
       </c>
       <c r="E3" t="n">
-        <v>3.529</v>
+        <v>3.52</v>
       </c>
       <c r="F3" t="n">
-        <v>6.3858</v>
+        <v>6.3489</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>538.58%</t>
+          <t>534.89%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>46.32%</t>
+          <t>45.93%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>30.71%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
@@ -1330,17 +1330,17 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>38.93%</t>
+          <t>38.12%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.32%</t>
+          <t>-0.90%</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-1.58%</t>
+          <t>-0.58%</t>
         </is>
       </c>
     </row>
@@ -1357,22 +1357,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>2.6231</v>
+        <v>2.6416</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>162.36%</t>
+          <t>164.21%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>33.30%</t>
+          <t>33.36%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1382,11 +1382,11 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>14.63%</t>
+          <t>14.59%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -1408,17 +1408,17 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>29.72%</t>
+          <t>30.63%</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4.04%</t>
+          <t>4.77%</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>0.71%</t>
         </is>
       </c>
     </row>
@@ -1435,22 +1435,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.4315</v>
+        <v>1.4249</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>43.12%</t>
+          <t>42.46%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>20.78%</t>
+          <t>20.27%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1460,11 +1460,11 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>8.67%</t>
+          <t>8.64%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -1482,17 +1482,17 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>14.17%</t>
+          <t>13.65%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-1.96%</t>
+          <t>-2.41%</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.56%</t>
+          <t>-0.46%</t>
         </is>
       </c>
     </row>
@@ -1509,22 +1509,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>2.331</v>
+        <v>2.3378</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>133.10%</t>
+          <t>133.78%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>31.76%</t>
+          <t>31.66%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>19.57%</t>
+          <t>19.51%</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -1560,17 +1560,17 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>20.95%</t>
+          <t>21.31%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>8.27%</t>
+          <t>8.58%</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.29%</t>
         </is>
       </c>
     </row>
@@ -1587,26 +1587,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.058</v>
+        <v>2.038</v>
       </c>
       <c r="E7" t="n">
-        <v>3.331</v>
+        <v>3.311</v>
       </c>
       <c r="F7" t="n">
-        <v>4.5852</v>
+        <v>4.5407</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>358.52%</t>
+          <t>354.07%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23.24%</t>
+          <t>23.01%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1616,11 +1616,11 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>15.44%</t>
+          <t>15.42%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1654,17 +1654,17 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>6.85%</t>
+          <t>5.82%</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>-0.73%</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-1.77%</t>
+          <t>-0.97%</t>
         </is>
       </c>
     </row>
@@ -1681,22 +1681,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>2.1763</v>
+        <v>2.1893</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>117.65%</t>
+          <t>118.95%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11.89%</t>
+          <t>11.95%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1706,11 +1706,11 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7.41%</t>
+          <t>7.40%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1744,17 +1744,17 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>7.60%</t>
+          <t>8.24%</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2.01%</t>
+          <t>2.62%</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.30%</t>
+          <t>0.60%</t>
         </is>
       </c>
     </row>
@@ -1771,26 +1771,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.188</v>
+        <v>1.176</v>
       </c>
       <c r="E9" t="n">
-        <v>1.46</v>
+        <v>1.448</v>
       </c>
       <c r="F9" t="n">
-        <v>1.5111</v>
+        <v>1.4959</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>51.11%</t>
+          <t>49.59%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.78%</t>
+          <t>5.62%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1838,17 +1838,17 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-2.70%</t>
+          <t>-3.68%</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-4.66%</t>
+          <t>-5.62%</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-2.55%</t>
+          <t>-1.01%</t>
         </is>
       </c>
     </row>
@@ -1865,26 +1865,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.605</v>
+        <v>1.61</v>
       </c>
       <c r="E10" t="n">
-        <v>1.605</v>
+        <v>1.61</v>
       </c>
       <c r="F10" t="n">
-        <v>1.605</v>
+        <v>1.61</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>60.50%</t>
+          <t>61.00%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9.87%</t>
+          <t>9.90%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>7.63%</t>
+          <t>7.61%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-2.79%</t>
+          <t>-2.48%</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-1.89%</t>
+          <t>-1.59%</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-1.47%</t>
+          <t>0.31%</t>
         </is>
       </c>
     </row>
@@ -1955,22 +1955,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1.201</v>
+        <v>1.189</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20.10%</t>
+          <t>18.90%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6.53%</t>
+          <t>6.12%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -2006,17 +2006,17 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1.87%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>1.01%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-1.15%</t>
+          <t>-1.00%</t>
         </is>
       </c>
     </row>
@@ -2033,26 +2033,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.5758</v>
+        <v>3.4502</v>
       </c>
       <c r="E12" t="n">
-        <v>3.5758</v>
+        <v>3.4502</v>
       </c>
       <c r="F12" t="n">
-        <v>3.5758</v>
+        <v>3.4502</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>257.62%</t>
+          <t>245.05%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>22.44%</t>
+          <t>21.68%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2062,11 +2062,11 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>19.64%</t>
+          <t>19.68%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -2100,17 +2100,17 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-4.02%</t>
+          <t>-7.39%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5.03%</t>
+          <t>1.35%</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-2.41%</t>
+          <t>-3.51%</t>
         </is>
       </c>
     </row>
@@ -2127,22 +2127,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>3.123</v>
+        <v>3.1074</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>212.30%</t>
+          <t>210.74%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14.17%</t>
+          <t>14.07%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2152,11 +2152,11 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>14.20%</t>
+          <t>14.18%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -2190,17 +2190,17 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>12.49%</t>
+          <t>11.93%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>0.39%</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-2.31%</t>
+          <t>-0.50%</t>
         </is>
       </c>
     </row>
@@ -2217,22 +2217,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>2.2435</v>
+        <v>2.2513</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>124.35%</t>
+          <t>125.13%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13.11%</t>
+          <t>13.13%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>11.25%</t>
+          <t>11.24%</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -2280,17 +2280,17 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>8.82%</t>
+          <t>9.20%</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>1.13%</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>0.35%</t>
         </is>
       </c>
     </row>
@@ -2307,26 +2307,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7.049</v>
+        <v>6.958</v>
       </c>
       <c r="E15" t="n">
-        <v>7.694</v>
+        <v>7.603</v>
       </c>
       <c r="F15" t="n">
-        <v>8.106400000000001</v>
+        <v>8.0017</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>710.64%</t>
+          <t>700.17%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>27.72%</t>
+          <t>27.45%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -2374,111 +2374,107 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>5.82%</t>
+          <t>4.46%</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>-0.46%</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-2.33%</t>
+          <t>-1.29%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>会世元丰CTA1号</t>
+          <t>会世泰和CTA1号</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2018-08-03</t>
+          <t>2019-03-01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2.1311</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.1311</v>
-      </c>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>2.1311</v>
+        <v>2.3041</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>113.11%</t>
+          <t>130.41%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11.19%</t>
+          <t>13.53%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-17.56%</t>
+          <t>-16.99%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>8.41%</t>
+          <t>8.83%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>13.80%</t>
+          <t>18.54%</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>30.16%</t>
+          <t>30.61%</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>9.05%</t>
+          <t>9.31%</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>6.16%</t>
+          <t>6.42%</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-1.83%</t>
+          <t>-0.24%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>18.49%</t>
+          <t>19.11%</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>6.68%</t>
+          <t>7.67%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-0.45%</t>
+          <t>-0.34%</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-1.34%</t>
+          <t>-0.10%</t>
         </is>
       </c>
     </row>
@@ -2495,22 +2491,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>2.0947</v>
+        <v>2.09</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>109.47%</t>
+          <t>109.00%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9.27%</t>
+          <t>9.22%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2520,11 +2516,11 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>9.58%</t>
+          <t>9.57%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -2558,17 +2554,17 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>2.17%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-4.47%</t>
+          <t>-4.69%</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-1.54%</t>
+          <t>-0.22%</t>
         </is>
       </c>
     </row>
@@ -2585,26 +2581,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.3542</v>
+        <v>1.3701</v>
       </c>
       <c r="E18" t="n">
-        <v>1.4251</v>
+        <v>1.441</v>
       </c>
       <c r="F18" t="n">
-        <v>1.4326</v>
+        <v>1.4494</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>43.25%</t>
+          <t>44.93%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14.21%</t>
+          <t>14.60%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2618,7 +2614,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -2636,17 +2632,17 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.92%</t>
+          <t>2.10%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>1.91%</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>1.17%</t>
         </is>
       </c>
     </row>
@@ -2663,22 +2659,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>1.2337</v>
+        <v>1.2267</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>22.83%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>13.18%</t>
+          <t>12.65%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2688,11 +2684,11 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>8.34%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -2706,17 +2702,17 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2.11%</t>
+          <t>1.53%</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>-0.45%</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-1.29%</t>
+          <t>-0.57%</t>
         </is>
       </c>
     </row>
@@ -2733,26 +2729,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.0839</v>
+        <v>1.0868</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0839</v>
+        <v>1.0868</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0839</v>
+        <v>1.0868</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8.40%</t>
+          <t>8.69%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>7.52%</t>
+          <t>7.64%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2762,11 +2758,11 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5.98%</t>
+          <t>5.93%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -2780,17 +2776,17 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.79%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>2.08%</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-0.67%</t>
+          <t>0.27%</t>
         </is>
       </c>
     </row>
@@ -2807,21 +2803,21 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.886</v>
+        <v>1.891</v>
       </c>
       <c r="E21" t="n">
-        <v>2.236</v>
+        <v>2.241</v>
       </c>
       <c r="F21" t="n">
-        <v>2.3053</v>
+        <v>2.3114</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>130.53%</t>
+          <t>131.14%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2836,7 +2832,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10.69%</t>
+          <t>10.67%</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -2874,17 +2870,17 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>4.84%</t>
+          <t>5.12%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>1.61%</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-1.10%</t>
+          <t>0.26%</t>
         </is>
       </c>
     </row>
@@ -2901,26 +2897,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.821</v>
+        <v>2.843</v>
       </c>
       <c r="E22" t="n">
-        <v>2.821</v>
+        <v>2.843</v>
       </c>
       <c r="F22" t="n">
-        <v>2.821</v>
+        <v>2.843</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>182.10%</t>
+          <t>184.30%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11.07%</t>
+          <t>11.14%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2934,7 +2930,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2968,17 +2964,17 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-1.19%</t>
+          <t>-0.42%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.18%</t>
+          <t>0.60%</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-0.21%</t>
+          <t>0.78%</t>
         </is>
       </c>
     </row>
@@ -2995,22 +2991,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>1.4485</v>
+        <v>1.4622</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>44.86%</t>
+          <t>46.23%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>13.19%</t>
+          <t>13.45%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3020,11 +3016,11 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>7.71%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -3046,17 +3042,17 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>10.72%</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>3.14%</t>
+          <t>4.12%</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-1.27%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>
@@ -3073,22 +3069,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>3.1199</v>
+        <v>3.1714</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>211.99%</t>
+          <t>217.14%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>18.70%</t>
+          <t>18.93%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3102,7 +3098,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -3136,17 +3132,17 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>15.72%</t>
+          <t>17.63%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>4.33%</t>
+          <t>6.06%</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>-0.12%</t>
         </is>
       </c>
     </row>
@@ -3163,22 +3159,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>3.7689</v>
+        <v>3.7743</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>276.89%</t>
+          <t>277.43%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>19.74%</t>
+          <t>19.71%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3188,7 +3184,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>7.47%</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -3226,17 +3222,17 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>5.76%</t>
+          <t>5.91%</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>1.88%</t>
+          <t>2.03%</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.22%</t>
+          <t>0.14%</t>
         </is>
       </c>
     </row>
@@ -3253,26 +3249,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.1539</v>
+        <v>1.1525</v>
       </c>
       <c r="E26" t="n">
-        <v>1.3101</v>
+        <v>1.3087</v>
       </c>
       <c r="F26" t="n">
-        <v>1.3136</v>
+        <v>1.312</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>31.35%</t>
+          <t>31.19%</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>12.05%</t>
+          <t>11.89%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3282,11 +3278,11 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>9.89%</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -3304,17 +3300,17 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1.58%</t>
+          <t>1.45%</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>-0.12%</t>
         </is>
       </c>
     </row>
@@ -3331,22 +3327,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>1.7487</v>
+        <v>1.7502</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>74.87%</t>
+          <t>75.02%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>13.43%</t>
+          <t>13.39%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3356,7 +3352,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>9.16%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -3386,17 +3382,17 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>3.44%</t>
+          <t>3.53%</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.32%</t>
+          <t>0.41%</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-0.02%</t>
         </is>
       </c>
     </row>
@@ -3413,26 +3409,26 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.0462</v>
+        <v>1.0454</v>
       </c>
       <c r="E28" t="n">
-        <v>1.0462</v>
+        <v>1.0454</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0462</v>
+        <v>1.0454</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4.62%</t>
+          <t>4.54%</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.07%</t>
+          <t>2.97%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3442,11 +3438,11 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3.37%</t>
+          <t>3.35%</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -3460,17 +3456,17 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>1.81%</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.59%</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>-0.08%</t>
         </is>
       </c>
     </row>
@@ -3487,26 +3483,26 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9928</v>
+        <v>0.9965000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.1999</v>
+        <v>1.2036</v>
       </c>
       <c r="F29" t="n">
-        <v>1.1998</v>
+        <v>1.2042</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19.98%</t>
+          <t>20.42%</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9.47%</t>
+          <t>9.57%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3516,11 +3512,11 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>7.44%</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -3538,17 +3534,17 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.82%</t>
+          <t>1.19%</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.92%</t>
+          <t>1.29%</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>0.37%</t>
         </is>
       </c>
     </row>
@@ -3565,26 +3561,26 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.103</v>
+        <v>1.109</v>
       </c>
       <c r="E30" t="n">
-        <v>2.103</v>
+        <v>2.109</v>
       </c>
       <c r="F30" t="n">
-        <v>2.1505</v>
+        <v>2.1622</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>115.05%</t>
+          <t>116.22%</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>9.59%</t>
+          <t>9.64%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3594,11 +3590,11 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10.84%</t>
+          <t>10.83%</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -3632,17 +3628,17 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>-6.84%</t>
+          <t>-6.33%</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.83%</t>
+          <t>1.37%</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>0.54%</t>
         </is>
       </c>
     </row>
@@ -3659,26 +3655,26 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.118</v>
+        <v>1.121</v>
       </c>
       <c r="E31" t="n">
-        <v>1.629</v>
+        <v>1.632</v>
       </c>
       <c r="F31" t="n">
-        <v>1.7841</v>
+        <v>1.7889</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>78.41%</t>
+          <t>78.89%</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11.38%</t>
+          <t>11.40%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3688,11 +3684,11 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>4.43%</t>
+          <t>4.42%</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
@@ -3722,17 +3718,17 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>5.93%</t>
+          <t>6.21%</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>1.91%</t>
+          <t>2.19%</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.63%</t>
+          <t>0.27%</t>
         </is>
       </c>
     </row>

--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -1050,7 +1050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,6 +3729,170 @@
       <c r="T31" t="inlineStr">
         <is>
           <t>0.27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>铭杉量化稳健5号</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1.3557</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>35.56%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>6.24%</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-1.29%</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1.57%</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>7.93%</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>5.57%</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>4.31%</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>7.08%</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>4.01%</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0.97%</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>0.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>致同添利套利多策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>1.2654</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>26.53%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>6.93%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-1.40%</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2.21%</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>8.12%</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>4.43%</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>7.54%</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>0.14%</t>
         </is>
       </c>
     </row>

--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="S1" s="5" t="inlineStr">
         <is>
-          <t>10月收益</t>
+          <t>11月收益</t>
         </is>
       </c>
       <c r="T1" s="5" t="inlineStr">
@@ -558,26 +558,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.162</v>
+        <v>1.159</v>
       </c>
       <c r="E2" t="n">
-        <v>3.724</v>
+        <v>3.721</v>
       </c>
       <c r="F2" t="n">
-        <v>6.5496</v>
+        <v>6.5327</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>554.96%</t>
+          <t>553.27%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>30.05%</t>
+          <t>29.82%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -587,11 +587,11 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>19.48%</t>
+          <t>19.43%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -625,17 +625,17 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>15.74%</t>
+          <t>15.44%</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-1.44%</t>
+          <t>-0.26%</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.43%</t>
+          <t>0.61%</t>
         </is>
       </c>
     </row>
@@ -652,26 +652,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.527</v>
+        <v>1.552</v>
       </c>
       <c r="E3" t="n">
-        <v>3.5</v>
+        <v>3.525</v>
       </c>
       <c r="F3" t="n">
-        <v>6.2668</v>
+        <v>6.3694</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>526.68%</t>
+          <t>536.94%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>44.49%</t>
+          <t>44.55%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -681,11 +681,11 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>30.55%</t>
+          <t>30.45%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>36.34%</t>
+          <t>38.57%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-1.55%</t>
+          <t>1.64%</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.26%</t>
+          <t>2.65%</t>
         </is>
       </c>
     </row>
@@ -742,22 +742,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>2.7084</v>
+        <v>2.7319</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>170.89%</t>
+          <t>173.24%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>33.25%</t>
+          <t>33.16%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -767,11 +767,11 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>14.44%</t>
+          <t>14.36%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -793,17 +793,17 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>33.93%</t>
+          <t>35.10%</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2.12%</t>
+          <t>0.87%</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2.57%</t>
+          <t>0.57%</t>
         </is>
       </c>
     </row>
@@ -820,22 +820,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.4517</v>
+        <v>1.4769</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>45.14%</t>
+          <t>47.66%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>20.32%</t>
+          <t>20.92%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -845,11 +845,11 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>8.62%</t>
+          <t>8.55%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>2.12</v>
+        <v>2.21</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -867,17 +867,17 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>15.78%</t>
+          <t>17.79%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>1.74%</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.77%</t>
+          <t>0.84%</t>
         </is>
       </c>
     </row>
@@ -894,22 +894,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>2.5675</v>
+        <v>2.5828</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>156.75%</t>
+          <t>158.28%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>34.47%</t>
+          <t>34.25%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -919,11 +919,11 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>19.49%</t>
+          <t>19.45%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -945,17 +945,17 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>33.22%</t>
+          <t>34.02%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>5.82%</t>
+          <t>0.60%</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>5.32%</t>
+          <t>2.44%</t>
         </is>
       </c>
     </row>
@@ -972,26 +972,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.119</v>
+        <v>2.134</v>
       </c>
       <c r="E7" t="n">
-        <v>3.392</v>
+        <v>3.407</v>
       </c>
       <c r="F7" t="n">
-        <v>4.7211</v>
+        <v>4.7545</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>372.11%</t>
+          <t>375.45%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23.33%</t>
+          <t>23.31%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>15.36%</t>
+          <t>15.33%</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>10.02%</t>
+          <t>10.80%</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3.52%</t>
+          <t>0.71%</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.39%</t>
+          <t>1.62%</t>
         </is>
       </c>
     </row>
@@ -1066,22 +1066,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>2.2611</v>
+        <v>2.2622</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>126.13%</t>
+          <t>126.24%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12.29%</t>
+          <t>12.23%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1091,11 +1091,11 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7.36%</t>
+          <t>7.34%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1129,17 +1129,17 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>11.79%</t>
+          <t>11.85%</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2.27%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>-0.00%</t>
         </is>
       </c>
     </row>
@@ -1156,26 +1156,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.2</v>
+        <v>1.207</v>
       </c>
       <c r="E9" t="n">
-        <v>1.472</v>
+        <v>1.479</v>
       </c>
       <c r="F9" t="n">
-        <v>1.5264</v>
+        <v>1.5353</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>52.64%</t>
+          <t>53.53%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.83%</t>
+          <t>5.88%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10.83%</t>
+          <t>10.81%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-1.72%</t>
+          <t>-1.15%</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>0.58%</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.09%</t>
+          <t>0.67%</t>
         </is>
       </c>
     </row>
@@ -1250,26 +1250,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.614</v>
+        <v>1.574</v>
       </c>
       <c r="E10" t="n">
-        <v>1.614</v>
+        <v>1.574</v>
       </c>
       <c r="F10" t="n">
-        <v>1.614</v>
+        <v>1.574</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>61.40%</t>
+          <t>57.40%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9.76%</t>
+          <t>9.16%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1279,11 +1279,11 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>7.56%</t>
+          <t>7.64%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
@@ -1313,17 +1313,17 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-2.24%</t>
+          <t>-4.66%</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>-2.48%</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.19%</t>
         </is>
       </c>
     </row>
@@ -1340,22 +1340,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1.179</v>
+        <v>1.188</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17.90%</t>
+          <t>18.80%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.62%</t>
+          <t>5.81%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1365,11 +1365,11 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7.49%</t>
+          <t>7.45%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1391,17 +1391,17 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-2.16%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.25%</t>
         </is>
       </c>
     </row>
@@ -1418,26 +1418,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.3595</v>
+        <v>3.3186</v>
       </c>
       <c r="E12" t="n">
-        <v>3.3595</v>
+        <v>3.3186</v>
       </c>
       <c r="F12" t="n">
-        <v>3.3595</v>
+        <v>3.3186</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>235.98%</t>
+          <t>231.89%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>20.82%</t>
+          <t>20.45%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>19.70%</t>
+          <t>19.66%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1485,17 +1485,17 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-9.83%</t>
+          <t>-10.92%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-5.11%</t>
+          <t>-1.22%</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.44%</t>
+          <t>-1.71%</t>
         </is>
       </c>
     </row>
@@ -1512,22 +1512,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>3.24</v>
+        <v>3.2642</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>224.00%</t>
+          <t>226.42%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14.46%</t>
+          <t>14.49%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>14.16%</t>
+          <t>14.13%</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1575,17 +1575,17 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>16.70%</t>
+          <t>17.57%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2.31%</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.64%</t>
         </is>
       </c>
     </row>
@@ -1602,22 +1602,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>2.2545</v>
+        <v>2.2288</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>125.45%</t>
+          <t>122.88%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12.95%</t>
+          <t>12.68%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1627,11 +1627,11 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>11.16%</t>
+          <t>11.14%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1665,17 +1665,17 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>9.36%</t>
+          <t>8.11%</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.76%</t>
+          <t>-1.14%</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>-0.67%</t>
         </is>
       </c>
     </row>
@@ -1692,26 +1692,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7.249</v>
+        <v>7.316</v>
       </c>
       <c r="E15" t="n">
-        <v>7.894</v>
+        <v>7.961</v>
       </c>
       <c r="F15" t="n">
-        <v>8.336399999999999</v>
+        <v>8.413399999999999</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>733.64%</t>
+          <t>741.34%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>27.72%</t>
+          <t>27.71%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1721,11 +1721,11 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>16.66%</t>
+          <t>16.63%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1759,17 +1759,17 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>8.83%</t>
+          <t>9.83%</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>3.34%</t>
+          <t>0.92%</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>1.29%</t>
+          <t>1.26%</t>
         </is>
       </c>
     </row>
@@ -1786,22 +1786,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>2.3525</v>
+        <v>2.4089</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>135.25%</t>
+          <t>140.89%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>13.68%</t>
+          <t>13.99%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1811,11 +1811,11 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>8.86%</t>
+          <t>8.85%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1849,17 +1849,17 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>9.94%</t>
+          <t>12.57%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>1.22%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>1.35%</t>
         </is>
       </c>
     </row>
@@ -1876,22 +1876,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>2.1086</v>
+        <v>2.1609</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>110.86%</t>
+          <t>116.09%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9.22%</t>
+          <t>9.49%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1939,17 +1939,17 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>3.08%</t>
+          <t>5.64%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>2.48%</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-1.33%</t>
+          <t>1.01%</t>
         </is>
       </c>
     </row>
@@ -1966,26 +1966,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.413</v>
+        <v>1.4059</v>
       </c>
       <c r="E18" t="n">
-        <v>1.4839</v>
+        <v>1.4768</v>
       </c>
       <c r="F18" t="n">
-        <v>1.4948</v>
+        <v>1.4872</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>49.47%</t>
+          <t>48.71%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15.32%</t>
+          <t>14.90%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1995,11 +1995,11 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6.63%</t>
+          <t>6.66%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -2017,17 +2017,17 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>5.30%</t>
+          <t>4.76%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2.32%</t>
+          <t>-0.51%</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.30%</t>
+          <t>0.77%</t>
         </is>
       </c>
     </row>
@@ -2044,22 +2044,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>1.2538</v>
+        <v>1.2789</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>25.54%</t>
+          <t>28.06%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>13.30%</t>
+          <t>14.22%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2069,11 +2069,11 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>8.15%</t>
+          <t>8.12%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>3.77%</t>
+          <t>5.85%</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>1.54%</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>1.46%</t>
         </is>
       </c>
     </row>
@@ -2114,26 +2114,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.1157</v>
+        <v>1.1151</v>
       </c>
       <c r="E20" t="n">
-        <v>1.1157</v>
+        <v>1.1151</v>
       </c>
       <c r="F20" t="n">
-        <v>1.1157</v>
+        <v>1.1151</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11.58%</t>
+          <t>11.52%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9.34%</t>
+          <t>9.00%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2143,11 +2143,11 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>6.18%</t>
+          <t>6.11%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -2161,17 +2161,17 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>10.65%</t>
+          <t>10.59%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>-0.05%</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.92%</t>
+          <t>0.38%</t>
         </is>
       </c>
     </row>
@@ -2188,26 +2188,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.923</v>
+        <v>1.938</v>
       </c>
       <c r="E21" t="n">
-        <v>2.273</v>
+        <v>2.288</v>
       </c>
       <c r="F21" t="n">
-        <v>2.3505</v>
+        <v>2.3688</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>135.05%</t>
+          <t>136.88%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>13.58%</t>
+          <t>13.63%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2217,11 +2217,11 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10.60%</t>
+          <t>10.57%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2255,17 +2255,17 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>6.89%</t>
+          <t>7.73%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>0.73%</t>
         </is>
       </c>
     </row>
@@ -2282,26 +2282,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.933</v>
+        <v>2.989</v>
       </c>
       <c r="E22" t="n">
-        <v>2.933</v>
+        <v>2.989</v>
       </c>
       <c r="F22" t="n">
-        <v>2.933</v>
+        <v>2.989</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>193.30%</t>
+          <t>198.90%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11.37%</t>
+          <t>11.53%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>9.86%</t>
+          <t>9.85%</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2349,17 +2349,17 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>2.73%</t>
+          <t>4.69%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2.52%</t>
+          <t>1.91%</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>1.43%</t>
         </is>
       </c>
     </row>
@@ -2376,22 +2376,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>1.4795</v>
+        <v>1.503</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>47.95%</t>
+          <t>50.30%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>16.33%</t>
+          <t>16.78%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2401,11 +2401,11 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>14.94%</t>
+          <t>14.86%</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2423,17 +2423,17 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>12.51%</t>
+          <t>14.30%</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>1.33%</t>
+          <t>1.59%</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.16%</t>
+          <t>1.80%</t>
         </is>
       </c>
     </row>
@@ -2450,22 +2450,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>3.5858</v>
+        <v>3.6813</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>258.62%</t>
+          <t>268.17%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>23.21%</t>
+          <t>23.58%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2475,11 +2475,11 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>15.76%</t>
+          <t>15.72%</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>36.82%</t>
+          <t>40.46%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>4.80%</t>
+          <t>2.66%</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.66%</t>
+          <t>2.09%</t>
         </is>
       </c>
     </row>
@@ -2540,22 +2540,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>7.6706</v>
+        <v>7.7881</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>667.06%</t>
+          <t>678.81%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>33.65%</t>
+          <t>33.72%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2565,11 +2565,11 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>16.64%</t>
+          <t>16.63%</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2603,17 +2603,17 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>53.64%</t>
+          <t>55.99%</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>5.56%</t>
+          <t>1.53%</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.33%</t>
+          <t>-0.01%</t>
         </is>
       </c>
     </row>
@@ -2630,22 +2630,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>1.5317</v>
+        <v>1.5443</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>53.19%</t>
+          <t>54.45%</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14.71%</t>
+          <t>14.82%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2655,11 +2655,11 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>7.82%</t>
+          <t>7.80%</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2681,17 +2681,17 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>15.99%</t>
+          <t>16.94%</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>0.82%</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.60%</t>
+          <t>1.19%</t>
         </is>
       </c>
     </row>
@@ -2708,26 +2708,26 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.192</v>
+        <v>1.1997</v>
       </c>
       <c r="E27" t="n">
-        <v>2.5009</v>
+        <v>2.5086</v>
       </c>
       <c r="F27" t="n">
-        <v>3.307</v>
+        <v>3.3284</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>230.70%</t>
+          <t>232.84%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>19.38%</t>
+          <t>19.37%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10.66%</t>
+          <t>10.65%</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -2775,17 +2775,17 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>22.66%</t>
+          <t>23.46%</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>1.45%</t>
+          <t>0.65%</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>-0.56%</t>
         </is>
       </c>
     </row>
@@ -2802,22 +2802,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>3.8081</v>
+        <v>3.8368</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>280.81%</t>
+          <t>283.68%</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>19.58%</t>
+          <t>19.59%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>7.43%</t>
+          <t>7.41%</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -2865,17 +2865,17 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>6.86%</t>
+          <t>7.67%</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>0.46%</t>
         </is>
       </c>
     </row>
@@ -2892,26 +2892,26 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.1581</v>
+        <v>1.1595</v>
       </c>
       <c r="E29" t="n">
-        <v>1.3143</v>
+        <v>1.3157</v>
       </c>
       <c r="F29" t="n">
-        <v>1.3183</v>
+        <v>1.3199</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>31.82%</t>
+          <t>31.98%</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11.62%</t>
+          <t>11.49%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>9.70%</t>
+          <t>9.62%</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>2.06%</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.12%</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -2970,21 +2970,21 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.1614</v>
+        <v>1.1672</v>
       </c>
       <c r="E30" t="n">
-        <v>1.6247</v>
+        <v>1.6305</v>
       </c>
       <c r="F30" t="n">
-        <v>1.7618</v>
+        <v>1.7706</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>76.18%</t>
+          <t>77.06%</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2999,11 +2999,11 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>9.39%</t>
+          <t>9.35%</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -3029,17 +3029,17 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>4.17%</t>
+          <t>4.69%</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.32%</t>
+          <t>0.50%</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-0.14%</t>
+          <t>0.12%</t>
         </is>
       </c>
     </row>
@@ -3056,26 +3056,26 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.0496</v>
+        <v>1.0486</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0496</v>
+        <v>1.0486</v>
       </c>
       <c r="F31" t="n">
-        <v>1.0496</v>
+        <v>1.0486</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4.96%</t>
+          <t>4.86%</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3.05%</t>
+          <t>2.92%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3085,11 +3085,11 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>3.26%</t>
+          <t>3.22%</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>2.12%</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>-0.10%</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>-0.12%</t>
         </is>
       </c>
     </row>
@@ -3184,11 +3184,7 @@
           <t>2.74%</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>1.33%</t>
-        </is>
-      </c>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
           <t>0.86%</t>
@@ -3208,26 +3204,26 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.112</v>
+        <v>1.108</v>
       </c>
       <c r="E33" t="n">
-        <v>2.112</v>
+        <v>2.108</v>
       </c>
       <c r="F33" t="n">
-        <v>2.168</v>
+        <v>2.1602</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>116.80%</t>
+          <t>116.02%</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>9.56%</t>
+          <t>9.47%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3237,11 +3233,11 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>10.79%</t>
+          <t>10.77%</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -3275,17 +3271,17 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-6.08%</t>
+          <t>-6.42%</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>-0.09%</t>
+          <t>-0.36%</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-1.24%</t>
+          <t>0.09%</t>
         </is>
       </c>
     </row>
@@ -3302,26 +3298,26 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.129</v>
+        <v>1.132</v>
       </c>
       <c r="E34" t="n">
-        <v>1.641</v>
+        <v>1.643</v>
       </c>
       <c r="F34" t="n">
-        <v>1.8033</v>
+        <v>1.8065</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>80.33%</t>
+          <t>80.65%</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11.35%</t>
+          <t>11.30%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3331,7 +3327,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>4.38%</t>
+          <t>4.37%</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -3365,103 +3361,87 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>7.07%</t>
+          <t>7.26%</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.80%</t>
+          <t>0.18%</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>0.18%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>铭杉量化稳健5号</t>
+          <t>铭杉量化稳健7号</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>1.3597</v>
+        <v>1.0741</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>35.96%</t>
+          <t>7.42%</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>6.18%</t>
+          <t>5.48%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-1.29%</t>
+          <t>-1.35%</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1.60%</t>
+          <t>2.49%</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>2.62</v>
+        <v>1.4</v>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>7.93%</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>5.57%</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>4.31%</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>7.08%</t>
+          <t>2.48%</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>4.32%</t>
+          <t>4.82%</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>0.97%</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-0.39%</t>
+          <t>0.51%</t>
         </is>
       </c>
     </row>
@@ -3478,22 +3458,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>1.2711</v>
+        <v>1.2749</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>27.10%</t>
+          <t>27.48%</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>6.88%</t>
+          <t>6.89%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3503,11 +3483,11 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>2.20%</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -3529,17 +3509,17 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>4.68%</t>
+          <t>4.99%</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.43%</t>
+          <t>0.30%</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>0.14%</t>
         </is>
       </c>
     </row>

--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -28,14 +28,14 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <b val="1"/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -82,18 +82,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -441,105 +435,105 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>基金产品</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>净值起始日期</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>净值结束日期</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>单位净值</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>累计净值</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>复权净值</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>总收益</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>年化收益</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>最大回撤</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>年化波动率</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>夏普比</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>2019收益</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>2020收益</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>2021收益</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>2022收益</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>2023收益</t>
         </is>
       </c>
-      <c r="Q1" s="5" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>2024收益</t>
         </is>
       </c>
-      <c r="R1" s="5" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>2025收益</t>
         </is>
       </c>
-      <c r="S1" s="5" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>11月收益</t>
         </is>
       </c>
-      <c r="T1" s="5" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>近一周收益</t>
         </is>
@@ -687,7 +681,6 @@
       <c r="K3" t="n">
         <v>1.4</v>
       </c>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>-0.20%</t>
@@ -745,8 +738,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>2.7319</v>
       </c>
@@ -773,9 +764,6 @@
       <c r="K4" t="n">
         <v>2.17</v>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>6.40%</t>
@@ -823,8 +811,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>1.4769</v>
       </c>
@@ -851,10 +837,6 @@
       <c r="K5" t="n">
         <v>2.21</v>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>2.02%</t>
@@ -897,8 +879,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>2.5828</v>
       </c>
@@ -925,9 +905,6 @@
       <c r="K6" t="n">
         <v>1.66</v>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t>3.11%</t>
@@ -1069,8 +1046,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>2.2622</v>
       </c>
@@ -1285,7 +1260,6 @@
       <c r="K10" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>10.80%</t>
@@ -1343,8 +1317,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>1.188</v>
       </c>
@@ -1371,9 +1343,6 @@
       <c r="K11" t="n">
         <v>0.51</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
           <t>-2.80%</t>
@@ -1515,8 +1484,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>3.2642</v>
       </c>
@@ -1605,8 +1572,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
         <v>2.2288</v>
       </c>
@@ -1789,8 +1754,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
         <v>2.4089</v>
       </c>
@@ -1879,8 +1842,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
         <v>2.1609</v>
       </c>
@@ -2001,10 +1962,6 @@
       <c r="K18" t="n">
         <v>1.94</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>13.14%</t>
@@ -2047,8 +2004,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
         <v>1.2789</v>
       </c>
@@ -2075,11 +2030,6 @@
       <c r="K19" t="n">
         <v>1.5</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
           <t>20.98%</t>
@@ -2149,11 +2099,6 @@
       <c r="K20" t="n">
         <v>1.15</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>0.84%</t>
@@ -2379,8 +2324,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
         <v>1.503</v>
       </c>
@@ -2407,10 +2350,6 @@
       <c r="K23" t="n">
         <v>0.99</v>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>-2.57%</t>
@@ -2453,8 +2392,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
         <v>3.6813</v>
       </c>
@@ -2543,8 +2480,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
         <v>7.7881</v>
       </c>
@@ -2633,8 +2568,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
         <v>1.5443</v>
       </c>
@@ -2661,9 +2594,6 @@
       <c r="K26" t="n">
         <v>1.64</v>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
           <t>0.76%</t>
@@ -2805,8 +2735,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
         <v>3.8368</v>
       </c>
@@ -2927,10 +2855,6 @@
       <c r="K29" t="n">
         <v>0.99</v>
       </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>1.97%</t>
@@ -3005,8 +2929,6 @@
       <c r="K30" t="n">
         <v>1.21</v>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>12.94%</t>
@@ -3091,11 +3013,6 @@
       <c r="K31" t="n">
         <v>0.29</v>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
           <t>2.68%</t>
@@ -3165,10 +3082,6 @@
       <c r="K32" t="n">
         <v>1.09</v>
       </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>1.00%</t>
@@ -3184,7 +3097,6 @@
           <t>2.74%</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
           <t>0.86%</t>
@@ -3333,7 +3245,6 @@
       <c r="K34" t="n">
         <v>2.13</v>
       </c>
-      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
           <t>8.80%</t>
@@ -3391,8 +3302,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
         <v>1.0741</v>
       </c>
@@ -3419,11 +3328,6 @@
       <c r="K35" t="n">
         <v>1.4</v>
       </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
           <t>2.48%</t>
@@ -3461,8 +3365,6 @@
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
         <v>1.2749</v>
       </c>
@@ -3489,9 +3391,6 @@
       <c r="K36" t="n">
         <v>2.22</v>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
           <t>8.12%</t>
@@ -3534,7 +3433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3543,102 +3442,102 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>基金产品</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>净值起始日期</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>净值结束日期</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>单位净值</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>累计净值</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>复权净值</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>总收益</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>年化收益</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>最大回撤</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>年化波动率</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>夏普比</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>2019收益</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>2020收益</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>2021收益</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>2022收益</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>2023收益</t>
         </is>
       </c>
-      <c r="Q1" s="5" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>2024收益</t>
         </is>
       </c>
-      <c r="R1" s="5" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>2025收益</t>
         </is>
       </c>
-      <c r="S1" s="5" t="inlineStr">
-        <is>
-          <t>10月收益</t>
-        </is>
-      </c>
-      <c r="T1" s="5" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t>11月收益</t>
+        </is>
+      </c>
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>近一周收益</t>
         </is>
@@ -3647,3306 +3546,1244 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>资瑞兴一号</t>
+          <t>进化论多棱镜对冲一号</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2015-11-27</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>5.1733</v>
+        <v>1.4082</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>417.33%</t>
+          <t>40.82%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>17.99%</t>
+          <t>18.92%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-17.96%</t>
+          <t>-5.74%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>16.68%</t>
+          <t>11.20%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>33.03%</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>39.88%</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>31.63%</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1.55%</t>
-        </is>
-      </c>
+        <v>1.51</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.42%</t>
+          <t>-0.12%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>20.90%</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>34.69%</t>
+          <t>16.62%</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-1.35%</t>
+          <t>2.21%</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.82%</t>
+          <t>-0.32%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>千衍六贞1号</t>
+          <t>翰荣天秤量化对冲三号</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>1.4517</v>
+        <v>1.2196</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>45.14%</t>
+          <t>21.96%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20.32%</t>
+          <t>12.48%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-4.59%</t>
+          <t>-5.84%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>8.62%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2.02%</t>
-        </is>
-      </c>
+        <v>1.27</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>22.87%</t>
+          <t>4.37%</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>15.78%</t>
+          <t>16.85%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>-1.67%</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.77%</t>
+          <t>-2.21%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>量派CTA一号</t>
+          <t>量盈量化对冲二号</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>1.2538</v>
+        <v>1.1915</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25.54%</t>
+          <t>19.14%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>13.30%</t>
+          <t>11.63%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-5.85%</t>
+          <t>-2.32%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>8.15%</t>
+          <t>7.05%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1.39</v>
-      </c>
+        <v>1.37</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>20.98%</t>
+          <t>12.71%</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>3.77%</t>
+          <t>5.70%</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1.54%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>0.40%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>和谐汇一远见1号1期</t>
+          <t>华年中性1号</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.5814</v>
+        <v>1.145</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>58.14%</t>
+          <t>14.50%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>35.32%</t>
+          <t>10.94%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-13.08%</t>
+          <t>-3.45%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>18.71%</t>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1.78</v>
-      </c>
+        <v>1.38</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>14.41%</t>
+          <t>7.20%</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>38.22%</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-3.05%</t>
+          <t>-1.21%</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.87%</t>
+          <t>-1.12%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>和谐汇一远洲1号</t>
+          <t>茂源巴舍里耶2期</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2018-04-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1.2032</v>
+        <v>1.864</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20.32%</t>
+          <t>86.40%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.55%</t>
+          <t>8.57%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-4.07%</t>
+          <t>-9.37%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>6.62%</t>
+          <t>6.24%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>10.32%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>12.62%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>16.23%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-1.77%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>12.48%</t>
+        </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>6.91%</t>
+          <t>6.47%</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>12.54%</t>
+          <t>3.90%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-1.61%</t>
+          <t>0.16%</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.08%</t>
+          <t>-0.90%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>关呈睿选</t>
+          <t>大岩市场中性2号</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2019-03-22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>1.4106</v>
+        <v>1.5903</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>41.06%</t>
+          <t>59.03%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>50.33%</t>
+          <t>7.20%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-8.31%</t>
+          <t>-5.56%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>16.28%</t>
+          <t>4.79%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>2.97</v>
+        <v>1.08</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>10.49%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5.62%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>12.92%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>3.04%</t>
+        </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>8.34%</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>41.06%</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.48%</t>
+          <t>0.40%</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2.17%</t>
+          <t>-0.34%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>容光蕴诚</t>
+          <t>顽岩东方路</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>1.487</v>
+        <v>1.506</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>48.70%</t>
+          <t>50.60%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>19.71%</t>
+          <t>10.60%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-22.63%</t>
+          <t>-12.33%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21.52%</t>
+          <t>8.13%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.82</v>
+        <v>1.06</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>17.79%</t>
+        </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-2.90%</t>
+          <t>12.15%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13.29%</t>
+          <t>1.92%</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>35.18%</t>
+          <t>11.86%</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>0.99%</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>4.42%</t>
+          <t>-0.19%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>康曼德003A号主动管理型</t>
+          <t>世纪前沿松柏量化对冲1号</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2018-04-13</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>4.893</v>
+        <v>1.3648</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>389.30%</t>
+          <t>36.48%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>23.38%</t>
+          <t>8.45%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-27.05%</t>
+          <t>-4.58%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21.12%</t>
+          <t>4.10%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>67.78%</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>29.22%</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>18.09%</t>
-        </is>
-      </c>
+        <v>1.57</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-13.09%</t>
+          <t>6.26%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>8.18%</t>
+          <t>8.05%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24.84%</t>
+          <t>8.94%</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>75.44%</t>
+          <t>9.12%</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-8.71%</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.37%</t>
+          <t>-0.31%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>旌安1号</t>
+          <t>吾执二二号</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2018-05-11</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>3.8081</v>
+        <v>1.248</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>280.81%</t>
+          <t>24.80%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>19.58%</t>
+          <t>6.95%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-5.95%</t>
+          <t>-6.48%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>7.43%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>23.21%</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>52.68%</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>22.38%</t>
-        </is>
-      </c>
+        <v>0.76</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4.31%</t>
+          <t>-0.27%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>4.08%</t>
+          <t>8.16%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>7.00%</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>6.86%</t>
+          <t>8.13%</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>-1.46%</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>-1.59%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>融成上九点金二号</t>
+          <t>安子极客多策略一号</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2018-10-24</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>7.5818</v>
+        <v>1.9917</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>658.18%</t>
+          <t>99.17%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>33.35%</t>
+          <t>20.01%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-13.48%</t>
+          <t>-6.34%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>16.62%</t>
+          <t>12.25%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>43.71%</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>68.63%</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>-2.67%</t>
-        </is>
-      </c>
+        <v>1.47</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-2.38%</t>
+          <t>22.16%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>15.29%</t>
+          <t>8.93%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>68.29%</t>
+          <t>36.30%</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>51.86%</t>
+          <t>9.81%</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5.56%</t>
+          <t>1.58%</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-1.99%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>黑翼CTA8号</t>
+          <t>半鞅量化对冲1号</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2018-10-19</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>2.2611</v>
+        <v>1.1996</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>126.13%</t>
+          <t>19.97%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>12.29%</t>
+          <t>5.36%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-8.30%</t>
+          <t>-4.72%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>7.36%</t>
+          <t>5.29%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>15.40%</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>28.13%</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>8.19%</t>
-        </is>
-      </c>
+        <v>0.63</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>5.52%</t>
+          <t>2.16%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>6.63%</t>
+          <t>7.22%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>13.43%</t>
+          <t>7.15%</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>11.79%</t>
+          <t>2.22%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2.27%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>-1.17%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>枫泉景辉1期</t>
+          <t>大道白驹</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2019-03-22</t>
+          <t>2017-08-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>3.6922</v>
+        <v>2.313</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>269.26%</t>
+          <t>131.30%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21.83%</t>
+          <t>10.63%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-22.30%</t>
+          <t>-5.16%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>17.91%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>1.11</v>
+        <v>1.54</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>17.42%</t>
+          <t>12.08%</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.12%</t>
+          <t>21.40%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>33.14%</t>
+          <t>9.60%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>10.98%</t>
+          <t>1.83%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>23.18%</t>
+          <t>9.31%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>46.81%</t>
+          <t>8.62%</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>16.38%</t>
+          <t>6.10%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2.47%</t>
+          <t>-0.30%</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-1.67%</t>
+          <t>-1.11%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>会世泰和CTA1号</t>
+          <t>量道明察1号</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2019-03-01</t>
+          <t>2023-01-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>2.3525</v>
+        <v>1.2489</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>135.25%</t>
+          <t>24.89%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13.68%</t>
+          <t>8.09%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-16.99%</t>
+          <t>-6.34%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>8.86%</t>
+          <t>6.01%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>18.54%</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>30.61%</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>9.31%</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>6.42%</t>
-        </is>
-      </c>
+        <v>1.01</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-0.24%</t>
+          <t>6.90%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19.11%</t>
+          <t>9.83%</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>9.94%</t>
+          <t>6.37%</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>1.22%</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>-1.28%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>鼎一兑弈量化</t>
+          <t>悦海盈和春晓1号</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2019-03-01</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>2.2545</v>
+        <v>1.404</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>125.45%</t>
+          <t>40.39%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>12.95%</t>
+          <t>13.07%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-9.99%</t>
+          <t>-4.24%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>11.16%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>8.90%</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>26.09%</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>12.69%</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>14.13%</t>
-        </is>
-      </c>
+        <v>1.48</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>7.87%</t>
+          <t>4.25%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>8.23%</t>
+          <t>24.68%</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>9.36%</t>
+          <t>8.01%</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.76%</t>
+          <t>-0.77%</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>-1.63%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>洛书瑞盈建兴</t>
+          <t>香农尊享2号</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2019-09-20</t>
+          <t>2023-07-28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>3.5858</v>
+        <v>1.1855</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>258.62%</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>23.21%</t>
+          <t>7.61%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-33.25%</t>
+          <t>-5.04%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15.76%</t>
+          <t>6.16%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-0.19%</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>75.18%</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>19.43%</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0.61%</t>
-        </is>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-3.82%</t>
+          <t>0.77%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>29.70%</t>
+          <t>9.29%</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>36.82%</t>
+          <t>7.65%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>4.80%</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.66%</t>
+          <t>-0.81%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>日斗牵牛价值一号</t>
+          <t>盛丰烁今1号</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2019-09-20</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>4.8208</v>
+        <v>1.248</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>382.08%</t>
+          <t>24.80%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>29.32%</t>
+          <t>9.15%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-21.35%</t>
+          <t>-6.63%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>29.90%</t>
+          <t>6.34%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>4.50%</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>20.48%</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>35.19%</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>57.41%</t>
-        </is>
-      </c>
+        <v>1.13</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>6.55%</t>
+          <t>5.60%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>25.50%</t>
+          <t>15.25%</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>34.56%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-2.04%</t>
+          <t>-0.16%</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-1.97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>泽元通宝1号</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2019-11-29</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6.2306</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>523.06%</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>36.17%</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-18.74%</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>26.42%</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>-0.03%</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>7.25%</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>42.05%</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>61.71%</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>10.10%</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>28.78%</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>78.41%</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>-1.11%</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>-0.43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>铭杉量化稳健5号</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2020-09-18</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1.3597</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>35.96%</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>6.18%</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-1.29%</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>1.60%</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>7.93%</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>5.57%</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>4.31%</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>7.08%</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>4.32%</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.56%</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>-0.39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>宏锡量化CTA7号</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2017-02-17</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>224.00%</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>14.46%</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-16.54%</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>14.16%</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>12.92%</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>32.60%</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>-0.76%</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>19.91%</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>2.66%</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>11.35%</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>16.70%</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>2.31%</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>磐耀启明星</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2017-02-10</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4.7296</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>372.96%</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>19.49%</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-32.40%</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>21.83%</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>18.95%</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>35.06%</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>75.64%</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>-17.87%</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>1.28%</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>34.73%</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>27.06%</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>-2.06%</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>1.71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>紫阁同爽1号</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2020-11-27</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2.1304</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>113.04%</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>16.58%</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>-33.46%</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>25.61%</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>10.70%</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>50.04%</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>-25.48%</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>-8.26%</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>40.50%</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>33.53%</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>-12.87%</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>-3.61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>奇盛领航</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2020-12-11</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1.8553</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>85.53%</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>13.47%</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>-26.24%</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>19.78%</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>33.30%</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>9.17%</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>10.31%</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2.06%</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>13.25%</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>-4.86%</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>-1.53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>国源不争0号</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2017-03-03</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4.815</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>381.50%</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>19.88%</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>-24.55%</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>17.10%</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>22.85%</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>48.89%</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>41.46%</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>4.29%</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>9.52%</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>22.53%</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>44.68%</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>2.56%</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>-1.43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>国源拾金2号</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2017-03-31</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5.546</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>454.60%</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>22.07%</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>-18.06%</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>22.79%</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>20.83%</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>25.30%</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>36.31%</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>-10.06%</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>6.35%</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>32.40%</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>48.81%</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>0.65%</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>-1.84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>千象15期</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2017-05-19</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2.1086</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>110.86%</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>9.22%</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>-12.90%</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>9.59%</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2.87%</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>29.78%</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>9.91%</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>3.86%</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>-0.74%</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>17.68%</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>3.08%</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0.02%</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>-1.33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>细水居20号</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2022-08-26</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2.5675</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>156.75%</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>34.47%</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>-15.64%</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>19.49%</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>3.11%</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>26.96%</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>47.22%</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>33.22%</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>5.82%</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>5.32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>致同添利套利多策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2022-03-25</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1.2711</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>27.10%</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>6.88%</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>-1.40%</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2.22%</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>8.12%</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>4.43%</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>7.54%</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0.43%</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>-0.03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>勤辰创赢成长6号</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2022-07-22</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1.5777</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>57.77%</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>14.92%</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>-12.51%</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>12.71%</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>-5.23%</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>0.59%</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>20.56%</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>37.27%</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>-0.13%</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>-0.18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>观理摘金稳健1号</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2022-05-13</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2.7084</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>170.89%</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>33.25%</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>-12.75%</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>14.44%</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>6.40%</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>37.11%</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>38.64%</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>33.93%</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>2.12%</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>2.57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>北恒二期</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2022-07-15</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>11.984</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>1098.40%</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>112.32%</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>-29.19%</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>45.08%</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>16.80%</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>137.50%</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>87.27%</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>130.68%</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>1.45%</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>-0.42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>华安合鑫稳健</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2017-09-22</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2025-10-24</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10.5034</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>950.34%</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>33.72%</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>-38.68%</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>38.98%</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>36.93%</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>144.49%</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>131.33%</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>-7.45%</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>51.41%</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>19.59%</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>-6.13%</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>3.87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>毗陵青果</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2017-12-22</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>406.00%</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>22.90%</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>-24.71%</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>17.89%</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>20.99%</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>1.90%</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>46.85%</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>20.19%</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>19.40%</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>48.80%</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>19.13%</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>-1.88%</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>-2.25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>和谐汇一医疗创新</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2022-08-19</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2.5904</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>159.01%</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>34.60%</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>-19.59%</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>30.07%</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>15.14%</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>11.89%</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>34.38%</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>49.62%</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>-6.45%</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>1.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>和谐汇一高端制造</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2022-09-02</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2.1427</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>114.27%</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>27.23%</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>-18.15%</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>20.91%</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>5.43%</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>19.44%</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>14.24%</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>48.94%</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>-1.78%</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>1.66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>勤辰森裕1号</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2022-10-21</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2025-10-24</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1.6872</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>68.72%</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>18.97%</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>-16.24%</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>19.58%</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>7.38%</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>2.30%</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>19.19%</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>28.86%</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0.02%</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>4.26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>因诺CTA2号</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2022-09-23</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1.5317</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>53.19%</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>14.71%</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>-4.09%</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>7.82%</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0.76%</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>11.02%</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>18.07%</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>15.99%</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>3.50%</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>0.60%</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>闻道稳健2号</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2022-10-28</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1.179</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>17.90%</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>5.62%</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>-6.31%</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>7.49%</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>-2.80%</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>2.16%</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>18.73%</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>-2.16%</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>国源志成</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2022-11-04</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2.4608</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>146.10%</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>35.12%</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>-26.22%</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>21.22%</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>-5.24%</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>-3.26%</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>44.50%</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>85.79%</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>-0.38%</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>-1.14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>上海高恩价值策略3号</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2022-12-02</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2.3375</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>133.75%</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>33.81%</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>-11.97%</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>15.45%</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>2.80%</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>27.80%</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>21.46%</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>46.48%</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>2.33%</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>0.21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>上海高恩医药进取3号</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2022-12-02</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2.063</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>106.30%</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>28.20%</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>-40.59%</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>34.63%</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>-0.90%</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>0.81%</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>0.50%</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>105.48%</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>-6.90%</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>1.18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>博衍九溪CTA1号</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2023-03-31</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1.4795</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>47.95%</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>16.33%</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>-11.52%</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>14.94%</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>-2.57%</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>34.97%</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>12.51%</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>1.33%</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>-0.16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>和谐汇一TMT创新精选</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2023-04-28</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1.8349</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>83.45%</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>27.32%</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>-30.72%</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>28.30%</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>17.44%</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>7.82%</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>44.88%</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>1.90%</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>3.91%</t>
+          <t>-1.73%</t>
         </is>
       </c>
     </row>

--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -1153,7 +1153,7 @@
       </c>
       <c r="S1" s="4" t="inlineStr">
         <is>
-          <t>11月收益</t>
+          <t>12月收益</t>
         </is>
       </c>
       <c r="T1" s="4" t="inlineStr">
@@ -1175,40 +1175,40 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.119</v>
+        <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>3.681</v>
+        <v>3.662</v>
       </c>
       <c r="F2" t="n">
-        <v>6.3073</v>
+        <v>6.2002</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>530.73%</t>
+          <t>520.02%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>29.01%</t>
+          <t>28.53%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-13.72%</t>
+          <t>-15.19%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>19.42%</t>
+          <t>19.38%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -1242,17 +1242,17 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>9.56%</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-3.70%</t>
+          <t>-1.70%</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-1.50%</t>
+          <t>-0.36%</t>
         </is>
       </c>
     </row>
@@ -1269,26 +1269,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.454</v>
+        <v>1.506</v>
       </c>
       <c r="E3" t="n">
-        <v>3.427</v>
+        <v>3.479</v>
       </c>
       <c r="F3" t="n">
-        <v>5.9672</v>
+        <v>6.1806</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>496.72%</t>
+          <t>518.06%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>42.31%</t>
+          <t>42.91%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1298,11 +1298,11 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>30.54%</t>
+          <t>30.50%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
@@ -1332,17 +1332,17 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>29.82%</t>
+          <t>34.46%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-4.78%</t>
+          <t>3.58%</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.83%</t>
+          <t>-1.63%</t>
         </is>
       </c>
     </row>
@@ -1359,22 +1359,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>2.705</v>
+        <v>2.7118</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>170.55%</t>
+          <t>171.23%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>32.38%</t>
+          <t>32.08%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1384,11 +1384,11 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>14.32%</t>
+          <t>14.24%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -1410,17 +1410,17 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>33.77%</t>
+          <t>34.10%</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.13%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>0.24%</t>
         </is>
       </c>
     </row>
@@ -1437,22 +1437,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.4943</v>
+        <v>1.5039</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>49.40%</t>
+          <t>50.36%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21.17%</t>
+          <t>21.12%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1462,11 +1462,11 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>8.48%</t>
+          <t>8.40%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -1484,17 +1484,17 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>19.18%</t>
+          <t>19.95%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.93%</t>
+          <t>0.64%</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>0.51%</t>
         </is>
       </c>
     </row>
@@ -1511,22 +1511,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>2.6908</v>
+        <v>2.8358</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>169.08%</t>
+          <t>183.58%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>35.47%</t>
+          <t>37.16%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1536,11 +1536,11 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>19.45%</t>
+          <t>19.40%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -1562,17 +1562,17 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>39.62%</t>
+          <t>47.15%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4.80%</t>
+          <t>5.39%</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.14%</t>
+          <t>2.85%</t>
         </is>
       </c>
     </row>
@@ -1589,26 +1589,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.142</v>
+        <v>2.17</v>
       </c>
       <c r="E7" t="n">
-        <v>3.415</v>
+        <v>3.443</v>
       </c>
       <c r="F7" t="n">
-        <v>4.7724</v>
+        <v>4.8347</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>377.24%</t>
+          <t>383.47%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23.24%</t>
+          <t>23.32%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1618,11 +1618,11 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>15.36%</t>
+          <t>15.32%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1656,17 +1656,17 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>11.22%</t>
+          <t>12.67%</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1.09%</t>
+          <t>1.31%</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2.93%</t>
+          <t>1.02%</t>
         </is>
       </c>
     </row>
@@ -1683,22 +1683,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>2.2593</v>
+        <v>2.3134</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>125.95%</t>
+          <t>131.36%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12.14%</t>
+          <t>12.44%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7.33%</t>
+          <t>7.32%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1746,111 +1746,95 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>11.70%</t>
+          <t>14.38%</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>2.39%</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>1.15%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>众壹资产量合兴成一号</t>
+          <t>众壹资产量合专享5号</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2018-05-18</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.472</v>
-      </c>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>1.5264</v>
+        <v>1.2441</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>52.64%</t>
+          <t>24.41%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.77%</t>
+          <t>7.19%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-15.88%</t>
+          <t>-10.85%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10.78%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>3.89%</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>21.83%</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>12.49%</t>
-        </is>
-      </c>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>-3.23%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>12.42%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>9.71%</t>
+          <t>14.61%</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-1.72%</t>
+          <t>7.40%</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3.57%</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.91%</t>
+          <t>2.01%</t>
         </is>
       </c>
     </row>
@@ -1867,26 +1851,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.614</v>
+        <v>1.68</v>
       </c>
       <c r="E10" t="n">
-        <v>1.614</v>
+        <v>1.68</v>
       </c>
       <c r="F10" t="n">
-        <v>1.614</v>
+        <v>1.68</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>61.40%</t>
+          <t>68.00%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9.61%</t>
+          <t>10.38%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1896,11 +1880,11 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>8.03%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
@@ -1930,17 +1914,17 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-2.24%</t>
+          <t>1.76%</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>4.09%</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>5.53%</t>
         </is>
       </c>
     </row>
@@ -1957,22 +1941,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1.175</v>
+        <v>1.168</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17.50%</t>
+          <t>16.80%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.36%</t>
+          <t>5.09%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1982,11 +1966,11 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7.42%</t>
+          <t>7.38%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -2008,17 +1992,17 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.34%</t>
+          <t>-0.93%</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.34%</t>
+          <t>-0.60%</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.25%</t>
+          <t>-0.26%</t>
         </is>
       </c>
     </row>
@@ -2035,26 +2019,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.3108</v>
+        <v>3.3136</v>
       </c>
       <c r="E12" t="n">
-        <v>3.3108</v>
+        <v>3.3136</v>
       </c>
       <c r="F12" t="n">
-        <v>3.3108</v>
+        <v>3.3136</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>231.11%</t>
+          <t>231.39%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>20.28%</t>
+          <t>20.16%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2064,11 +2048,11 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>19.71%</t>
+          <t>19.67%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -2102,17 +2086,17 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-11.13%</t>
+          <t>-11.06%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-1.45%</t>
+          <t>0.08%</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-3.73%</t>
+          <t>1.24%</t>
         </is>
       </c>
     </row>
@@ -2129,22 +2113,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>3.2557</v>
+        <v>3.4287</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>225.57%</t>
+          <t>242.87%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14.38%</t>
+          <t>14.99%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2154,11 +2138,11 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>14.10%</t>
+          <t>14.12%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -2192,17 +2176,17 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>23.50%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.48%</t>
+          <t>5.31%</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-0.67%</t>
+          <t>3.30%</t>
         </is>
       </c>
     </row>
@@ -2219,22 +2203,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>2.2266</v>
+        <v>2.2974</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>122.66%</t>
+          <t>129.74%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12.59%</t>
+          <t>13.03%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2244,11 +2228,11 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>11.12%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -2282,17 +2266,17 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>8.00%</t>
+          <t>11.44%</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-1.24%</t>
+          <t>3.18%</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.58%</t>
+          <t>2.48%</t>
         </is>
       </c>
     </row>
@@ -2309,26 +2293,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7.351</v>
+        <v>7.669</v>
       </c>
       <c r="E15" t="n">
-        <v>7.996</v>
+        <v>8.314</v>
       </c>
       <c r="F15" t="n">
-        <v>8.4537</v>
+        <v>8.8194</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>745.37%</t>
+          <t>781.94%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>27.65%</t>
+          <t>28.13%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2338,11 +2322,11 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>16.60%</t>
+          <t>16.59%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -2376,17 +2360,17 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>10.36%</t>
+          <t>15.13%</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1.41%</t>
+          <t>4.33%</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-1.02%</t>
+          <t>2.93%</t>
         </is>
       </c>
     </row>
@@ -2403,22 +2387,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>2.4157</v>
+        <v>2.5304</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>141.57%</t>
+          <t>153.04%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>13.96%</t>
+          <t>14.65%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2428,11 +2412,11 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>8.82%</t>
+          <t>8.89%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -2466,17 +2450,17 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>12.89%</t>
+          <t>18.25%</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2.69%</t>
+          <t>4.75%</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3.39%</t>
         </is>
       </c>
     </row>
@@ -2493,22 +2477,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>2.1759</v>
+        <v>2.2342</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>117.59%</t>
+          <t>123.42%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9.54%</t>
+          <t>9.83%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2522,7 +2506,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -2556,17 +2540,17 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>6.37%</t>
+          <t>9.22%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>2.68%</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-0.37%</t>
+          <t>1.53%</t>
         </is>
       </c>
     </row>
@@ -2583,26 +2567,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.4202</v>
+        <v>1.441</v>
       </c>
       <c r="E18" t="n">
-        <v>1.4911</v>
+        <v>1.5119</v>
       </c>
       <c r="F18" t="n">
-        <v>1.5024</v>
+        <v>1.5244</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>50.22%</t>
+          <t>52.42%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15.09%</t>
+          <t>15.45%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2612,11 +2596,11 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6.62%</t>
+          <t>6.59%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -2634,17 +2618,17 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>5.83%</t>
+          <t>7.38%</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>1.46%</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>0.77%</t>
         </is>
       </c>
     </row>
@@ -2661,22 +2645,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>1.281</v>
+        <v>1.3162</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>28.27%</t>
+          <t>31.79%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>14.01%</t>
+          <t>15.32%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2686,11 +2670,11 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>8.20%</t>
+          <t>8.21%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -2704,17 +2688,17 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>6.03%</t>
+          <t>8.94%</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2.17%</t>
+          <t>2.75%</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-1.47%</t>
+          <t>1.82%</t>
         </is>
       </c>
     </row>
@@ -2731,26 +2715,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.0989</v>
+        <v>1.1229</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0989</v>
+        <v>1.1229</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0989</v>
+        <v>1.1229</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9.90%</t>
+          <t>12.30%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>7.51%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2760,11 +2744,11 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>6.12%</t>
+          <t>6.14%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.9</v>
+        <v>1.14</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -2778,17 +2762,17 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>8.99%</t>
+          <t>11.37%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-1.51%</t>
+          <t>2.18%</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-0.67%</t>
+          <t>1.34%</t>
         </is>
       </c>
     </row>
@@ -2805,26 +2789,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.932</v>
+        <v>1.993</v>
       </c>
       <c r="E21" t="n">
-        <v>2.282</v>
+        <v>2.343</v>
       </c>
       <c r="F21" t="n">
-        <v>2.3615</v>
+        <v>2.4361</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>136.15%</t>
+          <t>143.61%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>13.49%</t>
+          <t>13.93%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2838,7 +2822,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2872,17 +2856,17 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>7.39%</t>
+          <t>10.79%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>3.16%</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.16%</t>
+          <t>2.21%</t>
         </is>
       </c>
     </row>
@@ -2899,26 +2883,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3.002</v>
+        <v>3.117</v>
       </c>
       <c r="E22" t="n">
-        <v>3.002</v>
+        <v>3.117</v>
       </c>
       <c r="F22" t="n">
-        <v>3.002</v>
+        <v>3.117</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>200.20%</t>
+          <t>211.70%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11.54%</t>
+          <t>11.91%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2928,11 +2912,11 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>9.83%</t>
+          <t>9.85%</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2966,17 +2950,17 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>5.15%</t>
+          <t>9.18%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>3.83%</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.40%</t>
+          <t>1.50%</t>
         </is>
       </c>
     </row>
@@ -2993,22 +2977,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>1.5303</v>
+        <v>1.6466</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>53.03%</t>
+          <t>64.66%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>17.30%</t>
+          <t>20.25%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -3018,11 +3002,11 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>14.79%</t>
+          <t>15.08%</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>1.03</v>
+        <v>1.21</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -3040,17 +3024,17 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>16.37%</t>
+          <t>25.22%</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>3.43%</t>
+          <t>7.60%</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.20%</t>
+          <t>5.78%</t>
         </is>
       </c>
     </row>
@@ -3067,22 +3051,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>3.6366</v>
+        <v>3.9347</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>263.70%</t>
+          <t>293.51%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>23.17%</t>
+          <t>24.58%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3092,11 +3076,11 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>15.74%</t>
+          <t>15.85%</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -3130,17 +3114,17 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>38.76%</t>
+          <t>50.13%</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>1.42%</t>
+          <t>8.20%</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-2.99%</t>
+          <t>5.40%</t>
         </is>
       </c>
     </row>
@@ -3157,22 +3141,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>7.6973</v>
+        <v>8.0654</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>669.73%</t>
+          <t>706.54%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>33.29%</t>
+          <t>33.96%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3182,11 +3166,11 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>16.58%</t>
+          <t>16.66%</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -3220,17 +3204,17 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>54.17%</t>
+          <t>61.55%</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>4.78%</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>0.88%</t>
         </is>
       </c>
     </row>
@@ -3247,22 +3231,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>1.5207</v>
+        <v>1.5396</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>52.09%</t>
+          <t>53.98%</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14.08%</t>
+          <t>14.34%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3276,7 +3260,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -3298,17 +3282,17 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>15.15%</t>
+          <t>16.58%</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.72%</t>
+          <t>1.24%</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.28%</t>
+          <t>1.60%</t>
         </is>
       </c>
     </row>
@@ -3325,26 +3309,26 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.1883</v>
+        <v>1.2463</v>
       </c>
       <c r="E27" t="n">
-        <v>2.4972</v>
+        <v>2.5552</v>
       </c>
       <c r="F27" t="n">
-        <v>3.2968</v>
+        <v>3.4577</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>229.68%</t>
+          <t>245.77%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>19.08%</t>
+          <t>19.81%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3358,7 +3342,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -3392,17 +3376,17 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>22.28%</t>
+          <t>28.25%</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.31%</t>
+          <t>4.88%</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-0.16%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3419,22 +3403,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>3.8324</v>
+        <v>3.8752</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>283.24%</t>
+          <t>287.52%</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>19.46%</t>
+          <t>19.53%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3444,11 +3428,11 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>7.39%</t>
+          <t>7.38%</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -3482,17 +3466,17 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>7.54%</t>
+          <t>8.74%</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.64%</t>
+          <t>1.12%</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>0.67%</t>
         </is>
       </c>
     </row>
@@ -3509,26 +3493,26 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.1597</v>
+        <v>1.1592</v>
       </c>
       <c r="E29" t="n">
-        <v>1.3159</v>
+        <v>1.3154</v>
       </c>
       <c r="F29" t="n">
-        <v>1.3202</v>
+        <v>1.3196</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>32.01%</t>
+          <t>31.95%</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11.32%</t>
+          <t>11.13%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3538,11 +3522,11 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>9.55%</t>
+          <t>9.49%</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -3560,17 +3544,17 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>2.09%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>-0.05%</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>0.11%</t>
         </is>
       </c>
     </row>
@@ -3582,26 +3566,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021-04-16</t>
+          <t>2021-04-14</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>1.1686</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.6319</v>
-      </c>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>1.7727</v>
+        <v>1.7827</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>77.27%</t>
+          <t>78.27%</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3611,16 +3591,16 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-13.34%</t>
+          <t>-14.01%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>9.31%</t>
+          <t>8.96%</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -3641,22 +3621,22 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>12.13%</t>
+          <t>12.07%</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>4.82%</t>
+          <t>5.45%</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>0.56%</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>0.18%</t>
         </is>
       </c>
     </row>
@@ -3673,26 +3653,26 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.0502</v>
+        <v>1.05</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0502</v>
+        <v>1.05</v>
       </c>
       <c r="F31" t="n">
-        <v>1.0502</v>
+        <v>1.05</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5.02%</t>
+          <t>5.00%</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2.94%</t>
+          <t>2.87%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3702,11 +3682,11 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>3.16%</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -3720,17 +3700,17 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>2.28%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>-0.02%</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>0.11%</t>
         </is>
       </c>
     </row>
@@ -3747,26 +3727,26 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.1</v>
+        <v>1.142</v>
       </c>
       <c r="E32" t="n">
-        <v>2.1</v>
+        <v>2.142</v>
       </c>
       <c r="F32" t="n">
-        <v>2.1446</v>
+        <v>2.2265</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>114.46%</t>
+          <t>122.65%</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>9.33%</t>
+          <t>9.76%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3776,11 +3756,11 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10.75%</t>
+          <t>10.76%</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -3814,17 +3794,17 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>-7.10%</t>
+          <t>-3.55%</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>-1.08%</t>
+          <t>3.82%</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-0.09%</t>
+          <t>1.69%</t>
         </is>
       </c>
     </row>
@@ -3841,21 +3821,21 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.133</v>
+        <v>1.138</v>
       </c>
       <c r="E33" t="n">
-        <v>1.644</v>
+        <v>1.649</v>
       </c>
       <c r="F33" t="n">
-        <v>1.8081</v>
+        <v>1.816</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>80.81%</t>
+          <t>81.60%</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3870,11 +3850,11 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4.35%</t>
+          <t>4.34%</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
@@ -3904,17 +3884,17 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>7.35%</t>
+          <t>7.82%</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>0.26%</t>
         </is>
       </c>
     </row>
@@ -3931,22 +3911,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>1.0783</v>
+        <v>1.0789</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>7.84%</t>
+          <t>7.90%</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>5.62%</t>
+          <t>5.50%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3956,11 +3936,11 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.47%</t>
+          <t>2.44%</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -3974,17 +3954,17 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>5.23%</t>
+          <t>5.29%</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>1.36%</t>
+          <t>0.06%</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.40%</t>
+          <t>0.11%</t>
         </is>
       </c>
     </row>
@@ -4001,22 +3981,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>1.2789</v>
+        <v>1.2809</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>27.88%</t>
+          <t>28.08%</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>6.91%</t>
+          <t>6.88%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4030,7 +4010,7 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -4052,17 +4032,17 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>5.32%</t>
+          <t>5.48%</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>0.16%</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>0.42%</t>
         </is>
       </c>
     </row>

--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yueku\Desktop\VScode\Private_nav_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C987BF0B-303F-4B9B-929A-15C8A75E7459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA9DA0F-D51C-4522-8853-FBB1AE6C4323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
   <si>
     <t>基金产品</t>
   </si>
@@ -89,7 +89,7 @@
     <t>2018-09-07</t>
   </si>
   <si>
-    <t>2025-12-19</t>
+    <t>2025-12-31</t>
   </si>
   <si>
     <t>草本致远1号</t>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
   </si>
   <si>
     <t>旌安1号</t>
@@ -435,16 +438,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -503,7 +506,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -862,28 +865,28 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>1.087</v>
+        <v>1.0669999999999999</v>
       </c>
       <c r="E2">
-        <v>3.649</v>
+        <v>3.629</v>
       </c>
       <c r="F2">
-        <v>6.1269</v>
+        <v>6.0141999999999998</v>
       </c>
       <c r="G2" s="2">
-        <v>5.1269</v>
+        <v>5.0141999999999998</v>
       </c>
       <c r="H2" s="2">
-        <v>0.28239999999999998</v>
+        <v>0.2777</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.16189999999999999</v>
+        <v>-0.17730000000000001</v>
       </c>
       <c r="J2" s="2">
-        <v>0.19370000000000001</v>
+        <v>0.1933</v>
       </c>
       <c r="K2">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="L2" s="2">
         <v>1.3203</v>
@@ -904,13 +907,13 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="R2" s="2">
-        <v>8.2699999999999996E-2</v>
+        <v>6.2700000000000006E-2</v>
       </c>
       <c r="S2" s="2">
-        <v>-2.86E-2</v>
+        <v>-4.65E-2</v>
       </c>
       <c r="T2" s="2">
-        <v>-1.18E-2</v>
+        <v>-1.66E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -924,28 +927,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>1.4610000000000001</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="E3">
-        <v>3.4340000000000002</v>
+        <v>3.536</v>
       </c>
       <c r="F3">
-        <v>5.9958999999999998</v>
+        <v>6.5529000000000002</v>
       </c>
       <c r="G3" s="2">
-        <v>4.9958999999999998</v>
+        <v>5.5529000000000002</v>
       </c>
       <c r="H3" s="2">
-        <v>0.41880000000000001</v>
+        <v>0.44019999999999998</v>
       </c>
       <c r="I3" s="2">
         <v>-0.26669999999999999</v>
       </c>
       <c r="J3" s="2">
-        <v>0.3049</v>
+        <v>0.30549999999999999</v>
       </c>
       <c r="K3">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M3" s="2">
         <v>-2E-3</v>
@@ -963,13 +966,13 @@
         <v>0.60940000000000005</v>
       </c>
       <c r="R3" s="2">
-        <v>0.3044</v>
+        <v>0.42559999999999998</v>
       </c>
       <c r="S3" s="2">
-        <v>4.7999999999999996E-3</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="T3" s="2">
-        <v>-2.9899999999999999E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -983,22 +986,22 @@
         <v>22</v>
       </c>
       <c r="F4">
-        <v>2.7368000000000001</v>
+        <v>2.7437999999999998</v>
       </c>
       <c r="G4" s="2">
-        <v>1.7373000000000001</v>
+        <v>1.7443</v>
       </c>
       <c r="H4" s="2">
-        <v>0.32219999999999999</v>
+        <v>0.31979999999999997</v>
       </c>
       <c r="I4" s="2">
         <v>-0.1275</v>
       </c>
       <c r="J4" s="2">
-        <v>0.1421</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="K4">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="O4" s="2">
         <v>6.4000000000000001E-2</v>
@@ -1010,13 +1013,13 @@
         <v>0.38640000000000002</v>
       </c>
       <c r="R4" s="2">
-        <v>0.35339999999999999</v>
+        <v>0.35680000000000001</v>
       </c>
       <c r="S4" s="2">
-        <v>1.18E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="T4" s="2">
-        <v>9.1999999999999998E-3</v>
+        <v>-1.18E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1030,22 +1033,22 @@
         <v>22</v>
       </c>
       <c r="F5">
-        <v>1.4795</v>
+        <v>1.4887999999999999</v>
       </c>
       <c r="G5" s="2">
-        <v>0.47920000000000001</v>
+        <v>0.48849999999999999</v>
       </c>
       <c r="H5" s="2">
-        <v>0.19989999999999999</v>
+        <v>0.2001</v>
       </c>
       <c r="I5" s="2">
         <v>-4.5900000000000003E-2</v>
       </c>
       <c r="J5" s="2">
-        <v>8.48E-2</v>
+        <v>8.4599999999999995E-2</v>
       </c>
       <c r="K5">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="P5" s="2">
         <v>2.0199999999999999E-2</v>
@@ -1054,13 +1057,13 @@
         <v>0.22869999999999999</v>
       </c>
       <c r="R5" s="2">
-        <v>0.18</v>
+        <v>0.18740000000000001</v>
       </c>
       <c r="S5" s="2">
-        <v>-9.9000000000000008E-3</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="T5" s="2">
-        <v>-1.6199999999999999E-2</v>
+        <v>-6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1074,22 +1077,22 @@
         <v>22</v>
       </c>
       <c r="F6">
-        <v>2.8102999999999998</v>
+        <v>2.9834000000000001</v>
       </c>
       <c r="G6" s="2">
-        <v>1.8103</v>
+        <v>1.9834000000000001</v>
       </c>
       <c r="H6" s="2">
-        <v>0.3654</v>
+        <v>0.38569999999999999</v>
       </c>
       <c r="I6" s="2">
         <v>-0.15640000000000001</v>
       </c>
       <c r="J6" s="2">
-        <v>0.19359999999999999</v>
+        <v>0.20050000000000001</v>
       </c>
       <c r="K6">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="O6" s="2">
         <v>3.1099999999999999E-2</v>
@@ -1101,13 +1104,13 @@
         <v>0.47220000000000001</v>
       </c>
       <c r="R6" s="2">
-        <v>0.4582</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="S6" s="2">
-        <v>4.4400000000000002E-2</v>
+        <v>0.1087</v>
       </c>
       <c r="T6" s="2">
-        <v>-8.9999999999999993E-3</v>
+        <v>-3.49E-2</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1121,25 +1124,25 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>2.1589999999999998</v>
+        <v>2.1720000000000002</v>
       </c>
       <c r="E7">
-        <v>3.4319999999999999</v>
+        <v>3.4449999999999998</v>
       </c>
       <c r="F7">
-        <v>4.8102</v>
+        <v>4.8391999999999999</v>
       </c>
       <c r="G7" s="2">
-        <v>3.8102</v>
+        <v>3.8391999999999999</v>
       </c>
       <c r="H7" s="2">
-        <v>0.23169999999999999</v>
+        <v>0.2316</v>
       </c>
       <c r="I7" s="2">
         <v>-0.1779</v>
       </c>
       <c r="J7" s="2">
-        <v>0.153</v>
+        <v>0.1535</v>
       </c>
       <c r="K7">
         <v>1.38</v>
@@ -1163,13 +1166,13 @@
         <v>0.37669999999999998</v>
       </c>
       <c r="R7" s="2">
-        <v>0.121</v>
+        <v>0.12770000000000001</v>
       </c>
       <c r="S7" s="2">
-        <v>7.9000000000000008E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="T7" s="2">
-        <v>-5.1000000000000004E-3</v>
+        <v>-2.7300000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1183,22 +1186,22 @@
         <v>22</v>
       </c>
       <c r="F8">
-        <v>2.2886000000000002</v>
+        <v>2.2900999999999998</v>
       </c>
       <c r="G8" s="2">
-        <v>1.2887999999999999</v>
+        <v>1.2903</v>
       </c>
       <c r="H8" s="2">
-        <v>0.12239999999999999</v>
+        <v>0.12189999999999999</v>
       </c>
       <c r="I8" s="2">
         <v>-8.3000000000000004E-2</v>
       </c>
       <c r="J8" s="2">
-        <v>7.3300000000000004E-2</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="K8">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="L8" s="2">
         <v>0.154</v>
@@ -1219,13 +1222,13 @@
         <v>0.1343</v>
       </c>
       <c r="R8" s="2">
-        <v>0.13150000000000001</v>
+        <v>0.1323</v>
       </c>
       <c r="S8" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="T8" s="2">
-        <v>-1.0699999999999999E-2</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1239,22 +1242,22 @@
         <v>22</v>
       </c>
       <c r="F9">
-        <v>1.2428999999999999</v>
+        <v>1.2513000000000001</v>
       </c>
       <c r="G9" s="2">
-        <v>0.2429</v>
+        <v>0.25130000000000002</v>
       </c>
       <c r="H9" s="2">
-        <v>7.1099999999999997E-2</v>
+        <v>7.2599999999999998E-2</v>
       </c>
       <c r="I9" s="2">
         <v>-0.1085</v>
       </c>
       <c r="J9" s="2">
-        <v>9.2200000000000004E-2</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="K9">
-        <v>0.55000000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O9" s="2">
         <v>-3.2300000000000002E-2</v>
@@ -1266,13 +1269,13 @@
         <v>0.14610000000000001</v>
       </c>
       <c r="R9" s="2">
-        <v>7.2900000000000006E-2</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="S9" s="2">
-        <v>3.4700000000000002E-2</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="T9" s="2">
-        <v>-1E-3</v>
+        <v>-1.04E-2</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1286,28 +1289,28 @@
         <v>22</v>
       </c>
       <c r="D10">
-        <v>1.617</v>
+        <v>1.58</v>
       </c>
       <c r="E10">
-        <v>1.617</v>
+        <v>1.58</v>
       </c>
       <c r="F10">
-        <v>1.617</v>
+        <v>1.58</v>
       </c>
       <c r="G10" s="2">
-        <v>0.61699999999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H10" s="2">
-        <v>9.5399999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I10" s="2">
         <v>-7.7299999999999994E-2</v>
       </c>
       <c r="J10" s="2">
-        <v>8.2000000000000003E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="K10">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="M10" s="2">
         <v>0.108</v>
@@ -1325,13 +1328,13 @@
         <v>0.15129999999999999</v>
       </c>
       <c r="R10" s="2">
-        <v>-2.06E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="S10" s="2">
-        <v>1.9E-3</v>
+        <v>-2.1100000000000001E-2</v>
       </c>
       <c r="T10" s="2">
-        <v>-3.7499999999999999E-2</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1345,22 +1348,22 @@
         <v>22</v>
       </c>
       <c r="F11">
-        <v>1.163</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="G11" s="2">
-        <v>0.16300000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="H11" s="2">
-        <v>4.9200000000000001E-2</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="I11" s="2">
         <v>-6.3100000000000003E-2</v>
       </c>
       <c r="J11" s="2">
-        <v>7.3700000000000002E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="K11">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="O11" s="2">
         <v>-2.8000000000000001E-2</v>
@@ -1372,13 +1375,13 @@
         <v>0.18729999999999999</v>
       </c>
       <c r="R11" s="2">
-        <v>-1.3599999999999999E-2</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="S11" s="2">
-        <v>-1.0200000000000001E-2</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="T11" s="2">
-        <v>-4.3E-3</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1392,28 +1395,28 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>3.1907000000000001</v>
+        <v>3.3035000000000001</v>
       </c>
       <c r="E12">
-        <v>3.1907000000000001</v>
+        <v>3.3035000000000001</v>
       </c>
       <c r="F12">
-        <v>3.1907000000000001</v>
+        <v>3.3035000000000001</v>
       </c>
       <c r="G12" s="2">
-        <v>2.1909999999999998</v>
+        <v>2.3037999999999998</v>
       </c>
       <c r="H12" s="2">
-        <v>0.19409999999999999</v>
+        <v>0.1993</v>
       </c>
       <c r="I12" s="2">
         <v>-0.18429999999999999</v>
       </c>
       <c r="J12" s="2">
-        <v>0.19700000000000001</v>
+        <v>0.1976</v>
       </c>
       <c r="K12">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="L12" s="2">
         <v>-5.8500000000000003E-2</v>
@@ -1434,13 +1437,13 @@
         <v>0.6381</v>
       </c>
       <c r="R12" s="2">
-        <v>-0.14360000000000001</v>
+        <v>-0.1133</v>
       </c>
       <c r="S12" s="2">
-        <v>-3.6299999999999999E-2</v>
+        <v>-2.2000000000000001E-3</v>
       </c>
       <c r="T12" s="2">
-        <v>-3.7100000000000001E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1454,22 +1457,22 @@
         <v>22</v>
       </c>
       <c r="F13">
-        <v>3.3609</v>
+        <v>3.4016999999999999</v>
       </c>
       <c r="G13" s="2">
-        <v>2.3609</v>
+        <v>2.4016999999999999</v>
       </c>
       <c r="H13" s="2">
-        <v>0.14699999999999999</v>
+        <v>0.1479</v>
       </c>
       <c r="I13" s="2">
         <v>-0.16539999999999999</v>
       </c>
       <c r="J13" s="2">
-        <v>0.14119999999999999</v>
+        <v>0.14130000000000001</v>
       </c>
       <c r="K13">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="L13" s="2">
         <v>0.12920000000000001</v>
@@ -1490,13 +1493,13 @@
         <v>0.1135</v>
       </c>
       <c r="R13" s="2">
-        <v>0.21060000000000001</v>
+        <v>0.2253</v>
       </c>
       <c r="S13" s="2">
-        <v>3.2300000000000002E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="T13" s="2">
-        <v>-1.9800000000000002E-2</v>
+        <v>-1.47E-2</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1510,13 +1513,13 @@
         <v>22</v>
       </c>
       <c r="F14">
-        <v>2.2524000000000002</v>
+        <v>2.1966000000000001</v>
       </c>
       <c r="G14" s="2">
-        <v>1.2524</v>
+        <v>1.1966000000000001</v>
       </c>
       <c r="H14" s="2">
-        <v>0.12670000000000001</v>
+        <v>0.12189999999999999</v>
       </c>
       <c r="I14" s="2">
         <v>-9.9900000000000003E-2</v>
@@ -1525,7 +1528,7 @@
         <v>0.1113</v>
       </c>
       <c r="K14">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="L14" s="2">
         <v>8.8999999999999996E-2</v>
@@ -1546,13 +1549,13 @@
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="R14" s="2">
-        <v>9.2499999999999999E-2</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="S14" s="2">
-        <v>1.1599999999999999E-2</v>
+        <v>-1.35E-2</v>
       </c>
       <c r="T14" s="2">
-        <v>-1.9599999999999999E-2</v>
+        <v>-1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1566,25 +1569,25 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>7.274</v>
+        <v>7.34</v>
       </c>
       <c r="E15">
-        <v>7.9189999999999996</v>
+        <v>7.9850000000000003</v>
       </c>
       <c r="F15">
-        <v>8.3651</v>
+        <v>8.4410000000000007</v>
       </c>
       <c r="G15" s="2">
-        <v>7.3651</v>
+        <v>7.4409999999999998</v>
       </c>
       <c r="H15" s="2">
-        <v>0.27289999999999998</v>
+        <v>0.27310000000000001</v>
       </c>
       <c r="I15" s="2">
         <v>-0.22470000000000001</v>
       </c>
       <c r="J15" s="2">
-        <v>0.1668</v>
+        <v>0.1666</v>
       </c>
       <c r="K15">
         <v>1.52</v>
@@ -1608,13 +1611,13 @@
         <v>7.0199999999999999E-2</v>
       </c>
       <c r="R15" s="2">
-        <v>9.1999999999999998E-2</v>
+        <v>0.1019</v>
       </c>
       <c r="S15" s="2">
-        <v>-1.0500000000000001E-2</v>
+        <v>-1.5E-3</v>
       </c>
       <c r="T15" s="2">
-        <v>-5.1499999999999997E-2</v>
+        <v>-1.23E-2</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1628,22 +1631,22 @@
         <v>22</v>
       </c>
       <c r="F16">
-        <v>2.4845999999999999</v>
+        <v>2.5289999999999999</v>
       </c>
       <c r="G16" s="2">
-        <v>1.4845999999999999</v>
+        <v>1.5289999999999999</v>
       </c>
       <c r="H16" s="2">
-        <v>0.14299999999999999</v>
+        <v>0.14530000000000001</v>
       </c>
       <c r="I16" s="2">
         <v>-0.1699</v>
       </c>
       <c r="J16" s="2">
-        <v>8.9099999999999999E-2</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="K16">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="L16" s="2">
         <v>0.18540000000000001</v>
@@ -1664,13 +1667,13 @@
         <v>0.19109999999999999</v>
       </c>
       <c r="R16" s="2">
-        <v>0.16109999999999999</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="S16" s="2">
-        <v>2.8500000000000001E-2</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="T16" s="2">
-        <v>-1.8100000000000002E-2</v>
+        <v>-8.3999999999999995E-3</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1684,22 +1687,22 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>2.2027999999999999</v>
+        <v>2.2225000000000001</v>
       </c>
       <c r="G17" s="2">
-        <v>1.2028000000000001</v>
+        <v>1.2224999999999999</v>
       </c>
       <c r="H17" s="2">
-        <v>9.6299999999999997E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="I17" s="2">
         <v>-0.129</v>
       </c>
       <c r="J17" s="2">
-        <v>9.5699999999999993E-2</v>
+        <v>9.5600000000000004E-2</v>
       </c>
       <c r="K17">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="L17" s="2">
         <v>2.87E-2</v>
@@ -1720,13 +1723,13 @@
         <v>0.17680000000000001</v>
       </c>
       <c r="R17" s="2">
-        <v>7.6799999999999993E-2</v>
+        <v>8.6499999999999994E-2</v>
       </c>
       <c r="S17" s="2">
-        <v>1.24E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="T17" s="2">
-        <v>-1.41E-2</v>
+        <v>-6.3E-3</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1740,28 +1743,28 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>1.4336</v>
+        <v>1.4407000000000001</v>
       </c>
       <c r="E18">
-        <v>1.5165</v>
+        <v>1.5116000000000001</v>
       </c>
       <c r="F18">
-        <v>1.5291999999999999</v>
+        <v>1.5241</v>
       </c>
       <c r="G18" s="2">
-        <v>0.52900000000000003</v>
+        <v>0.52390000000000003</v>
       </c>
       <c r="H18" s="2">
-        <v>0.15459999999999999</v>
+        <v>0.1515</v>
       </c>
       <c r="I18" s="2">
         <v>-6.0900000000000003E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>6.5699999999999995E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="K18">
-        <v>2.0499999999999998</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="P18" s="2">
         <v>0.13139999999999999</v>
@@ -1770,13 +1773,13 @@
         <v>0.25459999999999999</v>
       </c>
       <c r="R18" s="2">
-        <v>7.7200000000000005E-2</v>
+        <v>7.3599999999999999E-2</v>
       </c>
       <c r="S18" s="2">
-        <v>1.78E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="T18" s="2">
-        <v>3.0999999999999999E-3</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1790,34 +1793,34 @@
         <v>22</v>
       </c>
       <c r="F19">
-        <v>1.2928999999999999</v>
+        <v>1.3141</v>
       </c>
       <c r="G19" s="2">
-        <v>0.29459999999999997</v>
+        <v>0.31580000000000003</v>
       </c>
       <c r="H19" s="2">
-        <v>0.1411</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="I19" s="2">
         <v>-5.8500000000000003E-2</v>
       </c>
       <c r="J19" s="2">
-        <v>8.3000000000000004E-2</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="K19">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="Q19" s="2">
         <v>0.20979999999999999</v>
       </c>
       <c r="R19" s="2">
-        <v>7.0099999999999996E-2</v>
+        <v>8.77E-2</v>
       </c>
       <c r="S19" s="2">
-        <v>9.2999999999999992E-3</v>
+        <v>2.58E-2</v>
       </c>
       <c r="T19" s="2">
-        <v>-1.77E-2</v>
+        <v>-1.04E-2</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1831,40 +1834,40 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>1.1153</v>
+        <v>1.1472</v>
       </c>
       <c r="E20">
-        <v>1.1153</v>
+        <v>1.1472</v>
       </c>
       <c r="F20">
-        <v>1.1153</v>
+        <v>1.1472</v>
       </c>
       <c r="G20" s="2">
-        <v>0.1154</v>
+        <v>0.14729999999999999</v>
       </c>
       <c r="H20" s="2">
-        <v>8.3500000000000005E-2</v>
+        <v>0.1036</v>
       </c>
       <c r="I20" s="2">
         <v>-2.8899999999999999E-2</v>
       </c>
       <c r="J20" s="2">
-        <v>6.1400000000000003E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="K20">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="Q20" s="2">
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="R20" s="2">
-        <v>0.1061</v>
+        <v>0.13780000000000001</v>
       </c>
       <c r="S20" s="2">
-        <v>1.49E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="T20" s="2">
-        <v>-6.7999999999999996E-3</v>
+        <v>-1.15E-2</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -1890,13 +1893,13 @@
         <v>1.4116</v>
       </c>
       <c r="H21" s="2">
-        <v>0.13719999999999999</v>
+        <v>0.13650000000000001</v>
       </c>
       <c r="I21" s="2">
         <v>-0.14050000000000001</v>
       </c>
       <c r="J21" s="2">
-        <v>0.10539999999999999</v>
+        <v>0.1051</v>
       </c>
       <c r="K21">
         <v>1.1100000000000001</v>
@@ -1926,7 +1929,7 @@
         <v>2.12E-2</v>
       </c>
       <c r="T21" s="2">
-        <v>-1.01E-2</v>
+        <v>-1.5E-3</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -1940,19 +1943,19 @@
         <v>22</v>
       </c>
       <c r="D22">
-        <v>3.113</v>
+        <v>3.1219999999999999</v>
       </c>
       <c r="E22">
-        <v>3.113</v>
+        <v>3.1219999999999999</v>
       </c>
       <c r="F22">
-        <v>3.113</v>
+        <v>3.1219999999999999</v>
       </c>
       <c r="G22" s="2">
-        <v>2.113</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="H22" s="2">
-        <v>0.1187</v>
+        <v>0.1186</v>
       </c>
       <c r="I22" s="2">
         <v>-0.1459</v>
@@ -1982,13 +1985,13 @@
         <v>1.35E-2</v>
       </c>
       <c r="R22" s="2">
-        <v>9.0399999999999994E-2</v>
+        <v>9.35E-2</v>
       </c>
       <c r="S22" s="2">
-        <v>3.6999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="T22" s="2">
-        <v>-1.2999999999999999E-3</v>
+        <v>-1.4800000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2002,22 +2005,22 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>1.6379999999999999</v>
+        <v>1.6513</v>
       </c>
       <c r="G23" s="2">
-        <v>0.63800000000000001</v>
+        <v>0.65129999999999999</v>
       </c>
       <c r="H23" s="2">
-        <v>0.19869999999999999</v>
+        <v>0.1996</v>
       </c>
       <c r="I23" s="2">
         <v>-0.1152</v>
       </c>
       <c r="J23" s="2">
-        <v>0.15029999999999999</v>
+        <v>0.14940000000000001</v>
       </c>
       <c r="K23">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P23" s="2">
         <v>-2.5700000000000001E-2</v>
@@ -2026,13 +2029,13 @@
         <v>0.34970000000000001</v>
       </c>
       <c r="R23" s="2">
-        <v>0.24560000000000001</v>
+        <v>0.25569999999999998</v>
       </c>
       <c r="S23" s="2">
-        <v>7.0400000000000004E-2</v>
+        <v>7.9100000000000004E-2</v>
       </c>
       <c r="T23" s="2">
-        <v>-5.1999999999999998E-3</v>
+        <v>-2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2046,22 +2049,22 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>3.8149999999999999</v>
+        <v>3.7033999999999998</v>
       </c>
       <c r="G24" s="2">
-        <v>2.8153999999999999</v>
+        <v>2.7038000000000002</v>
       </c>
       <c r="H24" s="2">
-        <v>0.23880000000000001</v>
+        <v>0.2316</v>
       </c>
       <c r="I24" s="2">
         <v>-0.33250000000000002</v>
       </c>
       <c r="J24" s="2">
-        <v>0.1588</v>
+        <v>0.15909999999999999</v>
       </c>
       <c r="K24">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="L24" s="2">
         <v>-1.9E-3</v>
@@ -2082,13 +2085,13 @@
         <v>0.29699999999999999</v>
       </c>
       <c r="R24" s="2">
-        <v>0.45569999999999999</v>
+        <v>0.41310000000000002</v>
       </c>
       <c r="S24" s="2">
-        <v>4.9099999999999998E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="T24" s="2">
-        <v>-3.04E-2</v>
+        <v>-3.4700000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2102,22 +2105,22 @@
         <v>22</v>
       </c>
       <c r="F25">
-        <v>7.8502999999999998</v>
+        <v>8.7030999999999992</v>
       </c>
       <c r="G25" s="2">
-        <v>6.8502999999999998</v>
+        <v>7.7031000000000001</v>
       </c>
       <c r="H25" s="2">
-        <v>0.33350000000000002</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="I25" s="2">
         <v>-0.1348</v>
       </c>
       <c r="J25" s="2">
-        <v>0.1668</v>
+        <v>0.16850000000000001</v>
       </c>
       <c r="K25">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="L25" s="2">
         <v>0.43709999999999999</v>
@@ -2138,13 +2141,13 @@
         <v>0.68289999999999995</v>
       </c>
       <c r="R25" s="2">
-        <v>0.57240000000000002</v>
+        <v>0.74319999999999997</v>
       </c>
       <c r="S25" s="2">
-        <v>1.9900000000000001E-2</v>
+        <v>0.13070000000000001</v>
       </c>
       <c r="T25" s="2">
-        <v>-8.3000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2158,19 +2161,19 @@
         <v>22</v>
       </c>
       <c r="F26">
-        <v>1.522</v>
+        <v>1.5339</v>
       </c>
       <c r="G26" s="2">
-        <v>0.5222</v>
+        <v>0.53410000000000002</v>
       </c>
       <c r="H26" s="2">
-        <v>0.1384</v>
+        <v>0.1396</v>
       </c>
       <c r="I26" s="2">
         <v>-4.0899999999999999E-2</v>
       </c>
       <c r="J26" s="2">
-        <v>7.8200000000000006E-2</v>
+        <v>7.9100000000000004E-2</v>
       </c>
       <c r="K26">
         <v>1.51</v>
@@ -2185,13 +2188,13 @@
         <v>0.1807</v>
       </c>
       <c r="R26" s="2">
-        <v>0.1525</v>
+        <v>0.1615</v>
       </c>
       <c r="S26" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="T26" s="2">
-        <v>-1.14E-2</v>
+        <v>-1.4800000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2202,31 +2205,31 @@
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D27">
-        <v>1.0998000000000001</v>
+        <v>1.0952</v>
       </c>
       <c r="E27">
-        <v>2.5617000000000001</v>
+        <v>2.5571000000000002</v>
       </c>
       <c r="F27">
-        <v>3.4756999999999998</v>
+        <v>3.4611999999999998</v>
       </c>
       <c r="G27" s="2">
-        <v>2.4756999999999998</v>
+        <v>2.4611999999999998</v>
       </c>
       <c r="H27" s="2">
-        <v>0.1983</v>
+        <v>0.19670000000000001</v>
       </c>
       <c r="I27" s="2">
         <v>-0.16869999999999999</v>
       </c>
       <c r="J27" s="2">
-        <v>0.10639999999999999</v>
+        <v>0.1062</v>
       </c>
       <c r="K27">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="L27" s="2">
         <v>0.13950000000000001</v>
@@ -2247,39 +2250,39 @@
         <v>0.27979999999999999</v>
       </c>
       <c r="R27" s="2">
-        <v>0.28920000000000001</v>
+        <v>0.2838</v>
       </c>
       <c r="S27" s="2">
-        <v>5.4300000000000001E-2</v>
+        <v>4.99E-2</v>
       </c>
       <c r="T27" s="2">
-        <v>3.8999999999999998E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="F28">
-        <v>3.8967000000000001</v>
+        <v>3.9260999999999999</v>
       </c>
       <c r="G28" s="2">
-        <v>2.8967000000000001</v>
+        <v>2.9260999999999999</v>
       </c>
       <c r="H28" s="2">
-        <v>0.1956</v>
+        <v>0.19589999999999999</v>
       </c>
       <c r="I28" s="2">
         <v>-5.9499999999999997E-2</v>
       </c>
       <c r="J28" s="2">
-        <v>7.3700000000000002E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="K28">
         <v>2.38</v>
@@ -2303,48 +2306,48 @@
         <v>0.11210000000000001</v>
       </c>
       <c r="R28" s="2">
-        <v>9.35E-2</v>
+        <v>0.1017</v>
       </c>
       <c r="S28" s="2">
-        <v>1.6799999999999999E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="T28" s="2">
-        <v>5.4999999999999997E-3</v>
+        <v>-1.3299999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29">
-        <v>1.1596</v>
+        <v>1.1592</v>
       </c>
       <c r="E29">
-        <v>1.3158000000000001</v>
+        <v>1.3153999999999999</v>
       </c>
       <c r="F29">
-        <v>1.32</v>
+        <v>1.3196000000000001</v>
       </c>
       <c r="G29" s="2">
-        <v>0.31990000000000002</v>
+        <v>0.31950000000000001</v>
       </c>
       <c r="H29" s="2">
-        <v>0.1106</v>
+        <v>0.109</v>
       </c>
       <c r="I29" s="2">
         <v>-8.9999999999999993E-3</v>
       </c>
       <c r="J29" s="2">
-        <v>9.4500000000000001E-2</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="K29">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="P29" s="2">
         <v>1.9699999999999999E-2</v>
@@ -2353,42 +2356,42 @@
         <v>0.2681</v>
       </c>
       <c r="R29" s="2">
-        <v>2.07E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="S29" s="2">
-        <v>-2.0000000000000001E-4</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="T29" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="F30">
-        <v>1.7839</v>
+        <v>1.8138000000000001</v>
       </c>
       <c r="G30" s="2">
-        <v>0.78390000000000004</v>
+        <v>0.81379999999999997</v>
       </c>
       <c r="H30" s="2">
-        <v>0.13150000000000001</v>
+        <v>0.13450000000000001</v>
       </c>
       <c r="I30" s="2">
         <v>-0.1401</v>
       </c>
       <c r="J30" s="2">
-        <v>8.9399999999999993E-2</v>
+        <v>8.9099999999999999E-2</v>
       </c>
       <c r="K30">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="N30" s="2">
         <v>0.12939999999999999</v>
@@ -2403,95 +2406,95 @@
         <v>0.1207</v>
       </c>
       <c r="R30" s="2">
-        <v>5.5199999999999999E-2</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="S30" s="2">
-        <v>6.3E-3</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="T30" s="2">
-        <v>1.5E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
       </c>
       <c r="D31">
-        <v>1.0526</v>
+        <v>1.052</v>
       </c>
       <c r="E31">
-        <v>1.0526</v>
+        <v>1.052</v>
       </c>
       <c r="F31">
-        <v>1.0526</v>
+        <v>1.052</v>
       </c>
       <c r="G31" s="2">
-        <v>5.2600000000000001E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H31" s="2">
-        <v>2.98E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="I31" s="2">
         <v>-2.8899999999999999E-2</v>
       </c>
       <c r="J31" s="2">
-        <v>3.15E-2</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="K31">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q31" s="2">
         <v>2.6800000000000001E-2</v>
       </c>
       <c r="R31" s="2">
-        <v>2.5100000000000001E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="S31" s="2">
-        <v>2.3E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="T31" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
       </c>
       <c r="D32">
-        <v>1.117</v>
+        <v>1.1240000000000001</v>
       </c>
       <c r="E32">
-        <v>2.117</v>
+        <v>2.1240000000000001</v>
       </c>
       <c r="F32">
-        <v>2.1778</v>
+        <v>2.1913999999999998</v>
       </c>
       <c r="G32" s="2">
-        <v>1.1778</v>
+        <v>1.1914</v>
       </c>
       <c r="H32" s="2">
-        <v>9.4600000000000004E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I32" s="2">
         <v>-0.11559999999999999</v>
       </c>
       <c r="J32" s="2">
-        <v>0.1077</v>
+        <v>0.1075</v>
       </c>
       <c r="K32">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="L32" s="2">
         <v>0.10929999999999999</v>
@@ -2512,45 +2515,45 @@
         <v>0.1653</v>
       </c>
       <c r="R32" s="2">
-        <v>-5.6599999999999998E-2</v>
+        <v>-5.0700000000000002E-2</v>
       </c>
       <c r="S32" s="2">
-        <v>1.55E-2</v>
+        <v>2.18E-2</v>
       </c>
       <c r="T32" s="2">
-        <v>-2.1899999999999999E-2</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
       <c r="D33">
-        <v>1.135</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="E33">
-        <v>1.6459999999999999</v>
+        <v>1.647</v>
       </c>
       <c r="F33">
-        <v>1.8112999999999999</v>
+        <v>1.8129</v>
       </c>
       <c r="G33" s="2">
-        <v>0.81130000000000002</v>
+        <v>0.81289999999999996</v>
       </c>
       <c r="H33" s="2">
-        <v>0.1115</v>
+        <v>0.111</v>
       </c>
       <c r="I33" s="2">
         <v>-3.7900000000000003E-2</v>
       </c>
       <c r="J33" s="2">
-        <v>4.3299999999999998E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="K33">
         <v>2.11</v>
@@ -2571,83 +2574,83 @@
         <v>0.15609999999999999</v>
       </c>
       <c r="R33" s="2">
-        <v>7.5399999999999995E-2</v>
+        <v>7.6399999999999996E-2</v>
       </c>
       <c r="S33" s="2">
-        <v>1.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="T33" s="2">
-        <v>-2.5999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
       </c>
       <c r="F34">
-        <v>1.0778000000000001</v>
+        <v>1.0763</v>
       </c>
       <c r="G34" s="2">
-        <v>7.7899999999999997E-2</v>
+        <v>7.6399999999999996E-2</v>
       </c>
       <c r="H34" s="2">
-        <v>5.3499999999999999E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="I34" s="2">
         <v>-1.35E-2</v>
       </c>
       <c r="J34" s="2">
-        <v>2.4299999999999999E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="K34">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="Q34" s="2">
         <v>2.4799999999999999E-2</v>
       </c>
       <c r="R34" s="2">
-        <v>5.1799999999999999E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="S34" s="2">
-        <v>-5.0000000000000001E-4</v>
+        <v>-1.9E-3</v>
       </c>
       <c r="T34" s="2">
-        <v>-1E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
       </c>
       <c r="F35">
-        <v>1.2827999999999999</v>
+        <v>1.2754000000000001</v>
       </c>
       <c r="G35" s="2">
-        <v>0.28270000000000001</v>
+        <v>0.27529999999999999</v>
       </c>
       <c r="H35" s="2">
-        <v>6.88E-2</v>
+        <v>6.6600000000000006E-2</v>
       </c>
       <c r="I35" s="2">
         <v>-1.4E-2</v>
       </c>
       <c r="J35" s="2">
-        <v>2.24E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="K35">
-        <v>2.1800000000000002</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="O35" s="2">
         <v>8.1199999999999994E-2</v>
@@ -2659,17 +2662,17 @@
         <v>7.5399999999999995E-2</v>
       </c>
       <c r="R35" s="2">
-        <v>5.6399999999999999E-2</v>
+        <v>5.0299999999999997E-2</v>
       </c>
       <c r="S35" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>-2.7000000000000001E-3</v>
       </c>
       <c r="T35" s="2">
-        <v>1.5E-3</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2741,7 +2744,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -2749,13 +2752,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>1.1288</v>
@@ -2799,13 +2802,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
       </c>
       <c r="F3">
         <v>1.4081999999999999</v>
@@ -2843,13 +2846,13 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4">
         <v>1.2196</v>
@@ -2884,13 +2887,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5">
         <v>1.1915</v>
@@ -2925,13 +2928,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6">
         <v>1.145</v>
@@ -2966,13 +2969,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>1.2053</v>
@@ -3013,13 +3016,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>1.2565999999999999</v>
@@ -3057,13 +3060,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F9">
         <v>1.8640000000000001</v>
@@ -3113,13 +3116,13 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10">
         <v>1.5903</v>
@@ -3169,13 +3172,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F11">
         <v>1.506</v>
@@ -3219,13 +3222,13 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F12">
         <v>1.3648</v>
@@ -3266,13 +3269,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13">
         <v>1.248</v>
@@ -3313,13 +3316,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14">
         <v>1.9917</v>
@@ -3360,13 +3363,13 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D15">
         <v>1.1575</v>
@@ -3410,13 +3413,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16">
         <v>1.1996</v>
@@ -3457,13 +3460,13 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F17">
         <v>2.3130000000000002</v>
@@ -3513,13 +3516,13 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18">
         <v>1.2488999999999999</v>
@@ -3557,13 +3560,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19">
         <v>1.4039999999999999</v>
@@ -3601,13 +3604,13 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F20">
         <v>1.1855</v>
@@ -3645,13 +3648,13 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21">
         <v>1.248</v>
@@ -3689,13 +3692,13 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>2.0567000000000002</v>
@@ -3738,7 +3741,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yueku\Desktop\VScode\Private_nav_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA9DA0F-D51C-4522-8853-FBB1AE6C4323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2448D66-EC19-45E8-84AB-99BFB31D0CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="287">
   <si>
     <t>基金产品</t>
   </si>
@@ -92,121 +92,484 @@
     <t>2025-12-31</t>
   </si>
   <si>
+    <t>501.42%</t>
+  </si>
+  <si>
+    <t>27.77%</t>
+  </si>
+  <si>
+    <t>-17.73%</t>
+  </si>
+  <si>
+    <t>19.33%</t>
+  </si>
+  <si>
     <t>草本致远1号</t>
   </si>
   <si>
     <t>2020-11-06</t>
   </si>
   <si>
+    <t>555.29%</t>
+  </si>
+  <si>
+    <t>44.02%</t>
+  </si>
+  <si>
+    <t>-26.67%</t>
+  </si>
+  <si>
+    <t>30.56%</t>
+  </si>
+  <si>
     <t>观理摘金稳健1号</t>
   </si>
   <si>
     <t>2022-05-13</t>
   </si>
   <si>
+    <t>174.43%</t>
+  </si>
+  <si>
+    <t>31.98%</t>
+  </si>
+  <si>
+    <t>-12.75%</t>
+  </si>
+  <si>
+    <t>14.17%</t>
+  </si>
+  <si>
+    <t>宁水国债宝2号</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>263.88%</t>
+  </si>
+  <si>
+    <t>25.87%</t>
+  </si>
+  <si>
+    <t>-16.59%</t>
+  </si>
+  <si>
+    <t>19.36%</t>
+  </si>
+  <si>
+    <t>孚盈进取一号</t>
+  </si>
+  <si>
+    <t>2021-07-23</t>
+  </si>
+  <si>
+    <t>1288.79%</t>
+  </si>
+  <si>
+    <t>80.77%</t>
+  </si>
+  <si>
+    <t>-49.86%</t>
+  </si>
+  <si>
+    <t>61.34%</t>
+  </si>
+  <si>
+    <t>嘉鸿合盈10号</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>90.82%</t>
+  </si>
+  <si>
+    <t>18.79%</t>
+  </si>
+  <si>
+    <t>-13.16%</t>
+  </si>
+  <si>
+    <t>15.49%</t>
+  </si>
+  <si>
+    <t>8.94%</t>
+  </si>
+  <si>
     <t>千衍六贞1号</t>
   </si>
   <si>
     <t>2023-10-27</t>
   </si>
   <si>
+    <t>48.85%</t>
+  </si>
+  <si>
+    <t>20.01%</t>
+  </si>
+  <si>
+    <t>-4.59%</t>
+  </si>
+  <si>
+    <t>8.46%</t>
+  </si>
+  <si>
     <t>细水居20号</t>
   </si>
   <si>
     <t>2022-08-26</t>
   </si>
   <si>
+    <t>198.34%</t>
+  </si>
+  <si>
+    <t>38.57%</t>
+  </si>
+  <si>
+    <t>-15.64%</t>
+  </si>
+  <si>
+    <t>20.05%</t>
+  </si>
+  <si>
     <t>东海龙王一号</t>
   </si>
   <si>
     <t>2018-06-08</t>
   </si>
   <si>
+    <t>383.92%</t>
+  </si>
+  <si>
+    <t>23.16%</t>
+  </si>
+  <si>
+    <t>-17.79%</t>
+  </si>
+  <si>
+    <t>15.35%</t>
+  </si>
+  <si>
+    <t>15.91%</t>
+  </si>
+  <si>
     <t>黑翼CTA8号</t>
   </si>
   <si>
     <t>2018-10-19</t>
   </si>
   <si>
+    <t>129.03%</t>
+  </si>
+  <si>
+    <t>12.19%</t>
+  </si>
+  <si>
+    <t>-8.30%</t>
+  </si>
+  <si>
+    <t>7.32%</t>
+  </si>
+  <si>
     <t>众壹资产量合专享5号</t>
   </si>
   <si>
     <t>2022-10-21</t>
   </si>
   <si>
+    <t>25.13%</t>
+  </si>
+  <si>
+    <t>7.26%</t>
+  </si>
+  <si>
+    <t>-10.85%</t>
+  </si>
+  <si>
+    <t>9.23%</t>
+  </si>
+  <si>
     <t>弘源多元化CTA</t>
   </si>
   <si>
     <t>2020-09-11</t>
   </si>
   <si>
+    <t>58.00%</t>
+  </si>
+  <si>
+    <t>9.00%</t>
+  </si>
+  <si>
+    <t>-7.73%</t>
+  </si>
+  <si>
+    <t>8.22%</t>
+  </si>
+  <si>
     <t>闻道稳健2号</t>
   </si>
   <si>
     <t>2022-10-28</t>
   </si>
   <si>
+    <t>17.80%</t>
+  </si>
+  <si>
+    <t>5.29%</t>
+  </si>
+  <si>
+    <t>-6.31%</t>
+  </si>
+  <si>
+    <t>7.40%</t>
+  </si>
+  <si>
     <t>旭诺CTA三号</t>
   </si>
   <si>
     <t>2019-06-06</t>
   </si>
   <si>
+    <t>230.38%</t>
+  </si>
+  <si>
+    <t>19.93%</t>
+  </si>
+  <si>
+    <t>-18.43%</t>
+  </si>
+  <si>
+    <t>19.76%</t>
+  </si>
+  <si>
+    <t>-5.85%</t>
+  </si>
+  <si>
     <t>宏锡量化CTA7号</t>
   </si>
   <si>
     <t>2017-02-17</t>
   </si>
   <si>
+    <t>240.17%</t>
+  </si>
+  <si>
+    <t>14.79%</t>
+  </si>
+  <si>
+    <t>-16.54%</t>
+  </si>
+  <si>
+    <t>14.13%</t>
+  </si>
+  <si>
     <t>鼎一兑弈量化</t>
   </si>
   <si>
     <t>2019-03-01</t>
   </si>
   <si>
+    <t>119.66%</t>
+  </si>
+  <si>
+    <t>-9.99%</t>
+  </si>
+  <si>
+    <t>11.13%</t>
+  </si>
+  <si>
+    <t>-1.35%</t>
+  </si>
+  <si>
     <t>均成CTA1号</t>
   </si>
   <si>
     <t>2017-03-03</t>
   </si>
   <si>
+    <t>744.10%</t>
+  </si>
+  <si>
+    <t>27.31%</t>
+  </si>
+  <si>
+    <t>-22.47%</t>
+  </si>
+  <si>
+    <t>16.66%</t>
+  </si>
+  <si>
+    <t>宏锡截面量化CTA1号</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>68.84%</t>
+  </si>
+  <si>
+    <t>12.86%</t>
+  </si>
+  <si>
+    <t>-10.63%</t>
+  </si>
+  <si>
+    <t>12.03%</t>
+  </si>
+  <si>
     <t>会世泰和CTA1号</t>
   </si>
   <si>
+    <t>152.90%</t>
+  </si>
+  <si>
+    <t>14.53%</t>
+  </si>
+  <si>
+    <t>-16.99%</t>
+  </si>
+  <si>
     <t>千象15期</t>
   </si>
   <si>
     <t>2017-05-19</t>
   </si>
   <si>
+    <t>122.25%</t>
+  </si>
+  <si>
+    <t>9.70%</t>
+  </si>
+  <si>
+    <t>-12.90%</t>
+  </si>
+  <si>
+    <t>9.56%</t>
+  </si>
+  <si>
     <t>安贤CTA量化一号</t>
   </si>
   <si>
     <t>2023-01-06</t>
   </si>
   <si>
+    <t>52.39%</t>
+  </si>
+  <si>
+    <t>15.15%</t>
+  </si>
+  <si>
+    <t>-6.09%</t>
+  </si>
+  <si>
+    <t>6.57%</t>
+  </si>
+  <si>
     <t>量派CTA一号</t>
   </si>
   <si>
     <t>2024-01-05</t>
   </si>
   <si>
+    <t>31.58%</t>
+  </si>
+  <si>
+    <t>14.80%</t>
+  </si>
+  <si>
+    <t>8.45%</t>
+  </si>
+  <si>
     <t>铭跃行远均衡专享十三号</t>
   </si>
   <si>
     <t>2024-08-09</t>
   </si>
   <si>
-    <t>文谛量化优选三号</t>
-  </si>
-  <si>
-    <t>2019-02-15</t>
-  </si>
-  <si>
-    <t>远澜云杉</t>
-  </si>
-  <si>
-    <t>2015-11-06</t>
+    <t>14.73%</t>
+  </si>
+  <si>
+    <t>10.36%</t>
+  </si>
+  <si>
+    <t>-2.89%</t>
+  </si>
+  <si>
+    <t>6.97%</t>
+  </si>
+  <si>
+    <t>文谛量化臻选九号</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>131.28%</t>
+  </si>
+  <si>
+    <t>16.17%</t>
+  </si>
+  <si>
+    <t>-16.88%</t>
+  </si>
+  <si>
+    <t>11.96%</t>
+  </si>
+  <si>
+    <t>远澜红枫1号</t>
+  </si>
+  <si>
+    <t>2016-06-08</t>
+  </si>
+  <si>
+    <t>489.47%</t>
+  </si>
+  <si>
+    <t>20.37%</t>
+  </si>
+  <si>
+    <t>-12.71%</t>
+  </si>
+  <si>
+    <t>19.67%</t>
+  </si>
+  <si>
+    <t>因诺CTA2号</t>
+  </si>
+  <si>
+    <t>2022-09-23</t>
+  </si>
+  <si>
+    <t>53.41%</t>
+  </si>
+  <si>
+    <t>13.96%</t>
+  </si>
+  <si>
+    <t>-4.09%</t>
+  </si>
+  <si>
+    <t>7.91%</t>
+  </si>
+  <si>
+    <t>融成上九点金二号</t>
+  </si>
+  <si>
+    <t>2018-10-24</t>
+  </si>
+  <si>
+    <t>770.31%</t>
+  </si>
+  <si>
+    <t>35.10%</t>
+  </si>
+  <si>
+    <t>-13.48%</t>
+  </si>
+  <si>
+    <t>16.85%</t>
   </si>
   <si>
     <t>博衍九溪CTA1号</t>
@@ -215,22 +578,28 @@
     <t>2023-03-31</t>
   </si>
   <si>
+    <t>65.13%</t>
+  </si>
+  <si>
+    <t>19.96%</t>
+  </si>
+  <si>
+    <t>-11.52%</t>
+  </si>
+  <si>
+    <t>14.94%</t>
+  </si>
+  <si>
     <t>洛书瑞盈建兴</t>
   </si>
   <si>
     <t>2019-09-20</t>
   </si>
   <si>
-    <t>融成上九点金二号</t>
-  </si>
-  <si>
-    <t>2018-10-24</t>
-  </si>
-  <si>
-    <t>因诺CTA2号</t>
-  </si>
-  <si>
-    <t>2022-09-23</t>
+    <t>270.38%</t>
+  </si>
+  <si>
+    <t>-33.25%</t>
   </si>
   <si>
     <t>瑞达期货-瑞智无忧共赢7号</t>
@@ -239,7 +608,16 @@
     <t>2019-01-31</t>
   </si>
   <si>
-    <t>2025-12-29</t>
+    <t>244.22%</t>
+  </si>
+  <si>
+    <t>19.56%</t>
+  </si>
+  <si>
+    <t>-16.87%</t>
+  </si>
+  <si>
+    <t>10.66%</t>
   </si>
   <si>
     <t>旌安1号</t>
@@ -248,28 +626,64 @@
     <t>2018-05-11</t>
   </si>
   <si>
+    <t>292.61%</t>
+  </si>
+  <si>
+    <t>19.59%</t>
+  </si>
+  <si>
+    <t>-5.95%</t>
+  </si>
+  <si>
     <t>金和和善对冲5号</t>
   </si>
   <si>
     <t>2023-04-28</t>
   </si>
   <si>
+    <t>31.95%</t>
+  </si>
+  <si>
+    <t>10.90%</t>
+  </si>
+  <si>
+    <t>-0.90%</t>
+  </si>
+  <si>
+    <t>9.38%</t>
+  </si>
+  <si>
     <t>星恒哲萌1号</t>
   </si>
   <si>
     <t>2021-04-14</t>
   </si>
   <si>
+    <t>81.38%</t>
+  </si>
+  <si>
+    <t>13.45%</t>
+  </si>
+  <si>
+    <t>-14.01%</t>
+  </si>
+  <si>
+    <t>8.91%</t>
+  </si>
+  <si>
     <t>博普安兴私享一号B类</t>
   </si>
   <si>
     <t>2024-03-22</t>
   </si>
   <si>
-    <t>远澜翠柏1号</t>
-  </si>
-  <si>
-    <t>2017-05-12</t>
+    <t>5.20%</t>
+  </si>
+  <si>
+    <t>2.89%</t>
+  </si>
+  <si>
+    <t>3.12%</t>
   </si>
   <si>
     <t>爱凡哲睿哲</t>
@@ -278,16 +692,67 @@
     <t>2020-05-08</t>
   </si>
   <si>
+    <t>81.28%</t>
+  </si>
+  <si>
+    <t>11.10%</t>
+  </si>
+  <si>
+    <t>-3.79%</t>
+  </si>
+  <si>
+    <t>4.32%</t>
+  </si>
+  <si>
     <t>铭杉量化稳健7号</t>
   </si>
   <si>
     <t>2024-07-12</t>
   </si>
   <si>
+    <t>7.64%</t>
+  </si>
+  <si>
+    <t>5.13%</t>
+  </si>
+  <si>
+    <t>2.52%</t>
+  </si>
+  <si>
     <t>致同添利套利多策略</t>
   </si>
   <si>
     <t>2022-03-25</t>
+  </si>
+  <si>
+    <t>27.53%</t>
+  </si>
+  <si>
+    <t>6.66%</t>
+  </si>
+  <si>
+    <t>-1.40%</t>
+  </si>
+  <si>
+    <t>2.25%</t>
+  </si>
+  <si>
+    <t>晨翰6号</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>40.17%</t>
+  </si>
+  <si>
+    <t>8.89%</t>
+  </si>
+  <si>
+    <t>-3.88%</t>
+  </si>
+  <si>
+    <t>5.07%</t>
   </si>
   <si>
     <t>11月收益</t>
@@ -784,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -864,26 +1329,20 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="E2">
-        <v>3.629</v>
-      </c>
       <c r="F2">
         <v>6.0141999999999998</v>
       </c>
-      <c r="G2" s="2">
-        <v>5.0141999999999998</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.2777</v>
-      </c>
-      <c r="I2" s="2">
-        <v>-0.17730000000000001</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.1933</v>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
       </c>
       <c r="K2">
         <v>1.33</v>
@@ -918,34 +1377,28 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="E3">
-        <v>3.536</v>
-      </c>
       <c r="F3">
         <v>6.5529000000000002</v>
       </c>
-      <c r="G3" s="2">
-        <v>5.5529000000000002</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.44019999999999998</v>
-      </c>
-      <c r="I3" s="2">
-        <v>-0.26669999999999999</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.30549999999999999</v>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
       </c>
       <c r="K3">
         <v>1.38</v>
@@ -960,10 +1413,10 @@
         <v>0.94040000000000001</v>
       </c>
       <c r="P3" s="2">
-        <v>0.29339999999999999</v>
+        <v>0.29330000000000001</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.60940000000000005</v>
+        <v>0.60950000000000004</v>
       </c>
       <c r="R3" s="2">
         <v>0.42559999999999998</v>
@@ -977,10 +1430,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -988,17 +1441,17 @@
       <c r="F4">
         <v>2.7437999999999998</v>
       </c>
-      <c r="G4" s="2">
-        <v>1.7443</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.31979999999999997</v>
-      </c>
-      <c r="I4" s="2">
-        <v>-0.1275</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.14169999999999999</v>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
       </c>
       <c r="K4">
         <v>2.12</v>
@@ -1024,1651 +1477,1767 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="F5">
-        <v>1.4887999999999999</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.48849999999999999</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.2001</v>
-      </c>
-      <c r="I5" s="2">
-        <v>-4.5900000000000003E-2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>8.4599999999999995E-2</v>
+        <v>3.6387999999999998</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>2.13</v>
+        <v>1.23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.12740000000000001</v>
       </c>
       <c r="P5" s="2">
-        <v>2.0199999999999999E-2</v>
+        <v>0.36159999999999998</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.22869999999999999</v>
+        <v>0.39750000000000002</v>
       </c>
       <c r="R5" s="2">
-        <v>0.18740000000000001</v>
+        <v>-0.1031</v>
       </c>
       <c r="S5" s="2">
-        <v>-3.7000000000000002E-3</v>
+        <v>-5.5500000000000001E-2</v>
       </c>
       <c r="T5" s="2">
-        <v>-6.8999999999999999E-3</v>
+        <v>-3.3500000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="F6">
-        <v>2.9834000000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.9834000000000001</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.38569999999999999</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-0.15640000000000001</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.20050000000000001</v>
+        <v>13.8879</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>1.82</v>
+        <v>1.28</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.1103</v>
       </c>
       <c r="O6" s="2">
-        <v>3.1099999999999999E-2</v>
+        <v>1.8473999999999999</v>
       </c>
       <c r="P6" s="2">
-        <v>0.26960000000000001</v>
+        <v>1.1771</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.47220000000000001</v>
+        <v>0.12540000000000001</v>
       </c>
       <c r="R6" s="2">
-        <v>0.54800000000000004</v>
+        <v>0.79290000000000005</v>
       </c>
       <c r="S6" s="2">
-        <v>0.1087</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="T6" s="2">
-        <v>-3.49E-2</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7">
-        <v>2.1720000000000002</v>
-      </c>
-      <c r="E7">
-        <v>3.4449999999999998</v>
-      </c>
       <c r="F7">
-        <v>4.8391999999999999</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3.8391999999999999</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.2316</v>
-      </c>
-      <c r="I7" s="2">
-        <v>-0.1779</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.1535</v>
+        <v>1.9084000000000001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>1.38</v>
-      </c>
-      <c r="L7" s="2">
-        <v>9.1600000000000001E-2</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1.1104000000000001</v>
-      </c>
-      <c r="N7" s="2">
-        <v>-4.9700000000000001E-2</v>
+        <v>1.08</v>
       </c>
       <c r="O7" s="2">
-        <v>0.1249</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="P7" s="2">
-        <v>0.15909999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.37669999999999998</v>
+        <v>0.33929999999999999</v>
       </c>
       <c r="R7" s="2">
-        <v>0.12770000000000001</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="S7" s="2">
-        <v>1.4E-2</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="T7" s="2">
-        <v>-2.7300000000000001E-2</v>
+        <v>-1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="F8">
-        <v>2.2900999999999998</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1.2903</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.12189999999999999</v>
-      </c>
-      <c r="I8" s="2">
-        <v>-8.3000000000000004E-2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>7.3200000000000001E-2</v>
+        <v>1.4887999999999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
       </c>
       <c r="K8">
-        <v>1.39</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.154</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.28129999999999999</v>
-      </c>
-      <c r="N8" s="2">
-        <v>8.1900000000000001E-2</v>
-      </c>
-      <c r="O8" s="2">
-        <v>5.5199999999999999E-2</v>
+        <v>2.13</v>
       </c>
       <c r="P8" s="2">
-        <v>6.6299999999999998E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.1343</v>
+        <v>0.22869999999999999</v>
       </c>
       <c r="R8" s="2">
-        <v>0.1323</v>
+        <v>0.18740000000000001</v>
       </c>
       <c r="S8" s="2">
-        <v>1.3599999999999999E-2</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="T8" s="2">
-        <v>-7.1999999999999998E-3</v>
+        <v>-6.8999999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="F9">
-        <v>1.2513000000000001</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.25130000000000002</v>
-      </c>
-      <c r="H9" s="2">
-        <v>7.2599999999999998E-2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>-0.1085</v>
-      </c>
-      <c r="J9" s="2">
-        <v>9.2299999999999993E-2</v>
+        <v>2.9834000000000001</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
       </c>
       <c r="K9">
-        <v>0.56999999999999995</v>
+        <v>1.82</v>
       </c>
       <c r="O9" s="2">
-        <v>-3.2300000000000002E-2</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="P9" s="2">
-        <v>4.4400000000000002E-2</v>
+        <v>0.26960000000000001</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.14610000000000001</v>
+        <v>0.47220000000000001</v>
       </c>
       <c r="R9" s="2">
-        <v>8.0199999999999994E-2</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="S9" s="2">
-        <v>4.1700000000000001E-2</v>
+        <v>0.1087</v>
       </c>
       <c r="T9" s="2">
-        <v>-1.04E-2</v>
+        <v>-3.49E-2</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
-        <v>1.58</v>
-      </c>
-      <c r="E10">
-        <v>1.58</v>
-      </c>
       <c r="F10">
-        <v>1.58</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="I10" s="2">
-        <v>-7.7299999999999994E-2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>8.2199999999999995E-2</v>
+        <v>4.8391999999999999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
       </c>
       <c r="K10">
-        <v>0.85</v>
+        <v>1.38</v>
+      </c>
+      <c r="L10" s="2">
+        <v>9.1600000000000001E-2</v>
       </c>
       <c r="M10" s="2">
-        <v>0.108</v>
+        <v>1.1104000000000001</v>
       </c>
       <c r="N10" s="2">
-        <v>5.4000000000000003E-3</v>
+        <v>-4.9700000000000001E-2</v>
       </c>
       <c r="O10" s="2">
-        <v>0.12839999999999999</v>
+        <v>0.1249</v>
       </c>
       <c r="P10" s="2">
-        <v>0.14080000000000001</v>
+        <v>0.15909999999999999</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.15129999999999999</v>
+        <v>0.37669999999999998</v>
       </c>
       <c r="R10" s="2">
-        <v>-4.2999999999999997E-2</v>
+        <v>0.12770000000000001</v>
       </c>
       <c r="S10" s="2">
-        <v>-2.1100000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="T10" s="2">
-        <v>-7.4999999999999997E-3</v>
+        <v>-2.7300000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="F11">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5.2900000000000003E-2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>-6.3100000000000003E-2</v>
-      </c>
-      <c r="J11" s="2">
-        <v>7.3999999999999996E-2</v>
+        <v>2.2900999999999998</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
       </c>
       <c r="K11">
-        <v>0.44</v>
+        <v>1.39</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="N11" s="2">
+        <v>8.1900000000000001E-2</v>
       </c>
       <c r="O11" s="2">
-        <v>-2.8000000000000001E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="P11" s="2">
-        <v>2.1600000000000001E-2</v>
+        <v>6.6299999999999998E-2</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.18729999999999999</v>
+        <v>0.1343</v>
       </c>
       <c r="R11" s="2">
-        <v>-8.0000000000000004E-4</v>
+        <v>0.1323</v>
       </c>
       <c r="S11" s="2">
-        <v>2.5999999999999999E-3</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="T11" s="2">
-        <v>-5.8999999999999999E-3</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12">
-        <v>3.3035000000000001</v>
-      </c>
-      <c r="E12">
-        <v>3.3035000000000001</v>
-      </c>
       <c r="F12">
-        <v>3.3035000000000001</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2.3037999999999998</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.1993</v>
-      </c>
-      <c r="I12" s="2">
-        <v>-0.18429999999999999</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.1976</v>
+        <v>1.2513000000000001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s">
+        <v>88</v>
       </c>
       <c r="K12">
-        <v>0.91</v>
-      </c>
-      <c r="L12" s="2">
-        <v>-5.8500000000000003E-2</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.81459999999999999</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.22289999999999999</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O12" s="2">
-        <v>-7.5800000000000006E-2</v>
+        <v>-3.2300000000000002E-2</v>
       </c>
       <c r="P12" s="2">
-        <v>0.17799999999999999</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.6381</v>
+        <v>0.14610000000000001</v>
       </c>
       <c r="R12" s="2">
-        <v>-0.1133</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="S12" s="2">
-        <v>-2.2000000000000001E-3</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="T12" s="2">
-        <v>-1.7999999999999999E-2</v>
+        <v>-1.04E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="F13">
-        <v>3.4016999999999999</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2.4016999999999999</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.1479</v>
-      </c>
-      <c r="I13" s="2">
-        <v>-0.16539999999999999</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.14130000000000001</v>
+        <v>1.58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" t="s">
+        <v>94</v>
       </c>
       <c r="K13">
-        <v>0.91</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.12920000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="M13" s="2">
-        <v>0.32600000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="N13" s="2">
-        <v>-7.6E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="O13" s="2">
-        <v>0.1991</v>
+        <v>0.12839999999999999</v>
       </c>
       <c r="P13" s="2">
-        <v>2.6599999999999999E-2</v>
+        <v>0.14080000000000001</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.1135</v>
+        <v>0.15129999999999999</v>
       </c>
       <c r="R13" s="2">
-        <v>0.2253</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="S13" s="2">
-        <v>4.48E-2</v>
+        <v>-2.1100000000000001E-2</v>
       </c>
       <c r="T13" s="2">
-        <v>-1.47E-2</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="F14">
-        <v>2.1966000000000001</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.1966000000000001</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.12189999999999999</v>
-      </c>
-      <c r="I14" s="2">
-        <v>-9.9900000000000003E-2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.1113</v>
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" t="s">
+        <v>100</v>
       </c>
       <c r="K14">
-        <v>0.92</v>
-      </c>
-      <c r="L14" s="2">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.26090000000000002</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0.12690000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="O14" s="2">
-        <v>0.14130000000000001</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="P14" s="2">
-        <v>7.8700000000000006E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="Q14" s="2">
-        <v>8.2299999999999998E-2</v>
+        <v>0.18729999999999999</v>
       </c>
       <c r="R14" s="2">
-        <v>6.5500000000000003E-2</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="S14" s="2">
-        <v>-1.35E-2</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="T14" s="2">
-        <v>-1.1599999999999999E-2</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15">
-        <v>7.34</v>
-      </c>
-      <c r="E15">
-        <v>7.9850000000000003</v>
-      </c>
       <c r="F15">
-        <v>8.4410000000000007</v>
-      </c>
-      <c r="G15" s="2">
-        <v>7.4409999999999998</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.27310000000000001</v>
-      </c>
-      <c r="I15" s="2">
-        <v>-0.22470000000000001</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.1666</v>
+        <v>3.3035000000000001</v>
+      </c>
+      <c r="G15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" t="s">
+        <v>106</v>
       </c>
       <c r="K15">
-        <v>1.52</v>
+        <v>0.91</v>
       </c>
       <c r="L15" s="2">
-        <v>0.4798</v>
+        <v>-5.8500000000000003E-2</v>
       </c>
       <c r="M15" s="2">
-        <v>0.9133</v>
+        <v>0.81459999999999999</v>
       </c>
       <c r="N15" s="2">
-        <v>8.1199999999999994E-2</v>
+        <v>0.22289999999999999</v>
       </c>
       <c r="O15" s="2">
-        <v>0.27079999999999999</v>
+        <v>-7.5800000000000006E-2</v>
       </c>
       <c r="P15" s="2">
-        <v>0.1464</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="Q15" s="2">
-        <v>7.0199999999999999E-2</v>
+        <v>0.6381</v>
       </c>
       <c r="R15" s="2">
-        <v>0.1019</v>
+        <v>-0.1133</v>
       </c>
       <c r="S15" s="2">
-        <v>-1.5E-3</v>
+        <v>-2.2000000000000001E-3</v>
       </c>
       <c r="T15" s="2">
-        <v>-1.23E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="F16">
-        <v>2.5289999999999999</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1.5289999999999999</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.14530000000000001</v>
-      </c>
-      <c r="I16" s="2">
-        <v>-0.1699</v>
-      </c>
-      <c r="J16" s="2">
-        <v>8.9399999999999993E-2</v>
+        <v>3.4016999999999999</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" t="s">
+        <v>113</v>
       </c>
       <c r="K16">
-        <v>1.4</v>
+        <v>0.91</v>
       </c>
       <c r="L16" s="2">
-        <v>0.18540000000000001</v>
+        <v>0.12920000000000001</v>
       </c>
       <c r="M16" s="2">
-        <v>0.30609999999999998</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="N16" s="2">
-        <v>9.3100000000000002E-2</v>
+        <v>-7.6E-3</v>
       </c>
       <c r="O16" s="2">
-        <v>6.4199999999999993E-2</v>
+        <v>0.1991</v>
       </c>
       <c r="P16" s="2">
-        <v>-2.3999999999999998E-3</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="Q16" s="2">
-        <v>0.19109999999999999</v>
+        <v>0.1135</v>
       </c>
       <c r="R16" s="2">
-        <v>0.18179999999999999</v>
+        <v>0.2253</v>
       </c>
       <c r="S16" s="2">
-        <v>4.6899999999999997E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="T16" s="2">
-        <v>-8.3999999999999995E-3</v>
+        <v>-1.47E-2</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="F17">
-        <v>2.2225000000000001</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1.2224999999999999</v>
-      </c>
-      <c r="H17" s="2">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="I17" s="2">
-        <v>-0.129</v>
-      </c>
-      <c r="J17" s="2">
-        <v>9.5600000000000004E-2</v>
+        <v>2.1966000000000001</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" t="s">
+        <v>118</v>
       </c>
       <c r="K17">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="L17" s="2">
-        <v>2.87E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="M17" s="2">
-        <v>0.29780000000000001</v>
+        <v>0.26090000000000002</v>
       </c>
       <c r="N17" s="2">
-        <v>9.9099999999999994E-2</v>
+        <v>0.12690000000000001</v>
       </c>
       <c r="O17" s="2">
-        <v>3.8600000000000002E-2</v>
+        <v>0.14130000000000001</v>
       </c>
       <c r="P17" s="2">
-        <v>-7.4000000000000003E-3</v>
+        <v>7.8700000000000006E-2</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.17680000000000001</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="R17" s="2">
-        <v>8.6499999999999994E-2</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="S17" s="2">
-        <v>2.1399999999999999E-2</v>
+        <v>-1.35E-2</v>
       </c>
       <c r="T17" s="2">
-        <v>-6.3E-3</v>
+        <v>-1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18">
-        <v>1.4407000000000001</v>
-      </c>
-      <c r="E18">
-        <v>1.5116000000000001</v>
-      </c>
       <c r="F18">
-        <v>1.5241</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.52390000000000003</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.1515</v>
-      </c>
-      <c r="I18" s="2">
-        <v>-6.0900000000000003E-2</v>
-      </c>
-      <c r="J18" s="2">
-        <v>6.54E-2</v>
+        <v>8.4410000000000007</v>
+      </c>
+      <c r="G18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" t="s">
+        <v>125</v>
       </c>
       <c r="K18">
-        <v>2.0099999999999998</v>
+        <v>1.52</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.4798</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.9133</v>
+      </c>
+      <c r="N18" s="2">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.27079999999999999</v>
       </c>
       <c r="P18" s="2">
-        <v>0.13139999999999999</v>
+        <v>0.1464</v>
       </c>
       <c r="Q18" s="2">
-        <v>0.25459999999999999</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="R18" s="2">
-        <v>7.3599999999999999E-2</v>
+        <v>0.1019</v>
       </c>
       <c r="S18" s="2">
-        <v>1.44E-2</v>
+        <v>-1.5E-3</v>
       </c>
       <c r="T18" s="2">
-        <v>-4.5999999999999999E-3</v>
+        <v>-1.23E-2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="F19">
-        <v>1.3141</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.31580000000000003</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="I19" s="2">
-        <v>-5.8500000000000003E-2</v>
-      </c>
-      <c r="J19" s="2">
-        <v>8.4500000000000006E-2</v>
+        <v>1.6880999999999999</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" t="s">
+        <v>131</v>
       </c>
       <c r="K19">
-        <v>1.51</v>
+        <v>0.9</v>
+      </c>
+      <c r="N19" s="2">
+        <v>-2.8299999999999999E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.20469999999999999</v>
+      </c>
+      <c r="P19" s="2">
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.20979999999999999</v>
+        <v>6.4799999999999996E-2</v>
       </c>
       <c r="R19" s="2">
-        <v>8.77E-2</v>
+        <v>0.30819999999999997</v>
       </c>
       <c r="S19" s="2">
-        <v>2.58E-2</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="T19" s="2">
-        <v>-1.04E-2</v>
+        <v>-1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20">
-        <v>1.1472</v>
-      </c>
-      <c r="E20">
-        <v>1.1472</v>
-      </c>
       <c r="F20">
-        <v>1.1472</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.14729999999999999</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.1036</v>
-      </c>
-      <c r="I20" s="2">
-        <v>-2.8899999999999999E-2</v>
-      </c>
-      <c r="J20" s="2">
-        <v>6.9699999999999998E-2</v>
+        <v>2.5289999999999999</v>
+      </c>
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>1.2</v>
+        <v>1.4</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.30609999999999998</v>
+      </c>
+      <c r="N20" s="2">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="O20" s="2">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="P20" s="2">
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="Q20" s="2">
-        <v>8.3999999999999995E-3</v>
+        <v>0.19109999999999999</v>
       </c>
       <c r="R20" s="2">
-        <v>0.13780000000000001</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="S20" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="T20" s="2">
-        <v>-1.15E-2</v>
+        <v>-8.3999999999999995E-3</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21">
-        <v>1.9730000000000001</v>
-      </c>
-      <c r="E21">
-        <v>2.323</v>
-      </c>
       <c r="F21">
-        <v>2.4116</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1.4116</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.13650000000000001</v>
-      </c>
-      <c r="I21" s="2">
-        <v>-0.14050000000000001</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.1051</v>
+        <v>2.2225000000000001</v>
+      </c>
+      <c r="G21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" t="s">
+        <v>141</v>
       </c>
       <c r="K21">
-        <v>1.1100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="L21" s="2">
-        <v>0.14599999999999999</v>
+        <v>2.87E-2</v>
       </c>
       <c r="M21" s="2">
-        <v>0.3866</v>
+        <v>0.29780000000000001</v>
       </c>
       <c r="N21" s="2">
-        <v>5.4100000000000002E-2</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="O21" s="2">
-        <v>0.18260000000000001</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="P21" s="2">
-        <v>-8.8599999999999998E-2</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.218</v>
+        <v>0.17680000000000001</v>
       </c>
       <c r="R21" s="2">
-        <v>9.6699999999999994E-2</v>
+        <v>8.6499999999999994E-2</v>
       </c>
       <c r="S21" s="2">
-        <v>2.12E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="T21" s="2">
-        <v>-1.5E-3</v>
+        <v>-6.3E-3</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22">
-        <v>3.1219999999999999</v>
-      </c>
-      <c r="E22">
-        <v>3.1219999999999999</v>
-      </c>
       <c r="F22">
-        <v>3.1219999999999999</v>
-      </c>
-      <c r="G22" s="2">
-        <v>2.1219999999999999</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.1186</v>
-      </c>
-      <c r="I22" s="2">
-        <v>-0.1459</v>
-      </c>
-      <c r="J22" s="2">
-        <v>9.8400000000000001E-2</v>
+        <v>1.5241</v>
+      </c>
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" t="s">
+        <v>147</v>
       </c>
       <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.1249</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.32890000000000003</v>
-      </c>
-      <c r="N22" s="2">
-        <v>5.33E-2</v>
-      </c>
-      <c r="O22" s="2">
-        <v>2.3800000000000002E-2</v>
+        <v>2</v>
       </c>
       <c r="P22" s="2">
-        <v>3.95E-2</v>
+        <v>0.13139999999999999</v>
       </c>
       <c r="Q22" s="2">
-        <v>1.35E-2</v>
+        <v>0.25459999999999999</v>
       </c>
       <c r="R22" s="2">
-        <v>9.35E-2</v>
+        <v>7.3599999999999999E-2</v>
       </c>
       <c r="S22" s="2">
-        <v>0.04</v>
+        <v>1.44E-2</v>
       </c>
       <c r="T22" s="2">
-        <v>-1.4800000000000001E-2</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="F23">
-        <v>1.6513</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.65129999999999999</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.1996</v>
-      </c>
-      <c r="I23" s="2">
-        <v>-0.1152</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.14940000000000001</v>
+        <v>1.3141</v>
+      </c>
+      <c r="G23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" t="s">
+        <v>152</v>
       </c>
       <c r="K23">
-        <v>1.2</v>
-      </c>
-      <c r="P23" s="2">
-        <v>-2.5700000000000001E-2</v>
+        <v>1.51</v>
       </c>
       <c r="Q23" s="2">
-        <v>0.34970000000000001</v>
+        <v>0.20979999999999999</v>
       </c>
       <c r="R23" s="2">
-        <v>0.25569999999999998</v>
+        <v>8.77E-2</v>
       </c>
       <c r="S23" s="2">
-        <v>7.9100000000000004E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="T23" s="2">
-        <v>-2.7000000000000001E-3</v>
+        <v>-1.04E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="F24">
-        <v>3.7033999999999998</v>
-      </c>
-      <c r="G24" s="2">
-        <v>2.7038000000000002</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.2316</v>
-      </c>
-      <c r="I24" s="2">
-        <v>-0.33250000000000002</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0.15909999999999999</v>
+        <v>1.1472</v>
+      </c>
+      <c r="G24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" t="s">
+        <v>158</v>
       </c>
       <c r="K24">
-        <v>1.33</v>
-      </c>
-      <c r="L24" s="2">
-        <v>-1.9E-3</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0.75180000000000002</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0.1943</v>
-      </c>
-      <c r="O24" s="2">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="P24" s="2">
-        <v>-3.8199999999999998E-2</v>
+        <v>1.2</v>
       </c>
       <c r="Q24" s="2">
-        <v>0.29699999999999999</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="R24" s="2">
-        <v>0.41310000000000002</v>
+        <v>0.13780000000000001</v>
       </c>
       <c r="S24" s="2">
-        <v>1.84E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="T24" s="2">
-        <v>-3.4700000000000002E-2</v>
+        <v>-1.15E-2</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
       </c>
       <c r="F25">
-        <v>8.7030999999999992</v>
-      </c>
-      <c r="G25" s="2">
-        <v>7.7031000000000001</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="I25" s="2">
-        <v>-0.1348</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0.16850000000000001</v>
+        <v>2.3128000000000002</v>
+      </c>
+      <c r="G25" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" t="s">
+        <v>164</v>
       </c>
       <c r="K25">
-        <v>1.96</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0.43709999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="M25" s="2">
-        <v>0.68630000000000002</v>
+        <v>0.54990000000000006</v>
       </c>
       <c r="N25" s="2">
-        <v>-2.6700000000000002E-2</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="O25" s="2">
-        <v>-2.3800000000000002E-2</v>
+        <v>0.15690000000000001</v>
       </c>
       <c r="P25" s="2">
-        <v>0.15290000000000001</v>
+        <v>-0.1028</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.68289999999999995</v>
+        <v>0.2084</v>
       </c>
       <c r="R25" s="2">
-        <v>0.74319999999999997</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="S25" s="2">
-        <v>0.13070000000000001</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="T25" s="2">
-        <v>0</v>
+        <v>-1.4E-3</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
       <c r="F26">
-        <v>1.5339</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.53410000000000002</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.1396</v>
-      </c>
-      <c r="I26" s="2">
-        <v>-4.0899999999999999E-2</v>
-      </c>
-      <c r="J26" s="2">
-        <v>7.9100000000000004E-2</v>
+        <v>5.8947000000000003</v>
+      </c>
+      <c r="G26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" t="s">
+        <v>170</v>
       </c>
       <c r="K26">
-        <v>1.51</v>
+        <v>0.93</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.2918</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.1053</v>
       </c>
       <c r="O26" s="2">
-        <v>7.6E-3</v>
+        <v>8.2100000000000006E-2</v>
       </c>
       <c r="P26" s="2">
-        <v>0.11020000000000001</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="Q26" s="2">
-        <v>0.1807</v>
+        <v>4.2200000000000001E-2</v>
       </c>
       <c r="R26" s="2">
-        <v>0.1615</v>
+        <v>0.191</v>
       </c>
       <c r="S26" s="2">
-        <v>8.6999999999999994E-3</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="T26" s="2">
-        <v>-1.4800000000000001E-2</v>
+        <v>-2.4500000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27">
-        <v>1.0952</v>
-      </c>
-      <c r="E27">
-        <v>2.5571000000000002</v>
+        <v>22</v>
       </c>
       <c r="F27">
-        <v>3.4611999999999998</v>
-      </c>
-      <c r="G27" s="2">
-        <v>2.4611999999999998</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.19670000000000001</v>
-      </c>
-      <c r="I27" s="2">
-        <v>-0.16869999999999999</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.1062</v>
+        <v>1.5339</v>
+      </c>
+      <c r="G27" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" t="s">
+        <v>176</v>
       </c>
       <c r="K27">
-        <v>1.66</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.13950000000000001</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0.90890000000000004</v>
-      </c>
-      <c r="N27" s="2">
-        <v>5.4300000000000001E-2</v>
+        <v>1.51</v>
       </c>
       <c r="O27" s="2">
-        <v>-4.0099999999999997E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="P27" s="2">
-        <v>-4.3099999999999999E-2</v>
+        <v>0.11020000000000001</v>
       </c>
       <c r="Q27" s="2">
-        <v>0.27979999999999999</v>
+        <v>0.1807</v>
       </c>
       <c r="R27" s="2">
-        <v>0.2838</v>
+        <v>0.1615</v>
       </c>
       <c r="S27" s="2">
-        <v>4.99E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="T27" s="2">
-        <v>0</v>
+        <v>-1.4800000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="F28">
-        <v>3.9260999999999999</v>
-      </c>
-      <c r="G28" s="2">
-        <v>2.9260999999999999</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.19589999999999999</v>
-      </c>
-      <c r="I28" s="2">
-        <v>-5.9499999999999997E-2</v>
-      </c>
-      <c r="J28" s="2">
-        <v>7.3999999999999996E-2</v>
+        <v>8.7030999999999992</v>
+      </c>
+      <c r="G28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" t="s">
+        <v>181</v>
+      </c>
+      <c r="J28" t="s">
+        <v>182</v>
       </c>
       <c r="K28">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="L28" s="2">
-        <v>0.2321</v>
+        <v>0.43709999999999999</v>
       </c>
       <c r="M28" s="2">
-        <v>0.52680000000000005</v>
+        <v>0.68630000000000002</v>
       </c>
       <c r="N28" s="2">
-        <v>0.2238</v>
+        <v>-2.6700000000000002E-2</v>
       </c>
       <c r="O28" s="2">
-        <v>4.3099999999999999E-2</v>
+        <v>-2.3800000000000002E-2</v>
       </c>
       <c r="P28" s="2">
-        <v>4.0800000000000003E-2</v>
+        <v>0.15290000000000001</v>
       </c>
       <c r="Q28" s="2">
-        <v>0.11210000000000001</v>
+        <v>0.68289999999999995</v>
       </c>
       <c r="R28" s="2">
-        <v>0.1017</v>
+        <v>0.74319999999999997</v>
       </c>
       <c r="S28" s="2">
-        <v>2.4400000000000002E-2</v>
+        <v>0.13070000000000001</v>
       </c>
       <c r="T28" s="2">
-        <v>-1.3299999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="D29">
-        <v>1.1592</v>
-      </c>
-      <c r="E29">
-        <v>1.3153999999999999</v>
-      </c>
       <c r="F29">
-        <v>1.3196000000000001</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.31950000000000001</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.109</v>
-      </c>
-      <c r="I29" s="2">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="J29" s="2">
-        <v>9.3799999999999994E-2</v>
+        <v>1.6513</v>
+      </c>
+      <c r="G29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" t="s">
+        <v>188</v>
       </c>
       <c r="K29">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="P29" s="2">
-        <v>1.9699999999999999E-2</v>
+        <v>-2.5700000000000001E-2</v>
       </c>
       <c r="Q29" s="2">
-        <v>0.2681</v>
+        <v>0.34970000000000001</v>
       </c>
       <c r="R29" s="2">
-        <v>2.0400000000000001E-2</v>
+        <v>0.25569999999999998</v>
       </c>
       <c r="S29" s="2">
-        <v>-5.0000000000000001E-4</v>
+        <v>7.9100000000000004E-2</v>
       </c>
       <c r="T29" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>-2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="F30">
-        <v>1.8138000000000001</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.81379999999999997</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.13450000000000001</v>
-      </c>
-      <c r="I30" s="2">
-        <v>-0.1401</v>
-      </c>
-      <c r="J30" s="2">
-        <v>8.9099999999999999E-2</v>
+        <v>3.7033999999999998</v>
+      </c>
+      <c r="G30" t="s">
+        <v>191</v>
+      </c>
+      <c r="H30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" t="s">
+        <v>76</v>
       </c>
       <c r="K30">
-        <v>1.29</v>
+        <v>1.33</v>
+      </c>
+      <c r="L30" s="2">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.75180000000000002</v>
       </c>
       <c r="N30" s="2">
-        <v>0.12939999999999999</v>
+        <v>0.1943</v>
       </c>
       <c r="O30" s="2">
-        <v>0.10970000000000001</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="P30" s="2">
-        <v>0.20349999999999999</v>
+        <v>-3.8199999999999998E-2</v>
       </c>
       <c r="Q30" s="2">
-        <v>0.1207</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="R30" s="2">
-        <v>7.2900000000000006E-2</v>
+        <v>0.41310000000000002</v>
       </c>
       <c r="S30" s="2">
-        <v>2.3199999999999998E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="T30" s="2">
-        <v>0</v>
+        <v>-3.4700000000000002E-2</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
       </c>
-      <c r="D31">
-        <v>1.052</v>
-      </c>
-      <c r="E31">
-        <v>1.052</v>
-      </c>
       <c r="F31">
-        <v>1.052</v>
-      </c>
-      <c r="G31" s="2">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="H31" s="2">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="I31" s="2">
-        <v>-2.8899999999999999E-2</v>
-      </c>
-      <c r="J31" s="2">
-        <v>3.1199999999999999E-2</v>
+        <v>3.4422000000000001</v>
+      </c>
+      <c r="G31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" t="s">
+        <v>196</v>
+      </c>
+      <c r="I31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" t="s">
+        <v>198</v>
       </c>
       <c r="K31">
-        <v>0.28999999999999998</v>
+        <v>1.65</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="N31" s="2">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="O31" s="2">
+        <v>-4.0099999999999997E-2</v>
+      </c>
+      <c r="P31" s="2">
+        <v>-4.3099999999999999E-2</v>
       </c>
       <c r="Q31" s="2">
-        <v>2.6800000000000001E-2</v>
+        <v>0.27979999999999999</v>
       </c>
       <c r="R31" s="2">
-        <v>2.4500000000000001E-2</v>
+        <v>0.27679999999999999</v>
       </c>
       <c r="S31" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="T31" s="2">
-        <v>-4.0000000000000002E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="D32">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="E32">
-        <v>2.1240000000000001</v>
-      </c>
       <c r="F32">
-        <v>2.1913999999999998</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1.1914</v>
-      </c>
-      <c r="H32" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I32" s="2">
-        <v>-0.11559999999999999</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0.1075</v>
+        <v>3.9260999999999999</v>
+      </c>
+      <c r="G32" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" t="s">
+        <v>202</v>
+      </c>
+      <c r="I32" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" t="s">
+        <v>100</v>
       </c>
       <c r="K32">
-        <v>0.7</v>
+        <v>2.38</v>
       </c>
       <c r="L32" s="2">
-        <v>0.10929999999999999</v>
+        <v>0.2321</v>
       </c>
       <c r="M32" s="2">
-        <v>0.43990000000000001</v>
+        <v>0.52680000000000005</v>
       </c>
       <c r="N32" s="2">
-        <v>4.6899999999999997E-2</v>
+        <v>0.2238</v>
       </c>
       <c r="O32" s="2">
-        <v>2.8500000000000001E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="P32" s="2">
-        <v>-8.8000000000000005E-3</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="Q32" s="2">
-        <v>0.1653</v>
+        <v>0.11210000000000001</v>
       </c>
       <c r="R32" s="2">
-        <v>-5.0700000000000002E-2</v>
+        <v>0.1017</v>
       </c>
       <c r="S32" s="2">
-        <v>2.18E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="T32" s="2">
-        <v>-8.9999999999999998E-4</v>
+        <v>-1.3299999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
-      <c r="D33">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="E33">
-        <v>1.647</v>
-      </c>
       <c r="F33">
-        <v>1.8129</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0.81289999999999996</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="I33" s="2">
-        <v>-3.7900000000000003E-2</v>
-      </c>
-      <c r="J33" s="2">
-        <v>4.3200000000000002E-2</v>
+        <v>1.3196000000000001</v>
+      </c>
+      <c r="G33" t="s">
+        <v>206</v>
+      </c>
+      <c r="H33" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" t="s">
+        <v>209</v>
       </c>
       <c r="K33">
-        <v>2.11</v>
-      </c>
-      <c r="M33" s="2">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0.15740000000000001</v>
-      </c>
-      <c r="O33" s="2">
-        <v>9.35E-2</v>
+        <v>0.95</v>
       </c>
       <c r="P33" s="2">
-        <v>5.8000000000000003E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="Q33" s="2">
-        <v>0.15609999999999999</v>
+        <v>0.26819999999999999</v>
       </c>
       <c r="R33" s="2">
-        <v>7.6399999999999996E-2</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="S33" s="2">
-        <v>2.7000000000000001E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="T33" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
       </c>
       <c r="F34">
-        <v>1.0763</v>
-      </c>
-      <c r="G34" s="2">
-        <v>7.6399999999999996E-2</v>
-      </c>
-      <c r="H34" s="2">
-        <v>5.1299999999999998E-2</v>
-      </c>
-      <c r="I34" s="2">
-        <v>-1.35E-2</v>
-      </c>
-      <c r="J34" s="2">
-        <v>2.52E-2</v>
+        <v>1.8138000000000001</v>
+      </c>
+      <c r="G34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H34" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" t="s">
+        <v>215</v>
       </c>
       <c r="K34">
-        <v>1.24</v>
+        <v>1.29</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.20349999999999999</v>
       </c>
       <c r="Q34" s="2">
-        <v>2.4799999999999999E-2</v>
+        <v>0.1207</v>
       </c>
       <c r="R34" s="2">
-        <v>5.04E-2</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="S34" s="2">
-        <v>-1.9E-3</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="T34" s="2">
-        <v>5.8999999999999999E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
       </c>
+      <c r="D35">
+        <v>1.052</v>
+      </c>
+      <c r="E35">
+        <v>1.052</v>
+      </c>
       <c r="F35">
+        <v>1.052</v>
+      </c>
+      <c r="G35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" t="s">
+        <v>220</v>
+      </c>
+      <c r="K35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="R35" s="2">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="S35" s="2">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="T35" s="2">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36">
+        <v>1.8128</v>
+      </c>
+      <c r="G36" t="s">
+        <v>223</v>
+      </c>
+      <c r="H36" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" t="s">
+        <v>225</v>
+      </c>
+      <c r="J36" t="s">
+        <v>226</v>
+      </c>
+      <c r="K36">
+        <v>2.11</v>
+      </c>
+      <c r="M36" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="O36" s="2">
+        <v>9.35E-2</v>
+      </c>
+      <c r="P36" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="R36" s="2">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="S36" s="2">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="T36" s="2">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37">
+        <v>1.0763</v>
+      </c>
+      <c r="G37" t="s">
+        <v>229</v>
+      </c>
+      <c r="H37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" t="s">
+        <v>231</v>
+      </c>
+      <c r="K37">
+        <v>1.24</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="R37" s="2">
+        <v>5.04E-2</v>
+      </c>
+      <c r="S37" s="2">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="T37" s="2">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38">
         <v>1.2754000000000001</v>
       </c>
-      <c r="G35" s="2">
-        <v>0.27529999999999999</v>
-      </c>
-      <c r="H35" s="2">
-        <v>6.6600000000000006E-2</v>
-      </c>
-      <c r="I35" s="2">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="J35" s="2">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="K35">
+      <c r="G38" t="s">
+        <v>234</v>
+      </c>
+      <c r="H38" t="s">
+        <v>235</v>
+      </c>
+      <c r="I38" t="s">
+        <v>236</v>
+      </c>
+      <c r="J38" t="s">
+        <v>237</v>
+      </c>
+      <c r="K38">
         <v>2.0699999999999998</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O38" s="2">
         <v>8.1199999999999994E-2</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P38" s="2">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q38" s="2">
         <v>7.5399999999999995E-2</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R38" s="2">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S38" s="2">
         <v>-2.7000000000000001E-3</v>
       </c>
-      <c r="T35" s="2">
+      <c r="T38" s="2">
         <v>-4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39">
+        <v>1.4016999999999999</v>
+      </c>
+      <c r="G39" t="s">
+        <v>240</v>
+      </c>
+      <c r="H39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J39" t="s">
+        <v>243</v>
+      </c>
+      <c r="K39">
+        <v>1.36</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="P39" s="2">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="R39" s="2">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="S39" s="2">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2744,7 +3313,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -2752,13 +3321,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="D2">
         <v>1.1288</v>
@@ -2802,13 +3371,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F3">
         <v>1.4081999999999999</v>
@@ -2846,13 +3415,13 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F4">
         <v>1.2196</v>
@@ -2887,13 +3456,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F5">
         <v>1.1915</v>
@@ -2928,13 +3497,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F6">
         <v>1.145</v>
@@ -2969,13 +3538,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>256</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="D7">
         <v>1.2053</v>
@@ -3016,13 +3585,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="D8">
         <v>1.2565999999999999</v>
@@ -3060,13 +3629,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F9">
         <v>1.8640000000000001</v>
@@ -3116,13 +3685,13 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F10">
         <v>1.5903</v>
@@ -3172,13 +3741,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F11">
         <v>1.506</v>
@@ -3222,13 +3791,13 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F12">
         <v>1.3648</v>
@@ -3269,13 +3838,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F13">
         <v>1.248</v>
@@ -3316,13 +3885,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F14">
         <v>1.9917</v>
@@ -3363,13 +3932,13 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>272</v>
       </c>
       <c r="D15">
         <v>1.1575</v>
@@ -3413,13 +3982,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>273</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>274</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F16">
         <v>1.1996</v>
@@ -3460,13 +4029,13 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>2.3130000000000002</v>
@@ -3516,13 +4085,13 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>277</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>1.2488999999999999</v>
@@ -3560,13 +4129,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F19">
         <v>1.4039999999999999</v>
@@ -3604,13 +4173,13 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>281</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F20">
         <v>1.1855</v>
@@ -3648,13 +4217,13 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>284</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F21">
         <v>1.248</v>
@@ -3692,13 +4261,13 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>286</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="D22">
         <v>2.0567000000000002</v>
